--- a/tm_303_calendar.xlsx
+++ b/tm_303_calendar.xlsx
@@ -5,17 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="title_block" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="schedule_block" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="rule_block" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="information_block" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="calendar" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="theme_block" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="parent_event" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="child_event" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="notice_block" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="rule_block" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="information_block" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="calendar" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">calendar!$B$2:$O$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">calendar!$B$2:$O$65</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">title_block!$B$2:$O$65</definedName>
     <definedName function="false" hidden="false" name="copy" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="dfdsf" vbProcedure="false">#REF!</definedName>
@@ -24,9 +27,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="copy" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="dfdsf" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="对he_chun_qing《李广难封》的备稿演讲点评" vbProcedure="false">表1:[1]会议议程!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="copy" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="dfdsf" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="对he_chun_qing《李广难封》的备稿演讲点评" vbProcedure="false">表1:[1]会议议程!#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="copy" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="dfdsf" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="对he_chun_qing《李广难封》的备稿演讲点评" vbProcedure="false">表1:[1]会议议程!#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="138">
   <si>
     <r>
       <rPr>
@@ -264,10 +267,13 @@
     <t xml:space="preserve">摄影师：林长宏</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">时间 </t>
   </si>
   <si>
-    <t xml:space="preserve">主题：《立夏》</t>
+    <t xml:space="preserve">{theme_name}</t>
   </si>
   <si>
     <t xml:space="preserve">时间</t>
@@ -276,16 +282,19 @@
     <t xml:space="preserve">负责人</t>
   </si>
   <si>
+    <t xml:space="preserve">{time}</t>
+  </si>
+  <si>
     <t xml:space="preserve">会议组织者</t>
   </si>
   <si>
-    <t xml:space="preserve">林长宏</t>
+    <t xml:space="preserve">{organizer_name}</t>
   </si>
   <si>
     <t xml:space="preserve">礼宾师负责会员及来宾签到入场，现场布置及礼仪</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">{SAA_name}</t>
   </si>
   <si>
     <t xml:space="preserve">{start_time}</t>
@@ -294,409 +303,19 @@
     <t xml:space="preserve">{event_name}</t>
   </si>
   <si>
+    <t xml:space="preserve">{duration}</t>
+  </si>
+  <si>
     <t xml:space="preserve">mins</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">主持人开场白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">介绍会议主要内容、及可能的议程改动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">张合堂</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">介绍会议规则以及宾客介绍（限时每位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">秒）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">介绍国际演讲会及捷普聚思国际演讲俱乐部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">范琴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会议支持者介绍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主持人介绍及中场串词 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">时间官</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丘愉庄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">哼哈师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xxx</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">语法师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">词汇大师 （今日之词：春光明媚）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">总体点评师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陈立雄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">破冰师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黎咏恩（线上）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">即兴演讲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主持人串词</t>
-  </si>
-  <si>
-    <t xml:space="preserve">即兴主持人</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">即兴演讲《诗和远方》（演讲每人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">分钟，邀请串场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">分钟）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">宾客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">会员</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">即兴点评报告</t>
-  </si>
-  <si>
-    <t xml:space="preserve">诗瑜妈妈（线上）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">备稿演讲</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">备稿演讲《</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xxx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">L3P1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">杨小勇</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">备稿演讲《成为自己》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">L3P3</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">钟泳柳</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">备稿演讲《孩子教会了我什么？》 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">L1P1 </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Annie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小歇及合影</t>
-  </si>
-  <si>
-    <t xml:space="preserve">备稿点评</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">备稿点评《</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Paul&amp;Allen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">》</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">备稿点评《成为自己》</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李静</t>
-  </si>
-  <si>
-    <t xml:space="preserve">备稿点评《孩子教会了我什么？》</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赵丹敏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会议支持者报告</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主持人开场及中场串词</t>
-  </si>
-  <si>
-    <t xml:space="preserve">时间官报告</t>
-  </si>
-  <si>
-    <t xml:space="preserve">哼哈师报告</t>
-  </si>
-  <si>
-    <t xml:space="preserve">语法师报告</t>
-  </si>
-  <si>
-    <t xml:space="preserve">总体点评师报告</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主持人提示观众投票选出“最佳即兴演讲”“最佳备稿演讲”“最佳点评者”及“最佳会议支持者”，微信小程序投票</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会议尾声</t>
-  </si>
-  <si>
-    <t xml:space="preserve">嘉宾回访环节</t>
-  </si>
-  <si>
-    <t xml:space="preserve">颁奖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会议招募 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">龙志凤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会议结束</t>
+    <t xml:space="preserve">{end_time}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{host_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{notice}</t>
   </si>
   <si>
     <t xml:space="preserve">会议规定</t>
@@ -2174,7 +1793,415 @@
     <t xml:space="preserve">5. 专业展示 Demonstrating Expertise</t>
   </si>
   <si>
+    <t xml:space="preserve">主题：《立夏》</t>
+  </si>
+  <si>
+    <t xml:space="preserve">林长宏</t>
+  </si>
+  <si>
     <t xml:space="preserve">会议开场</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">主持人开场白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">介绍会议主要内容、及可能的议程改动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">张合堂</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">介绍会议规则以及宾客介绍（限时每位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">秒）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">介绍国际演讲会及捷普聚思国际演讲俱乐部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">范琴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会议支持者介绍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主持人介绍及中场串词 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">时间官</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丘愉庄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哼哈师</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">语法师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">词汇大师 （今日之词：春光明媚）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">总体点评师</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈立雄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">破冰师</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黎咏恩（线上）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">即兴演讲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主持人串词</t>
+  </si>
+  <si>
+    <t xml:space="preserve">即兴主持人</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">即兴演讲《诗和远方》（演讲每人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">分钟，邀请串场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">分钟）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">宾客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">会员</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">即兴点评报告</t>
+  </si>
+  <si>
+    <t xml:space="preserve">诗瑜妈妈（线上）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">备稿演讲</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">备稿演讲《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">xxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L3P1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">杨小勇</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">备稿演讲《成为自己》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L3P3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">钟泳柳</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">备稿演讲《孩子教会了我什么？》 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L1P1 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Annie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小歇及合影</t>
+  </si>
+  <si>
+    <t xml:space="preserve">备稿点评</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">备稿点评《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Paul&amp;Allen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">》</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">备稿点评《成为自己》</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李静</t>
+  </si>
+  <si>
+    <t xml:space="preserve">备稿点评《孩子教会了我什么？》</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵丹敏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会议支持者报告</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主持人开场及中场串词</t>
+  </si>
+  <si>
+    <t xml:space="preserve">时间官报告</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哼哈师报告</t>
+  </si>
+  <si>
+    <t xml:space="preserve">语法师报告</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总体点评师报告</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主持人提示观众投票选出“最佳即兴演讲”“最佳备稿演讲”“最佳点评者”及“最佳会议支持者”，微信小程序投票</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会议尾声</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嘉宾回访环节</t>
+  </si>
+  <si>
+    <t xml:space="preserve">颁奖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会议招募 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">龙志凤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会议结束</t>
   </si>
 </sst>
 </file>
@@ -2339,18 +2366,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -2403,6 +2418,18 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2425,12 +2452,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF99CC00"/>
         <bgColor rgb="FFFFCC00"/>
       </patternFill>
@@ -2445,6 +2466,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2542,9 +2569,58 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -2552,6 +2628,41 @@
       <right style="medium"/>
       <top style="thin"/>
       <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -2618,13 +2729,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
       <top style="thin"/>
@@ -2636,27 +2740,6 @@
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -2694,62 +2777,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2873,6 +2900,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2913,14 +2948,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="23" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2961,7 +2988,155 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2985,27 +3160,131 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="23" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="7" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3013,115 +3292,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3129,7 +3304,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3137,75 +3312,63 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="23" fillId="3" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3213,152 +3376,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="3" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3439,14 +3466,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>271800</xdr:rowOff>
+      <xdr:colOff>292320</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>270720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3455,8 +3482,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15894000"/>
-          <a:ext cx="188280" cy="271800"/>
+          <a:off x="4789440" y="15038640"/>
+          <a:ext cx="187200" cy="270720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3479,14 +3506,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>271800</xdr:rowOff>
+      <xdr:colOff>292320</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>270720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3495,8 +3522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15894000"/>
-          <a:ext cx="188280" cy="271800"/>
+          <a:off x="4789440" y="15038640"/>
+          <a:ext cx="187200" cy="270720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3518,15 +3545,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>78480</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>294840</xdr:colOff>
+      <xdr:colOff>294120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3539,8 +3566,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="215640" y="273600"/>
-          <a:ext cx="1652400" cy="1344240"/>
+          <a:off x="216000" y="273960"/>
+          <a:ext cx="1651320" cy="1343160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3556,14 +3583,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>272880</xdr:rowOff>
+      <xdr:colOff>292320</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>245160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3572,8 +3599,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="16199640"/>
-          <a:ext cx="188280" cy="271800"/>
+          <a:off x="4789440" y="15344640"/>
+          <a:ext cx="187200" cy="243720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3596,14 +3623,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>272880</xdr:rowOff>
+      <xdr:colOff>292320</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>245160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3612,8 +3639,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="16199640"/>
-          <a:ext cx="188280" cy="271800"/>
+          <a:off x="4789440" y="15344640"/>
+          <a:ext cx="187200" cy="243720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3636,14 +3663,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>272880</xdr:rowOff>
+      <xdr:colOff>292320</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>245160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3652,8 +3679,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="16199640"/>
-          <a:ext cx="188280" cy="271800"/>
+          <a:off x="4789440" y="15344640"/>
+          <a:ext cx="187200" cy="243720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3676,14 +3703,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>272880</xdr:rowOff>
+      <xdr:colOff>292320</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>245160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3692,8 +3719,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="16199640"/>
-          <a:ext cx="188280" cy="271800"/>
+          <a:off x="4789440" y="15344640"/>
+          <a:ext cx="187200" cy="243720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3717,13 +3744,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>254520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1316160</xdr:colOff>
+      <xdr:colOff>1315080</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3736,8 +3763,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12273120" y="347400"/>
-          <a:ext cx="1061640" cy="1197720"/>
+          <a:off x="12273120" y="347760"/>
+          <a:ext cx="1060560" cy="1196640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3752,15 +3779,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>77400</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>197640</xdr:colOff>
+      <xdr:colOff>196560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3773,8 +3800,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10986480" y="330480"/>
-          <a:ext cx="1229760" cy="1248480"/>
+          <a:off x="10986840" y="330840"/>
+          <a:ext cx="1228320" cy="1247400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3794,15 +3821,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3811,8 +3838,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6893280" y="3231360"/>
-          <a:ext cx="188280" cy="286200"/>
+          <a:off x="6894360" y="3170520"/>
+          <a:ext cx="187200" cy="285120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3834,15 +3861,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3851,8 +3878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6893280" y="3231360"/>
-          <a:ext cx="188280" cy="286200"/>
+          <a:off x="6894360" y="3170520"/>
+          <a:ext cx="187200" cy="285120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3874,15 +3901,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>97920</xdr:colOff>
+      <xdr:colOff>98280</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>46440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>269280</xdr:colOff>
+      <xdr:colOff>268560</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3895,8 +3922,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7698600" y="6667920"/>
-          <a:ext cx="171360" cy="127800"/>
+          <a:off x="7699680" y="6546240"/>
+          <a:ext cx="170280" cy="126720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3911,15 +3938,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3928,8 +3955,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6893280" y="3963240"/>
-          <a:ext cx="188280" cy="246960"/>
+          <a:off x="6894360" y="3872160"/>
+          <a:ext cx="187200" cy="245880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3951,15 +3978,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3968,8 +3995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6893280" y="3963240"/>
-          <a:ext cx="188280" cy="246960"/>
+          <a:off x="6894360" y="3872160"/>
+          <a:ext cx="187200" cy="245880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3991,15 +4018,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4008,8 +4035,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6893280" y="3597120"/>
-          <a:ext cx="188280" cy="285480"/>
+          <a:off x="6894360" y="3521160"/>
+          <a:ext cx="187200" cy="284400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4031,15 +4058,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4048,8 +4075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6893280" y="3597120"/>
-          <a:ext cx="188280" cy="285480"/>
+          <a:off x="6894360" y="3521160"/>
+          <a:ext cx="187200" cy="284400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4071,15 +4098,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4088,8 +4115,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6893280" y="3407040"/>
-          <a:ext cx="188280" cy="300240"/>
+          <a:off x="6894360" y="3346200"/>
+          <a:ext cx="187200" cy="284040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4111,15 +4138,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4128,8 +4155,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6893280" y="3407040"/>
-          <a:ext cx="188280" cy="300240"/>
+          <a:off x="6894360" y="3346200"/>
+          <a:ext cx="187200" cy="284040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4151,15 +4178,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4168,8 +4195,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6893280" y="3772440"/>
-          <a:ext cx="188280" cy="263160"/>
+          <a:off x="6894360" y="3696480"/>
+          <a:ext cx="187200" cy="246960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4191,15 +4218,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4208,8 +4235,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6893280" y="3772440"/>
-          <a:ext cx="188280" cy="263160"/>
+          <a:off x="6894360" y="3696480"/>
+          <a:ext cx="187200" cy="246960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4231,15 +4258,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4248,8 +4275,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6893280" y="3597120"/>
-          <a:ext cx="188280" cy="285480"/>
+          <a:off x="6894360" y="3521160"/>
+          <a:ext cx="187200" cy="284400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4271,15 +4298,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4288,8 +4315,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6893280" y="3597120"/>
-          <a:ext cx="188280" cy="285480"/>
+          <a:off x="6894360" y="3521160"/>
+          <a:ext cx="187200" cy="284400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4322,9 +4349,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>271800</xdr:rowOff>
+      <xdr:rowOff>270720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4334,7 +4361,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15894000"/>
-          <a:ext cx="188280" cy="271800"/>
+          <a:ext cx="187200" cy="270720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4362,9 +4389,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>271800</xdr:rowOff>
+      <xdr:rowOff>270720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4374,7 +4401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15894000"/>
-          <a:ext cx="188280" cy="271800"/>
+          <a:ext cx="187200" cy="270720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4402,9 +4429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>274680</xdr:colOff>
+      <xdr:colOff>273600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4418,7 +4445,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="195120" y="194040"/>
-          <a:ext cx="1652760" cy="1327320"/>
+          <a:ext cx="1651680" cy="1326240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4439,9 +4466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4451,7 +4478,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5117400"/>
-          <a:ext cx="188280" cy="415800"/>
+          <a:ext cx="187200" cy="414720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4479,9 +4506,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4491,7 +4518,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5117400"/>
-          <a:ext cx="188280" cy="415800"/>
+          <a:ext cx="187200" cy="414720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4519,9 +4546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>268560</xdr:colOff>
+      <xdr:colOff>267480</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>224640</xdr:rowOff>
+      <xdr:rowOff>223560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4535,7 +4562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5297040" y="11001960"/>
-          <a:ext cx="171360" cy="178920"/>
+          <a:ext cx="170280" cy="177840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4556,9 +4583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4568,7 +4595,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="6375240"/>
-          <a:ext cx="188280" cy="414360"/>
+          <a:ext cx="187200" cy="413280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4596,9 +4623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4608,7 +4635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="6375240"/>
-          <a:ext cx="188280" cy="414360"/>
+          <a:ext cx="187200" cy="413280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4636,9 +4663,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>272520</xdr:rowOff>
+      <xdr:rowOff>271440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4648,7 +4675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="16199280"/>
-          <a:ext cx="188280" cy="271800"/>
+          <a:ext cx="187200" cy="270720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4676,9 +4703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>272520</xdr:rowOff>
+      <xdr:rowOff>271440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4688,7 +4715,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="16199280"/>
-          <a:ext cx="188280" cy="271800"/>
+          <a:ext cx="187200" cy="270720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4716,9 +4743,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>272520</xdr:rowOff>
+      <xdr:rowOff>271440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4728,7 +4755,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="16199280"/>
-          <a:ext cx="188280" cy="271800"/>
+          <a:ext cx="187200" cy="270720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4756,9 +4783,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>272520</xdr:rowOff>
+      <xdr:rowOff>271440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4768,7 +4795,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="16199280"/>
-          <a:ext cx="188280" cy="271800"/>
+          <a:ext cx="187200" cy="270720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4796,9 +4823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4808,7 +4835,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5727240"/>
-          <a:ext cx="188280" cy="414720"/>
+          <a:ext cx="187200" cy="413640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4836,9 +4863,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4848,7 +4875,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5727240"/>
-          <a:ext cx="188280" cy="414720"/>
+          <a:ext cx="187200" cy="413640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4876,9 +4903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4888,7 +4915,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5422680"/>
-          <a:ext cx="188280" cy="414720"/>
+          <a:ext cx="187200" cy="413640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4916,9 +4943,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4928,7 +4955,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5422680"/>
-          <a:ext cx="188280" cy="414720"/>
+          <a:ext cx="187200" cy="413640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4956,9 +4983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1316160</xdr:colOff>
+      <xdr:colOff>1315080</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4972,7 +4999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12273120" y="347040"/>
-          <a:ext cx="1061640" cy="1197720"/>
+          <a:ext cx="1060560" cy="1196640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4993,9 +5020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5005,7 +5032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="6031800"/>
-          <a:ext cx="188280" cy="415800"/>
+          <a:ext cx="187200" cy="414720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5033,9 +5060,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5045,7 +5072,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="6031800"/>
-          <a:ext cx="188280" cy="415800"/>
+          <a:ext cx="187200" cy="414720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5073,9 +5100,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5085,7 +5112,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5727240"/>
-          <a:ext cx="188280" cy="414720"/>
+          <a:ext cx="187200" cy="413640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5113,9 +5140,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5125,7 +5152,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5727240"/>
-          <a:ext cx="188280" cy="414720"/>
+          <a:ext cx="187200" cy="413640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5153,9 +5180,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>197640</xdr:colOff>
+      <xdr:colOff>196560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5169,7 +5196,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10986120" y="330120"/>
-          <a:ext cx="1230120" cy="1248480"/>
+          <a:ext cx="1229040" cy="1247400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5192,7 +5219,7 @@
   <dimension ref="B1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5340,70 +5367,48 @@
       <c r="O8" s="10"/>
     </row>
     <row r="9" s="23" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>12</v>
-      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="28" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>14</v>
-      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" s="11" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="28"/>
-      <c r="C11" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>14</v>
-      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -5425,7 +5430,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" s="34" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
@@ -5441,7 +5446,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" s="34" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
@@ -5457,7 +5462,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" s="34" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="24" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
@@ -5473,7 +5478,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" s="34" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
       <c r="D16" s="0"/>
@@ -5858,54 +5863,54 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
-      <c r="I40" s="0"/>
-      <c r="J40" s="0"/>
-      <c r="K40" s="0"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
     <row r="41" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
     <row r="42" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
-      <c r="I42" s="0"/>
-      <c r="J42" s="0"/>
-      <c r="K42" s="0"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="35" t="s">
-        <v>16</v>
+      <c r="P42" s="25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5933,16 +5938,12 @@
     <row r="65" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="5">
     <mergeCell ref="B2:C5"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0" right="0.0694444444444444" top="0.6" bottom="0.659722222222222" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5960,13 +5961,104 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="30"/>
+      <c r="B3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.5"/>
@@ -5977,1020 +6069,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
-      <c r="G1" s="38" t="n">
-        <f aca="false">SUM(G2:G4)</f>
-        <v>8</v>
+      <c r="G1" s="38" t="s">
+        <v>21</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="40"/>
       <c r="J1" s="41"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="45" t="e">
-        <f aca="false">A1+TIME(0,G2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="30" t="e">
-        <f aca="false">I2+TIME(0,G3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="33" t="e">
-        <f aca="false">I3+TIME(0,G4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="53" t="e">
-        <f aca="false">A1+TIME(0,G1,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55" t="n">
-        <f aca="false">SUM(G6:G10)</f>
-        <v>9</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="30" t="e">
-        <f aca="false">A5+TIME(0,G6,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" s="61" t="str">
-        <f aca="false">J2</f>
-        <v>张合堂</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="30" t="e">
-        <f aca="false">I6+TIME(0,G7,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" s="62" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="30" t="e">
-        <f aca="false">I7+TIME(0,G8,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J8" s="63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="30" t="e">
-        <f aca="false">I8+TIME(0,G9,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J9" s="63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="30" t="e">
-        <f aca="false">I9+TIME(0,G10,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J10" s="66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="47" t="n">
-        <v>6</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="30" t="e">
-        <f aca="false">I10+TIME(0,G11,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" s="62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="67" t="e">
-        <f aca="false">A5+TIME(0,G5,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69" t="n">
-        <f aca="false">SUM(G13:G17)</f>
-        <v>29</v>
-      </c>
-      <c r="H12" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="30" t="e">
-        <f aca="false">A12+TIME(0,G13,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J13" s="73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="75" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="77" t="e">
-        <f aca="false">I13+TIME(0,G14,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J14" s="52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="43" t="n">
-        <v>18</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="45" t="e">
-        <f aca="false">I14+TIME(0,G15,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J15" s="79" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="80" t="n">
-        <v>7</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="30" t="e">
-        <f aca="false">I15+TIME(0,G16,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J16" s="66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="33" t="e">
-        <f aca="false">I16+TIME(0,G17,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" s="83" t="str">
-        <f aca="false">J2</f>
-        <v>张合堂</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="53" t="e">
-        <f aca="false">A12+TIME(0,G12,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55" t="n">
-        <f aca="false">SUM(G19:G25)</f>
-        <v>25</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="85" t="e">
-        <f aca="false">A18+TIME(0,G19,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J19" s="79" t="str">
-        <f aca="false">J2</f>
-        <v>张合堂</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="47" t="n">
-        <v>7</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="86" t="e">
-        <f aca="false">I19+TIME(0,G20,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J20" s="66" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="86" t="e">
-        <f aca="false">I20+TIME(0,G21,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J21" s="66" t="str">
-        <f aca="false">J19</f>
-        <v>张合堂</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="47" t="n">
-        <v>7</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="86" t="e">
-        <f aca="false">I21+TIME(0,G22,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J22" s="66" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="86" t="e">
-        <f aca="false">I22+TIME(0,G23,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J23" s="66" t="str">
-        <f aca="false">J2</f>
-        <v>张合堂</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="80" t="n">
-        <v>7</v>
-      </c>
-      <c r="H24" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="88" t="e">
-        <f aca="false">I23+TIME(0,G24,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J24" s="89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="90" t="e">
-        <f aca="false">I24+TIME(0,G25,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J25" s="52" t="str">
-        <f aca="false">J19</f>
-        <v>张合堂</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="53" t="e">
-        <f aca="false">A18+TIME(0,G18,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="H26" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="67" t="e">
-        <f aca="false">A26+TIME(0,G26,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="38" t="n">
-        <f aca="false">SUM(G28:G31)</f>
-        <v>10</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="85" t="e">
-        <f aca="false">A27+TIME(0,G28,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J28" s="79" t="str">
-        <f aca="false">J2</f>
-        <v>张合堂</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="47" t="n">
-        <v>3</v>
-      </c>
-      <c r="H29" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="86" t="e">
-        <f aca="false">I28+TIME(0,G29,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J29" s="66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="47" t="n">
-        <v>3</v>
-      </c>
-      <c r="H30" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="86" t="e">
-        <f aca="false">I29+TIME(0,G30,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J30" s="66" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="47" t="n">
-        <v>3</v>
-      </c>
-      <c r="H31" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="86" t="e">
-        <f aca="false">I30+TIME(0,G31,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J31" s="66" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="53" t="e">
-        <f aca="false">A27+TIME(0,G27,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B32" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="55" t="n">
-        <f aca="false">SUM(G33:G37)</f>
-        <v>15</v>
-      </c>
-      <c r="H32" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="30" t="e">
-        <f aca="false">A32+TIME(0,G33,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J33" s="62" t="str">
-        <f aca="false">J6</f>
-        <v>张合堂</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="H34" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="30" t="e">
-        <f aca="false">I33+TIME(0,G34,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J34" s="62" t="str">
-        <f aca="false">J7</f>
-        <v>丘愉庄</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="30" t="e">
-        <f aca="false">I34+TIME(0,G35,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J35" s="63" t="str">
-        <f aca="false">J8</f>
-        <v>xxx</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47" t="n">
-        <v>3</v>
-      </c>
-      <c r="H36" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="30" t="e">
-        <f aca="false">I35+TIME(0,G36,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J36" s="63" t="str">
-        <f aca="false">J9</f>
-        <v>xxx</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47" t="n">
-        <v>7</v>
-      </c>
-      <c r="H37" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="30" t="e">
-        <f aca="false">I36+TIME(0,G37,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J37" s="66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="96"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="97" t="e">
-        <f aca="false">A32+TIME(0,G32,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B39" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="99" t="n">
-        <f aca="false">SUM(G40:G42)</f>
-        <v>8</v>
-      </c>
-      <c r="H39" s="100" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="101"/>
-      <c r="J39" s="84"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="105" t="n">
-        <v>4</v>
-      </c>
-      <c r="H40" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="107" t="e">
-        <f aca="false">A39+TIME(0,G40,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J40" s="66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="47" t="n">
-        <v>3</v>
-      </c>
-      <c r="H41" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="30" t="e">
-        <f aca="false">I40+TIME(0,G41,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J41" s="66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="30" t="e">
-        <f aca="false">I41+TIME(0,G42,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J42" s="66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="97" t="e">
-        <f aca="false">A39+TIME(0,G39,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B43" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="110"/>
-    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B43:F43"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7003,7 +6103,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7017,80 +6212,80 @@
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="111" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
+      <c r="A1" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
+      <c r="A2" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
+      <c r="A4" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="116" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="117" t="s">
-        <v>76</v>
+      <c r="A5" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="119" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="119" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="120" t="s">
-        <v>80</v>
+      <c r="A6" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="122" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="123" t="s">
-        <v>83</v>
+      <c r="A7" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -7109,7 +6304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7126,344 +6321,344 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="124" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="A1" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="125" t="n">
+        <v>41</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="63" t="n">
         <v>13826106387</v>
       </c>
-      <c r="D2" s="125"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="125" t="n">
+      <c r="A3" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="63" t="n">
         <v>13794874425</v>
       </c>
-      <c r="D3" s="125"/>
+      <c r="D3" s="63"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="125" t="n">
+      <c r="A4" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="63" t="n">
         <v>13533880814</v>
       </c>
-      <c r="D4" s="125"/>
+      <c r="D4" s="63"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="125" t="n">
+      <c r="A5" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="63" t="n">
         <v>15920428594</v>
       </c>
-      <c r="D5" s="125"/>
+      <c r="D5" s="63"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="125" t="n">
+      <c r="A6" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="63" t="n">
         <v>18028652848</v>
       </c>
-      <c r="D6" s="125"/>
+      <c r="D6" s="63"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="125" t="n">
+      <c r="A7" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="63" t="n">
         <v>13022004144</v>
       </c>
-      <c r="D7" s="125"/>
+      <c r="D7" s="63"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="125" t="n">
+      <c r="A8" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="63" t="n">
         <v>18127871902</v>
       </c>
-      <c r="D8" s="125"/>
+      <c r="D8" s="63"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="126" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="128" t="n">
+      <c r="A9" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="67" t="n">
         <v>18688883546</v>
       </c>
-      <c r="D9" s="128"/>
+      <c r="D9" s="67"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="129" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
+      <c r="A10" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="130" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
+      <c r="A11" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="130"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="130"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="130"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="130"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="130"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="131" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
+      <c r="A18" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
+      <c r="A19" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="132"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="132"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="132"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="132"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="132"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="132"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="132"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="133" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
+      <c r="A27" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="134" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="136"/>
+      <c r="A28" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="75"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="137" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="139"/>
+      <c r="A29" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="78"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="137" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="139"/>
+      <c r="A30" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="78"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="137" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="139"/>
+      <c r="A31" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="78"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="137" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="139"/>
+      <c r="A32" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="78"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="137" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="138"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
+      <c r="A33" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="77"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="141" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="141"/>
-      <c r="C34" s="142" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="142"/>
+      <c r="A34" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="80"/>
+      <c r="C34" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="81"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="134" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="134"/>
-      <c r="C35" s="136" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="136"/>
+      <c r="A35" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="73"/>
+      <c r="C35" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="75"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="137" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="137"/>
-      <c r="C36" s="139" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="139"/>
+      <c r="A36" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="76"/>
+      <c r="C36" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="78"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="137" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="137"/>
-      <c r="C37" s="139" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="139"/>
+      <c r="A37" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="76"/>
+      <c r="C37" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="78"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="137" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="137"/>
-      <c r="C38" s="139" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="139"/>
+      <c r="A38" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="76"/>
+      <c r="C38" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="78"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="143" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="143"/>
-      <c r="C39" s="144" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="144"/>
+      <c r="A39" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="82"/>
+      <c r="C39" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -7505,15 +6700,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B2:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7660,85 +6855,85 @@
       <c r="O8" s="10"/>
     </row>
     <row r="9" s="23" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="27" t="s">
+      <c r="C9" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="111" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
+      <c r="K9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
     </row>
     <row r="10" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="28" t="n">
+      <c r="B10" s="30" t="n">
         <v>0.625</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30" t="n">
+      <c r="C10" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32" t="n">
         <v>0.625</v>
       </c>
-      <c r="K10" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
+      <c r="K10" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
     </row>
     <row r="11" s="11" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="28"/>
-      <c r="C11" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33" t="n">
+      <c r="B11" s="30"/>
+      <c r="C11" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35" t="n">
         <v>0.625</v>
       </c>
-      <c r="K11" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
+      <c r="K11" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
     </row>
     <row r="12" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="36" t="n">
         <v>0.625</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
@@ -7749,20 +6944,20 @@
         <v>8</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="41"/>
-      <c r="L12" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-    </row>
-    <row r="13" s="34" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L12" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+    </row>
+    <row r="13" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="42" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
@@ -7773,1246 +6968,1246 @@
         <v>1</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J13" s="45" t="n">
         <f aca="false">B12+TIME(0,H13,0)</f>
         <v>0.625694444444444</v>
       </c>
-      <c r="K13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="116" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="117" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" s="34" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="46" t="s">
+      <c r="K13" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="30" t="n">
+      <c r="J14" s="32" t="n">
         <f aca="false">J13+TIME(0,H14,0)</f>
         <v>0.627083333333333</v>
       </c>
-      <c r="K14" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="119" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="119" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" s="120" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" s="34" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50" t="n">
+      <c r="K14" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" s="24" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87" t="n">
         <v>5</v>
       </c>
-      <c r="I15" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="33" t="n">
+      <c r="I15" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="35" t="n">
         <f aca="false">J14+TIME(0,H15,0)</f>
         <v>0.630555555555556</v>
       </c>
-      <c r="K15" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" s="122" t="s">
-        <v>78</v>
-      </c>
-      <c r="O15" s="123" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" s="34" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="53" t="n">
+      <c r="K15" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="90" t="n">
         <f aca="false">B12+TIME(0,H12,0)</f>
         <v>0.630555555555556</v>
       </c>
-      <c r="C16" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55" t="n">
+      <c r="C16" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92" t="n">
         <f aca="false">SUM(H17:H21)</f>
         <v>9</v>
       </c>
-      <c r="I16" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="124" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
+      <c r="I16" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
     </row>
     <row r="17" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60" t="n">
+      <c r="B17" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="97" t="n">
         <v>3</v>
       </c>
-      <c r="I17" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="30" t="n">
+      <c r="I17" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="32" t="n">
         <f aca="false">B16+TIME(0,H17,0)</f>
         <v>0.632638888888889</v>
       </c>
-      <c r="K17" s="61" t="str">
+      <c r="K17" s="98" t="str">
         <f aca="false">K13</f>
         <v>张合堂</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="N17" s="125" t="n">
+        <v>41</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="63" t="n">
         <v>13826106387</v>
       </c>
-      <c r="O17" s="125"/>
+      <c r="O17" s="63"/>
     </row>
     <row r="18" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47" t="n">
+      <c r="B18" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="84" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="30" t="n">
+      <c r="I18" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="32" t="n">
         <f aca="false">J17+TIME(0,H18,0)</f>
         <v>0.633333333333333</v>
       </c>
-      <c r="K18" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="M18" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="N18" s="125" t="n">
+      <c r="K18" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="63" t="n">
         <v>13794874425</v>
       </c>
-      <c r="O18" s="125"/>
+      <c r="O18" s="63"/>
     </row>
     <row r="19" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47" t="n">
+      <c r="B19" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="84" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="30" t="n">
+      <c r="I19" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="32" t="n">
         <f aca="false">J18+TIME(0,H19,0)</f>
         <v>0.634027777777778</v>
       </c>
-      <c r="K19" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="M19" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="N19" s="125" t="n">
+      <c r="K19" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="63" t="n">
         <v>13533880814</v>
       </c>
-      <c r="O19" s="125"/>
+      <c r="O19" s="63"/>
     </row>
     <row r="20" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="47" t="n">
+      <c r="B20" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="I20" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="30" t="n">
+      <c r="I20" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="32" t="n">
         <f aca="false">J19+TIME(0,H20,0)</f>
         <v>0.635416666666667</v>
       </c>
-      <c r="K20" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" s="125" t="n">
+      <c r="K20" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="63" t="n">
         <v>15920428594</v>
       </c>
-      <c r="O20" s="125"/>
+      <c r="O20" s="63"/>
     </row>
     <row r="21" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="47" t="n">
+      <c r="B21" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="I21" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="30" t="n">
+      <c r="I21" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="32" t="n">
         <f aca="false">J20+TIME(0,H21,0)</f>
         <v>0.636805555555555</v>
       </c>
-      <c r="K21" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="M21" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="N21" s="125" t="n">
+      <c r="K21" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="63" t="n">
         <v>18028652848</v>
       </c>
-      <c r="O21" s="125"/>
+      <c r="O21" s="63"/>
     </row>
     <row r="22" s="11" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="47" t="n">
+      <c r="B22" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="84" t="n">
         <v>6</v>
       </c>
-      <c r="I22" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="30" t="n">
+      <c r="I22" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="32" t="n">
         <f aca="false">J21+TIME(0,H22,0)</f>
         <v>0.640972222222222</v>
       </c>
-      <c r="K22" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="M22" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="N22" s="125" t="n">
+      <c r="K22" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="63" t="n">
         <v>13022004144</v>
       </c>
-      <c r="O22" s="125"/>
+      <c r="O22" s="63"/>
     </row>
     <row r="23" s="11" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="67" t="n">
+      <c r="B23" s="104" t="n">
         <f aca="false">B16+TIME(0,H16,0)</f>
         <v>0.636805555555555</v>
       </c>
-      <c r="C23" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="69" t="n">
+      <c r="C23" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="106" t="n">
         <f aca="false">SUM(H24:H28)</f>
         <v>29</v>
       </c>
-      <c r="I23" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="M23" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="N23" s="125" t="n">
+      <c r="I23" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="63" t="n">
         <v>18127871902</v>
       </c>
-      <c r="O23" s="125"/>
+      <c r="O23" s="63"/>
     </row>
     <row r="24" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="47" t="n">
+      <c r="B24" s="109" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="84" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="30" t="n">
+      <c r="I24" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="32" t="n">
         <f aca="false">B23+TIME(0,H24,0)</f>
         <v>0.6375</v>
       </c>
-      <c r="K24" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="126" t="s">
-        <v>99</v>
-      </c>
-      <c r="M24" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="N24" s="128" t="n">
+      <c r="K24" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="67" t="n">
         <v>18688883546</v>
       </c>
-      <c r="O24" s="128"/>
+      <c r="O24" s="67"/>
     </row>
     <row r="25" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75" t="n">
+      <c r="B25" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="112" t="n">
         <v>2</v>
       </c>
-      <c r="I25" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="77" t="n">
+      <c r="I25" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="114" t="n">
         <f aca="false">J24+TIME(0,H25,0)</f>
         <v>0.638888888888889</v>
       </c>
-      <c r="K25" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="129" t="s">
-        <v>101</v>
-      </c>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="129"/>
+      <c r="K25" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
     </row>
     <row r="26" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
+      <c r="B26" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
       <c r="H26" s="43" t="n">
         <v>18</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J26" s="45" t="n">
         <f aca="false">J25+TIME(0,H26,0)</f>
         <v>0.651388888888889</v>
       </c>
-      <c r="K26" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" s="130" t="s">
-        <v>102</v>
-      </c>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
+      <c r="K26" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
     </row>
     <row r="27" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="80" t="n">
+      <c r="B27" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="117" t="n">
         <v>7</v>
       </c>
-      <c r="I27" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="30" t="n">
+      <c r="I27" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="32" t="n">
         <f aca="false">J26+TIME(0,H27,0)</f>
         <v>0.65625</v>
       </c>
-      <c r="K27" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="L27" s="130"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="130"/>
+      <c r="K27" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
     </row>
     <row r="28" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="82" t="n">
+      <c r="B28" s="118" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="119" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="33" t="n">
+      <c r="I28" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="35" t="n">
         <f aca="false">J27+TIME(0,H28,0)</f>
         <v>0.656944444444444</v>
       </c>
-      <c r="K28" s="83" t="str">
+      <c r="K28" s="120" t="str">
         <f aca="false">K13</f>
         <v>张合堂</v>
       </c>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="130"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
     </row>
     <row r="29" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="53" t="n">
+      <c r="B29" s="90" t="n">
         <f aca="false">B23+TIME(0,H23,0)</f>
         <v>0.656944444444444</v>
       </c>
-      <c r="C29" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55" t="n">
+      <c r="C29" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92" t="n">
         <f aca="false">SUM(H30:H36)</f>
         <v>25</v>
       </c>
-      <c r="I29" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="130"/>
-      <c r="N29" s="130"/>
-      <c r="O29" s="130"/>
+      <c r="I29" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
     </row>
     <row r="30" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
+      <c r="B30" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
       <c r="H30" s="43" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="85" t="n">
+        <v>22</v>
+      </c>
+      <c r="J30" s="122" t="n">
         <f aca="false">B29+TIME(0,H30,0)</f>
         <v>0.657638888888889</v>
       </c>
-      <c r="K30" s="79" t="str">
+      <c r="K30" s="116" t="str">
         <f aca="false">K13</f>
         <v>张合堂</v>
       </c>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
     </row>
     <row r="31" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="47" t="n">
+      <c r="B31" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="84" t="n">
         <v>7</v>
       </c>
-      <c r="I31" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="86" t="n">
+      <c r="I31" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="123" t="n">
         <f aca="false">J30+TIME(0,H31,0)</f>
         <v>0.6625</v>
       </c>
-      <c r="K31" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
+      <c r="K31" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
     </row>
     <row r="32" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="47" t="n">
+      <c r="B32" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="84" t="n">
         <v>1</v>
       </c>
-      <c r="I32" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="86" t="n">
+      <c r="I32" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="123" t="n">
         <f aca="false">J31+TIME(0,H32,0)</f>
         <v>0.663194444444444</v>
       </c>
-      <c r="K32" s="66" t="str">
+      <c r="K32" s="103" t="str">
         <f aca="false">K30</f>
         <v>张合堂</v>
       </c>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="130"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
     </row>
     <row r="33" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="47" t="n">
+      <c r="B33" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="84" t="n">
         <v>7</v>
       </c>
-      <c r="I33" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="86" t="n">
+      <c r="I33" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="123" t="n">
         <f aca="false">J32+TIME(0,H33,0)</f>
         <v>0.668055555555555</v>
       </c>
-      <c r="K33" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="131" t="s">
-        <v>103</v>
-      </c>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
+      <c r="K33" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="L33" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
     </row>
     <row r="34" s="11" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="47" t="n">
+      <c r="B34" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="84" t="n">
         <v>1</v>
       </c>
-      <c r="I34" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="86" t="n">
+      <c r="I34" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="123" t="n">
         <f aca="false">J33+TIME(0,H34,0)</f>
         <v>0.66875</v>
       </c>
-      <c r="K34" s="66" t="str">
+      <c r="K34" s="103" t="str">
         <f aca="false">K13</f>
         <v>张合堂</v>
       </c>
-      <c r="L34" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="M34" s="132"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="132"/>
+      <c r="L34" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
     </row>
     <row r="35" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="80" t="n">
+      <c r="B35" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="117" t="n">
         <v>7</v>
       </c>
-      <c r="I35" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="88" t="n">
+      <c r="I35" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="125" t="n">
         <f aca="false">J34+TIME(0,H35,0)</f>
         <v>0.673611111111111</v>
       </c>
-      <c r="K35" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="132"/>
-      <c r="M35" s="132"/>
-      <c r="N35" s="132"/>
-      <c r="O35" s="132"/>
+      <c r="K35" s="126" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
     </row>
     <row r="36" s="11" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="50" t="n">
+      <c r="B36" s="118" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="I36" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="90" t="n">
+      <c r="I36" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="127" t="n">
         <f aca="false">J35+TIME(0,H36,0)</f>
         <v>0.674305555555555</v>
       </c>
-      <c r="K36" s="52" t="str">
+      <c r="K36" s="89" t="str">
         <f aca="false">K30</f>
         <v>张合堂</v>
       </c>
-      <c r="L36" s="132"/>
-      <c r="M36" s="132"/>
-      <c r="N36" s="132"/>
-      <c r="O36" s="132"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
     </row>
     <row r="37" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="53" t="n">
+      <c r="B37" s="90" t="n">
         <f aca="false">B29+TIME(0,H29,0)</f>
         <v>0.674305555555556</v>
       </c>
-      <c r="C37" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="55" t="n">
+      <c r="C37" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="92" t="n">
         <v>5</v>
       </c>
-      <c r="I37" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="57"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="132"/>
-      <c r="N37" s="132"/>
-      <c r="O37" s="132"/>
+      <c r="I37" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="94"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
     </row>
     <row r="38" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="67" t="n">
+      <c r="B38" s="104" t="n">
         <f aca="false">B37+TIME(0,H37,0)</f>
         <v>0.677777777777778</v>
       </c>
-      <c r="C38" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
+      <c r="C38" s="105" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
       <c r="H38" s="38" t="n">
         <f aca="false">SUM(H39:H42)</f>
         <v>10</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J38" s="40"/>
       <c r="K38" s="40"/>
-      <c r="L38" s="132"/>
-      <c r="M38" s="132"/>
-      <c r="N38" s="132"/>
-      <c r="O38" s="132"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
     </row>
     <row r="39" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
+      <c r="B39" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
       <c r="H39" s="43" t="n">
         <v>1</v>
       </c>
       <c r="I39" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="85" t="n">
+        <v>22</v>
+      </c>
+      <c r="J39" s="122" t="n">
         <f aca="false">B38+TIME(0,H39,0)</f>
         <v>0.678472222222222</v>
       </c>
-      <c r="K39" s="79" t="str">
+      <c r="K39" s="116" t="str">
         <f aca="false">K13</f>
         <v>张合堂</v>
       </c>
-      <c r="L39" s="132"/>
-      <c r="M39" s="132"/>
-      <c r="N39" s="132"/>
-      <c r="O39" s="132"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
     </row>
     <row r="40" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="47" t="n">
+      <c r="B40" s="101" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="I40" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40" s="86" t="n">
+      <c r="I40" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="123" t="n">
         <f aca="false">J39+TIME(0,H40,0)</f>
         <v>0.680555555555556</v>
       </c>
-      <c r="K40" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="132"/>
+      <c r="K40" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
     </row>
     <row r="41" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="47" t="n">
+      <c r="B41" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="I41" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="86" t="n">
+      <c r="I41" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="123" t="n">
         <f aca="false">J40+TIME(0,H41,0)</f>
         <v>0.682638888888889</v>
       </c>
-      <c r="K41" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="L41" s="132"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="132"/>
-      <c r="O41" s="132"/>
+      <c r="K41" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
     </row>
     <row r="42" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="47" t="n">
+      <c r="B42" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="I42" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="86" t="n">
+      <c r="I42" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="123" t="n">
         <f aca="false">J41+TIME(0,H42,0)</f>
         <v>0.684722222222222</v>
       </c>
-      <c r="K42" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="L42" s="133" t="s">
-        <v>105</v>
-      </c>
-      <c r="M42" s="133"/>
-      <c r="N42" s="133"/>
-      <c r="O42" s="133"/>
-      <c r="P42" s="35" t="s">
-        <v>16</v>
+      <c r="K42" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="L42" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="53" t="n">
+      <c r="B43" s="90" t="n">
         <f aca="false">B38+TIME(0,H38,0)</f>
         <v>0.684722222222222</v>
       </c>
-      <c r="C43" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="55" t="n">
+      <c r="C43" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="92" t="n">
         <f aca="false">SUM(H44:H48)</f>
         <v>15</v>
       </c>
-      <c r="I43" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="134" t="s">
-        <v>106</v>
-      </c>
-      <c r="M43" s="135"/>
-      <c r="N43" s="135" t="s">
-        <v>107</v>
-      </c>
-      <c r="O43" s="136"/>
-      <c r="P43" s="35"/>
+      <c r="I43" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="O43" s="75"/>
+      <c r="P43" s="25"/>
     </row>
     <row r="44" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="47" t="n">
+      <c r="B44" s="128" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="84" t="n">
         <v>1</v>
       </c>
-      <c r="I44" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="30" t="n">
+      <c r="I44" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="32" t="n">
         <f aca="false">B43+TIME(0,H44,0)</f>
         <v>0.685416666666667</v>
       </c>
-      <c r="K44" s="62" t="str">
+      <c r="K44" s="99" t="str">
         <f aca="false">K17</f>
         <v>张合堂</v>
       </c>
-      <c r="L44" s="137" t="s">
-        <v>108</v>
-      </c>
-      <c r="M44" s="138"/>
-      <c r="N44" s="138" t="s">
-        <v>109</v>
-      </c>
-      <c r="O44" s="139"/>
-      <c r="P44" s="35"/>
+      <c r="L44" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="O44" s="78"/>
+      <c r="P44" s="25"/>
     </row>
     <row r="45" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="47" t="n">
+      <c r="B45" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="I45" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="30" t="n">
+      <c r="I45" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="32" t="n">
         <f aca="false">J44+TIME(0,H45,0)</f>
         <v>0.686805555555556</v>
       </c>
-      <c r="K45" s="62" t="str">
+      <c r="K45" s="99" t="str">
         <f aca="false">K18</f>
         <v>丘愉庄</v>
       </c>
-      <c r="L45" s="137" t="s">
-        <v>110</v>
-      </c>
-      <c r="M45" s="138"/>
-      <c r="N45" s="138" t="s">
-        <v>111</v>
-      </c>
-      <c r="O45" s="139"/>
+      <c r="L45" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="O45" s="78"/>
     </row>
     <row r="46" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="47" t="n">
+      <c r="B46" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="I46" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="30" t="n">
+      <c r="I46" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="32" t="n">
         <f aca="false">J45+TIME(0,H46,0)</f>
         <v>0.688194444444444</v>
       </c>
-      <c r="K46" s="63" t="str">
+      <c r="K46" s="100" t="str">
         <f aca="false">K19</f>
         <v>xxx</v>
       </c>
-      <c r="L46" s="137" t="s">
-        <v>112</v>
-      </c>
-      <c r="M46" s="138"/>
-      <c r="N46" s="138" t="s">
-        <v>113</v>
-      </c>
-      <c r="O46" s="139"/>
+      <c r="L46" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="O46" s="78"/>
     </row>
     <row r="47" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="47" t="n">
+      <c r="B47" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="I47" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="30" t="n">
+      <c r="I47" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="32" t="n">
         <f aca="false">J46+TIME(0,H47,0)</f>
         <v>0.690277777777778</v>
       </c>
-      <c r="K47" s="63" t="str">
+      <c r="K47" s="100" t="str">
         <f aca="false">K20</f>
         <v>xxx</v>
       </c>
-      <c r="L47" s="137" t="s">
-        <v>114</v>
-      </c>
-      <c r="M47" s="138"/>
-      <c r="N47" s="138" t="s">
-        <v>115</v>
-      </c>
-      <c r="O47" s="139"/>
+      <c r="L47" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="M47" s="77"/>
+      <c r="N47" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="O47" s="78"/>
     </row>
     <row r="48" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47" t="n">
+      <c r="B48" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="84" t="n">
         <v>7</v>
       </c>
-      <c r="I48" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" s="30" t="n">
+      <c r="I48" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="32" t="n">
         <f aca="false">J47+TIME(0,H48,0)</f>
         <v>0.695138888888889</v>
       </c>
-      <c r="K48" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="L48" s="137" t="s">
-        <v>116</v>
-      </c>
-      <c r="M48" s="138"/>
-      <c r="N48" s="140"/>
-      <c r="O48" s="140"/>
+      <c r="K48" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="L48" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="M48" s="77"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="79"/>
     </row>
     <row r="49" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="141" t="s">
-        <v>117</v>
-      </c>
-      <c r="M49" s="141"/>
-      <c r="N49" s="142" t="s">
-        <v>118</v>
-      </c>
-      <c r="O49" s="142"/>
+      <c r="B49" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="M49" s="80"/>
+      <c r="N49" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="O49" s="81"/>
     </row>
     <row r="50" s="11" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="97" t="n">
+      <c r="B50" s="131" t="n">
         <f aca="false">B43+TIME(0,H43,0)</f>
         <v>0.695138888888889</v>
       </c>
-      <c r="C50" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
-      <c r="H50" s="99" t="n">
+      <c r="C50" s="132" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="132"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="133" t="n">
         <f aca="false">SUM(H51:H53)</f>
         <v>8</v>
       </c>
-      <c r="I50" s="100" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="101"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="134" t="s">
-        <v>119</v>
-      </c>
-      <c r="M50" s="134"/>
-      <c r="N50" s="136" t="s">
-        <v>120</v>
-      </c>
-      <c r="O50" s="136"/>
+      <c r="I50" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="135"/>
+      <c r="K50" s="121"/>
+      <c r="L50" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="M50" s="73"/>
+      <c r="N50" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="O50" s="75"/>
     </row>
     <row r="51" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="105" t="n">
+      <c r="B51" s="136" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="139" t="n">
         <v>4</v>
       </c>
-      <c r="I51" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="107" t="n">
+      <c r="I51" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="141" t="n">
         <f aca="false">B50+TIME(0,H51,0)</f>
         <v>0.697916666666667</v>
       </c>
-      <c r="K51" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51" s="137" t="s">
-        <v>121</v>
-      </c>
-      <c r="M51" s="137"/>
-      <c r="N51" s="139" t="s">
-        <v>122</v>
-      </c>
-      <c r="O51" s="139"/>
+      <c r="K51" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="L51" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="M51" s="76"/>
+      <c r="N51" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="O51" s="78"/>
     </row>
     <row r="52" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="H52" s="47" t="n">
+      <c r="B52" s="142" t="s">
+        <v>134</v>
+      </c>
+      <c r="H52" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="I52" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" s="30" t="n">
+      <c r="I52" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="32" t="n">
         <f aca="false">J51+TIME(0,H52,0)</f>
         <v>0.7</v>
       </c>
-      <c r="K52" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" s="137" t="s">
-        <v>123</v>
-      </c>
-      <c r="M52" s="137"/>
-      <c r="N52" s="139" t="s">
-        <v>124</v>
-      </c>
-      <c r="O52" s="139"/>
+      <c r="K52" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="L52" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="M52" s="76"/>
+      <c r="N52" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="O52" s="78"/>
     </row>
     <row r="53" s="11" customFormat="true" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="47" t="n">
+      <c r="B53" s="128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="84" t="n">
         <v>1</v>
       </c>
-      <c r="I53" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" s="30" t="n">
+      <c r="I53" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="32" t="n">
         <f aca="false">J52+TIME(0,H53,0)</f>
         <v>0.700694444444444</v>
       </c>
-      <c r="K53" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="L53" s="137" t="s">
-        <v>125</v>
-      </c>
-      <c r="M53" s="137"/>
-      <c r="N53" s="139" t="s">
-        <v>126</v>
-      </c>
-      <c r="O53" s="139"/>
-      <c r="P53" s="145"/>
+      <c r="K53" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="L53" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="M53" s="76"/>
+      <c r="N53" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="O53" s="78"/>
+      <c r="P53" s="143"/>
     </row>
     <row r="54" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="97" t="n">
+      <c r="B54" s="131" t="n">
         <f aca="false">B50+TIME(0,H50,0)</f>
         <v>0.700694444444444</v>
       </c>
-      <c r="C54" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="109"/>
-      <c r="K54" s="110"/>
-      <c r="L54" s="143" t="s">
-        <v>127</v>
-      </c>
-      <c r="M54" s="143"/>
-      <c r="N54" s="144" t="s">
-        <v>128</v>
-      </c>
-      <c r="O54" s="144"/>
-      <c r="P54" s="145"/>
+      <c r="C54" s="132" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="132"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="134"/>
+      <c r="J54" s="144"/>
+      <c r="K54" s="145"/>
+      <c r="L54" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="M54" s="82"/>
+      <c r="N54" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="O54" s="83"/>
+      <c r="P54" s="143"/>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/tm_303_calendar.xlsx
+++ b/tm_303_calendar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="title_block" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
     <sheet name="calendar" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">calendar!$B$2:$O$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">calendar!$B$2:$O$64</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">title_block!$B$2:$O$65</definedName>
     <definedName function="false" hidden="false" name="copy" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="dfdsf" vbProcedure="false">#REF!</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="137">
   <si>
     <r>
       <rPr>
@@ -1794,9 +1794,6 @@
   </si>
   <si>
     <t xml:space="preserve">主题：《立夏》</t>
-  </si>
-  <si>
-    <t xml:space="preserve">林长宏</t>
   </si>
   <si>
     <t xml:space="preserve">会议开场</t>
@@ -2213,7 +2210,7 @@
     <numFmt numFmtId="165" formatCode="H:MM"/>
     <numFmt numFmtId="166" formatCode="H:MM;@"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2417,6 +2414,16 @@
       <name val="宋体"/>
       <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2803,7 +2810,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="150">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3140,6 +3147,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3284,7 +3303,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3292,11 +3311,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3304,7 +3323,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="34" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3312,7 +3331,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3378,6 +3397,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -3471,9 +3494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>270720</xdr:rowOff>
+      <xdr:rowOff>269640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3483,7 +3506,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15038640"/>
-          <a:ext cx="187200" cy="270720"/>
+          <a:ext cx="186120" cy="269640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3511,9 +3534,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>270720</xdr:rowOff>
+      <xdr:rowOff>269640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3523,7 +3546,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15038640"/>
-          <a:ext cx="187200" cy="270720"/>
+          <a:ext cx="186120" cy="269640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3551,9 +3574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>294120</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3567,7 +3590,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="216000" y="273960"/>
-          <a:ext cx="1651320" cy="1343160"/>
+          <a:ext cx="1650240" cy="1342080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3588,9 +3611,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>245160</xdr:rowOff>
+      <xdr:rowOff>244080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3600,7 +3623,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15344640"/>
-          <a:ext cx="187200" cy="243720"/>
+          <a:ext cx="186120" cy="242640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3628,9 +3651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>245160</xdr:rowOff>
+      <xdr:rowOff>244080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3640,7 +3663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15344640"/>
-          <a:ext cx="187200" cy="243720"/>
+          <a:ext cx="186120" cy="242640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3668,9 +3691,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>245160</xdr:rowOff>
+      <xdr:rowOff>244080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3680,7 +3703,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15344640"/>
-          <a:ext cx="187200" cy="243720"/>
+          <a:ext cx="186120" cy="242640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3708,9 +3731,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>245160</xdr:rowOff>
+      <xdr:rowOff>244080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3720,7 +3743,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15344640"/>
-          <a:ext cx="187200" cy="243720"/>
+          <a:ext cx="186120" cy="242640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3748,9 +3771,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1315080</xdr:colOff>
+      <xdr:colOff>1314000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3764,7 +3787,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12273120" y="347760"/>
-          <a:ext cx="1060560" cy="1196640"/>
+          <a:ext cx="1059480" cy="1195560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3785,9 +3808,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>196560</xdr:colOff>
+      <xdr:colOff>195480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3801,7 +3824,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10986840" y="330840"/>
-          <a:ext cx="1228320" cy="1247400"/>
+          <a:ext cx="1227240" cy="1246320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3827,9 +3850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3839,7 +3862,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6894360" y="3170520"/>
-          <a:ext cx="187200" cy="285120"/>
+          <a:ext cx="186120" cy="284040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3867,9 +3890,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3879,7 +3902,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6894360" y="3170520"/>
-          <a:ext cx="187200" cy="285120"/>
+          <a:ext cx="186120" cy="284040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3907,9 +3930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>268560</xdr:colOff>
+      <xdr:colOff>267480</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:rowOff>172080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3923,7 +3946,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7699680" y="6546240"/>
-          <a:ext cx="170280" cy="126720"/>
+          <a:ext cx="169200" cy="125640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3944,9 +3967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3956,7 +3979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6894360" y="3872160"/>
-          <a:ext cx="187200" cy="245880"/>
+          <a:ext cx="186120" cy="244800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3984,9 +4007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3996,7 +4019,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6894360" y="3872160"/>
-          <a:ext cx="187200" cy="245880"/>
+          <a:ext cx="186120" cy="244800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4024,9 +4047,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4036,7 +4059,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6894360" y="3521160"/>
-          <a:ext cx="187200" cy="284400"/>
+          <a:ext cx="186120" cy="283320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4064,9 +4087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4076,7 +4099,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6894360" y="3521160"/>
-          <a:ext cx="187200" cy="284400"/>
+          <a:ext cx="186120" cy="283320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4104,9 +4127,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4116,7 +4139,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6894360" y="3346200"/>
-          <a:ext cx="187200" cy="284040"/>
+          <a:ext cx="186120" cy="282960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4144,9 +4167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4156,7 +4179,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6894360" y="3346200"/>
-          <a:ext cx="187200" cy="284040"/>
+          <a:ext cx="186120" cy="282960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4184,9 +4207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4196,7 +4219,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6894360" y="3696480"/>
-          <a:ext cx="187200" cy="246960"/>
+          <a:ext cx="186120" cy="245880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4224,9 +4247,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4236,7 +4259,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6894360" y="3696480"/>
-          <a:ext cx="187200" cy="246960"/>
+          <a:ext cx="186120" cy="245880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4264,9 +4287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4276,7 +4299,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6894360" y="3521160"/>
-          <a:ext cx="187200" cy="284400"/>
+          <a:ext cx="186120" cy="283320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4304,9 +4327,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4316,7 +4339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6894360" y="3521160"/>
-          <a:ext cx="187200" cy="284400"/>
+          <a:ext cx="186120" cy="283320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4349,9 +4372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>270720</xdr:rowOff>
+      <xdr:rowOff>269640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4360,8 +4383,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15894000"/>
-          <a:ext cx="187200" cy="270720"/>
+          <a:off x="4789440" y="16084440"/>
+          <a:ext cx="186120" cy="269640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4389,9 +4412,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>270720</xdr:rowOff>
+      <xdr:rowOff>269640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4400,8 +4423,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15894000"/>
-          <a:ext cx="187200" cy="270720"/>
+          <a:off x="4789440" y="16084440"/>
+          <a:ext cx="186120" cy="269640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4423,15 +4446,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57600</xdr:colOff>
+      <xdr:colOff>58320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>273600</xdr:colOff>
+      <xdr:colOff>273240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4444,8 +4467,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="195120" y="194040"/>
-          <a:ext cx="1651680" cy="1326240"/>
+          <a:off x="195840" y="194760"/>
+          <a:ext cx="1650600" cy="1325160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4466,9 +4489,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4477,8 +4500,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5117400"/>
-          <a:ext cx="187200" cy="414720"/>
+          <a:off x="4789440" y="5307840"/>
+          <a:ext cx="186120" cy="414360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4506,9 +4529,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4517,8 +4540,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5117400"/>
-          <a:ext cx="187200" cy="414720"/>
+          <a:off x="4789440" y="5307840"/>
+          <a:ext cx="186120" cy="414360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4546,9 +4569,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>267480</xdr:colOff>
+      <xdr:colOff>266400</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>223560</xdr:rowOff>
+      <xdr:rowOff>222480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4561,8 +4584,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5297040" y="11001960"/>
-          <a:ext cx="170280" cy="177840"/>
+          <a:off x="5297040" y="11192400"/>
+          <a:ext cx="169200" cy="176760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4579,13 +4602,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4594,8 +4617,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6375240"/>
-          <a:ext cx="187200" cy="413280"/>
+          <a:off x="4789440" y="6566400"/>
+          <a:ext cx="186120" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4619,13 +4642,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4634,8 +4657,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6375240"/>
-          <a:ext cx="187200" cy="413280"/>
+          <a:off x="4789440" y="6566400"/>
+          <a:ext cx="186120" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4658,14 +4681,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>271440</xdr:rowOff>
+      <xdr:colOff>291240</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>270360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4674,8 +4697,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="16199280"/>
-          <a:ext cx="187200" cy="270720"/>
+          <a:off x="4789440" y="16085160"/>
+          <a:ext cx="186120" cy="269640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4698,14 +4721,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>271440</xdr:rowOff>
+      <xdr:colOff>291240</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>270360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4714,8 +4737,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="16199280"/>
-          <a:ext cx="187200" cy="270720"/>
+          <a:off x="4789440" y="16085160"/>
+          <a:ext cx="186120" cy="269640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4738,14 +4761,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>271440</xdr:rowOff>
+      <xdr:colOff>291240</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>270360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4754,8 +4777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="16199280"/>
-          <a:ext cx="187200" cy="270720"/>
+          <a:off x="4789440" y="16085160"/>
+          <a:ext cx="186120" cy="269640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4778,14 +4801,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>271440</xdr:rowOff>
+      <xdr:colOff>291240</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>270360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4794,8 +4817,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="16199280"/>
-          <a:ext cx="187200" cy="270720"/>
+          <a:off x="4789440" y="16085160"/>
+          <a:ext cx="186120" cy="269640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4819,13 +4842,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4834,8 +4857,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5727240"/>
-          <a:ext cx="187200" cy="413640"/>
+          <a:off x="4789440" y="5918400"/>
+          <a:ext cx="186120" cy="411840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4859,13 +4882,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4874,8 +4897,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5727240"/>
-          <a:ext cx="187200" cy="413640"/>
+          <a:off x="4789440" y="5918400"/>
+          <a:ext cx="186120" cy="411840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4899,13 +4922,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4914,8 +4937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5422680"/>
-          <a:ext cx="187200" cy="413640"/>
+          <a:off x="4789440" y="5613840"/>
+          <a:ext cx="186120" cy="412560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4939,13 +4962,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4954,8 +4977,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5422680"/>
-          <a:ext cx="187200" cy="413640"/>
+          <a:off x="4789440" y="5613840"/>
+          <a:ext cx="186120" cy="412560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4979,13 +5002,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>254520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1315080</xdr:colOff>
+      <xdr:colOff>1314000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4998,8 +5021,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12273120" y="347040"/>
-          <a:ext cx="1060560" cy="1196640"/>
+          <a:off x="12273120" y="347760"/>
+          <a:ext cx="1059480" cy="1195560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5020,9 +5043,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5031,8 +5054,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6031800"/>
-          <a:ext cx="187200" cy="414720"/>
+          <a:off x="4789440" y="6222240"/>
+          <a:ext cx="186120" cy="414360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5060,9 +5083,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5071,8 +5094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6031800"/>
-          <a:ext cx="187200" cy="414720"/>
+          <a:off x="4789440" y="6222240"/>
+          <a:ext cx="186120" cy="414360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5096,13 +5119,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5111,8 +5134,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5727240"/>
-          <a:ext cx="187200" cy="413640"/>
+          <a:off x="4789440" y="5918400"/>
+          <a:ext cx="186120" cy="411840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5136,13 +5159,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5151,8 +5174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5727240"/>
-          <a:ext cx="187200" cy="413640"/>
+          <a:off x="4789440" y="5918400"/>
+          <a:ext cx="186120" cy="411840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5174,15 +5197,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>196560</xdr:colOff>
+      <xdr:colOff>195480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5195,8 +5218,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10986120" y="330120"/>
-          <a:ext cx="1229040" cy="1247400"/>
+          <a:off x="10986840" y="330840"/>
+          <a:ext cx="1227240" cy="1246320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5219,7 +5242,7 @@
   <dimension ref="B1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5964,7 +5987,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6162,7 +6185,7 @@
   </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6707,8 +6730,8 @@
   </sheetPr>
   <dimension ref="B2:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6822,7 +6845,7 @@
       <c r="K6" s="3"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" s="11" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="11" customFormat="true" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="20"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -6838,7 +6861,7 @@
       </c>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" s="11" customFormat="true" ht="1.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="11" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="20"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6881,8 +6904,8 @@
       <c r="O9" s="49"/>
     </row>
     <row r="10" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="30" t="n">
-        <v>0.625</v>
+      <c r="B10" s="30" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>15</v>
@@ -6893,11 +6916,11 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="32" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>86</v>
+      <c r="J10" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="85" t="s">
+        <v>16</v>
       </c>
       <c r="L10" s="50" t="s">
         <v>27</v>
@@ -6917,11 +6940,11 @@
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="35" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>86</v>
+      <c r="J11" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="85" t="s">
+        <v>18</v>
       </c>
       <c r="L11" s="50"/>
       <c r="M11" s="50"/>
@@ -6933,7 +6956,7 @@
         <v>0.625</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
@@ -6957,7 +6980,7 @@
     </row>
     <row r="13" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
@@ -6975,7 +6998,7 @@
         <v>0.625694444444444</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L13" s="52" t="s">
         <v>29</v>
@@ -6992,17 +7015,17 @@
     </row>
     <row r="14" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
       <c r="G14" s="64"/>
-      <c r="H14" s="84" t="n">
+      <c r="H14" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="85" t="s">
+      <c r="I14" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="32" t="n">
@@ -7010,7 +7033,7 @@
         <v>0.627083333333333</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L14" s="56" t="s">
         <v>33</v>
@@ -7026,26 +7049,26 @@
       </c>
     </row>
     <row r="15" s="24" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87" t="n">
+      <c r="B15" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90" t="n">
         <v>5</v>
       </c>
-      <c r="I15" s="88" t="s">
+      <c r="I15" s="91" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="35" t="n">
         <f aca="false">J14+TIME(0,H15,0)</f>
         <v>0.630555555555556</v>
       </c>
-      <c r="K15" s="89" t="s">
-        <v>92</v>
+      <c r="K15" s="92" t="s">
+        <v>91</v>
       </c>
       <c r="L15" s="59" t="s">
         <v>37</v>
@@ -7061,26 +7084,26 @@
       </c>
     </row>
     <row r="16" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="90" t="n">
+      <c r="B16" s="93" t="n">
         <f aca="false">B12+TIME(0,H12,0)</f>
         <v>0.630555555555556</v>
       </c>
-      <c r="C16" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92" t="n">
+      <c r="C16" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="95" t="n">
         <f aca="false">SUM(H17:H21)</f>
         <v>9</v>
       </c>
-      <c r="I16" s="93" t="s">
+      <c r="I16" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="98"/>
       <c r="L16" s="62" t="s">
         <v>40</v>
       </c>
@@ -7089,25 +7112,25 @@
       <c r="O16" s="62"/>
     </row>
     <row r="17" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="96" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="97" t="n">
+      <c r="B17" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100" t="n">
         <v>3</v>
       </c>
-      <c r="I17" s="85" t="s">
+      <c r="I17" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="32" t="n">
         <f aca="false">B16+TIME(0,H17,0)</f>
         <v>0.632638888888889</v>
       </c>
-      <c r="K17" s="98" t="str">
+      <c r="K17" s="101" t="str">
         <f aca="false">K13</f>
         <v>张合堂</v>
       </c>
@@ -7124,25 +7147,25 @@
     </row>
     <row r="18" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
       <c r="G18" s="64"/>
-      <c r="H18" s="84" t="n">
+      <c r="H18" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="85" t="s">
+      <c r="I18" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="32" t="n">
         <f aca="false">J17+TIME(0,H18,0)</f>
         <v>0.633333333333333</v>
       </c>
-      <c r="K18" s="99" t="s">
-        <v>96</v>
+      <c r="K18" s="102" t="s">
+        <v>95</v>
       </c>
       <c r="L18" s="64" t="s">
         <v>43</v>
@@ -7157,25 +7180,25 @@
     </row>
     <row r="19" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
       <c r="G19" s="64"/>
-      <c r="H19" s="84" t="n">
+      <c r="H19" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="85" t="s">
+      <c r="I19" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="32" t="n">
         <f aca="false">J18+TIME(0,H19,0)</f>
         <v>0.634027777777778</v>
       </c>
-      <c r="K19" s="100" t="s">
-        <v>98</v>
+      <c r="K19" s="103" t="s">
+        <v>97</v>
       </c>
       <c r="L19" s="64" t="s">
         <v>45</v>
@@ -7189,26 +7212,26 @@
       <c r="O19" s="63"/>
     </row>
     <row r="20" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="84" t="n">
+      <c r="B20" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="I20" s="85" t="s">
+      <c r="I20" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="32" t="n">
         <f aca="false">J19+TIME(0,H20,0)</f>
         <v>0.635416666666667</v>
       </c>
-      <c r="K20" s="100" t="s">
-        <v>98</v>
+      <c r="K20" s="103" t="s">
+        <v>97</v>
       </c>
       <c r="L20" s="64" t="s">
         <v>47</v>
@@ -7222,26 +7245,26 @@
       <c r="O20" s="63"/>
     </row>
     <row r="21" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="84" t="n">
+      <c r="B21" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="I21" s="85" t="s">
+      <c r="I21" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J21" s="32" t="n">
         <f aca="false">J20+TIME(0,H21,0)</f>
         <v>0.636805555555555</v>
       </c>
-      <c r="K21" s="103" t="s">
-        <v>101</v>
+      <c r="K21" s="106" t="s">
+        <v>100</v>
       </c>
       <c r="L21" s="64" t="s">
         <v>49</v>
@@ -7255,26 +7278,26 @@
       <c r="O21" s="63"/>
     </row>
     <row r="22" s="11" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="84" t="n">
+      <c r="B22" s="105" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="87" t="n">
         <v>6</v>
       </c>
-      <c r="I22" s="85" t="s">
+      <c r="I22" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="32" t="n">
         <f aca="false">J21+TIME(0,H22,0)</f>
         <v>0.640972222222222</v>
       </c>
-      <c r="K22" s="99" t="s">
-        <v>103</v>
+      <c r="K22" s="102" t="s">
+        <v>102</v>
       </c>
       <c r="L22" s="64" t="s">
         <v>51</v>
@@ -7288,26 +7311,26 @@
       <c r="O22" s="63"/>
     </row>
     <row r="23" s="11" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="104" t="n">
+      <c r="B23" s="107" t="n">
         <f aca="false">B16+TIME(0,H16,0)</f>
         <v>0.636805555555555</v>
       </c>
-      <c r="C23" s="105" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="106" t="n">
+      <c r="C23" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109" t="n">
         <f aca="false">SUM(H24:H28)</f>
         <v>29</v>
       </c>
-      <c r="I23" s="107" t="s">
+      <c r="I23" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
       <c r="L23" s="64" t="s">
         <v>53</v>
       </c>
@@ -7320,26 +7343,26 @@
       <c r="O23" s="63"/>
     </row>
     <row r="24" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="109" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="84" t="n">
+      <c r="B24" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="85" t="s">
+      <c r="I24" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="32" t="n">
         <f aca="false">B23+TIME(0,H24,0)</f>
         <v>0.6375</v>
       </c>
-      <c r="K24" s="110" t="s">
-        <v>89</v>
+      <c r="K24" s="113" t="s">
+        <v>88</v>
       </c>
       <c r="L24" s="65" t="s">
         <v>55</v>
@@ -7353,26 +7376,26 @@
       <c r="O24" s="67"/>
     </row>
     <row r="25" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="111" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="112" t="n">
+      <c r="B25" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="115" t="n">
         <v>2</v>
       </c>
-      <c r="I25" s="113" t="s">
+      <c r="I25" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="114" t="n">
+      <c r="J25" s="117" t="n">
         <f aca="false">J24+TIME(0,H25,0)</f>
         <v>0.638888888888889</v>
       </c>
-      <c r="K25" s="89" t="s">
-        <v>92</v>
+      <c r="K25" s="92" t="s">
+        <v>91</v>
       </c>
       <c r="L25" s="68" t="s">
         <v>57</v>
@@ -7382,14 +7405,14 @@
       <c r="O25" s="68"/>
     </row>
     <row r="26" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
+      <c r="B26" s="118" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
       <c r="H26" s="43" t="n">
         <v>18</v>
       </c>
@@ -7400,8 +7423,8 @@
         <f aca="false">J25+TIME(0,H26,0)</f>
         <v>0.651388888888889</v>
       </c>
-      <c r="K26" s="116" t="s">
-        <v>108</v>
+      <c r="K26" s="119" t="s">
+        <v>107</v>
       </c>
       <c r="L26" s="69" t="s">
         <v>58</v>
@@ -7411,26 +7434,26 @@
       <c r="O26" s="69"/>
     </row>
     <row r="27" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="109" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="117" t="n">
+      <c r="B27" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="120" t="n">
         <v>7</v>
       </c>
-      <c r="I27" s="85" t="s">
+      <c r="I27" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J27" s="32" t="n">
         <f aca="false">J26+TIME(0,H27,0)</f>
         <v>0.65625</v>
       </c>
-      <c r="K27" s="103" t="s">
-        <v>110</v>
+      <c r="K27" s="106" t="s">
+        <v>109</v>
       </c>
       <c r="L27" s="69"/>
       <c r="M27" s="69"/>
@@ -7438,25 +7461,25 @@
       <c r="O27" s="69"/>
     </row>
     <row r="28" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="118" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="119" t="n">
+      <c r="B28" s="121" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="88" t="s">
+      <c r="I28" s="91" t="s">
         <v>22</v>
       </c>
       <c r="J28" s="35" t="n">
         <f aca="false">J27+TIME(0,H28,0)</f>
         <v>0.656944444444444</v>
       </c>
-      <c r="K28" s="120" t="str">
+      <c r="K28" s="123" t="str">
         <f aca="false">K13</f>
         <v>张合堂</v>
       </c>
@@ -7466,51 +7489,51 @@
       <c r="O28" s="69"/>
     </row>
     <row r="29" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="90" t="n">
+      <c r="B29" s="93" t="n">
         <f aca="false">B23+TIME(0,H23,0)</f>
         <v>0.656944444444444</v>
       </c>
-      <c r="C29" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92" t="n">
+      <c r="C29" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="95" t="n">
         <f aca="false">SUM(H30:H36)</f>
         <v>25</v>
       </c>
-      <c r="I29" s="93" t="s">
+      <c r="I29" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
       <c r="L29" s="69"/>
       <c r="M29" s="69"/>
       <c r="N29" s="69"/>
       <c r="O29" s="69"/>
     </row>
     <row r="30" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="115" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
+      <c r="B30" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
       <c r="H30" s="43" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="122" t="n">
+      <c r="J30" s="125" t="n">
         <f aca="false">B29+TIME(0,H30,0)</f>
         <v>0.657638888888889</v>
       </c>
-      <c r="K30" s="116" t="str">
+      <c r="K30" s="119" t="str">
         <f aca="false">K13</f>
         <v>张合堂</v>
       </c>
@@ -7520,26 +7543,26 @@
       <c r="O30" s="69"/>
     </row>
     <row r="31" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="101" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="84" t="n">
+      <c r="B31" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="87" t="n">
         <v>7</v>
       </c>
-      <c r="I31" s="85" t="s">
+      <c r="I31" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="123" t="n">
+      <c r="J31" s="126" t="n">
         <f aca="false">J30+TIME(0,H31,0)</f>
         <v>0.6625</v>
       </c>
-      <c r="K31" s="103" t="s">
-        <v>113</v>
+      <c r="K31" s="106" t="s">
+        <v>112</v>
       </c>
       <c r="L31" s="69"/>
       <c r="M31" s="69"/>
@@ -7547,25 +7570,25 @@
       <c r="O31" s="69"/>
     </row>
     <row r="32" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="84" t="n">
+      <c r="B32" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="I32" s="85" t="s">
+      <c r="I32" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="123" t="n">
+      <c r="J32" s="126" t="n">
         <f aca="false">J31+TIME(0,H32,0)</f>
         <v>0.663194444444444</v>
       </c>
-      <c r="K32" s="103" t="str">
+      <c r="K32" s="106" t="str">
         <f aca="false">K30</f>
         <v>张合堂</v>
       </c>
@@ -7575,26 +7598,26 @@
       <c r="O32" s="69"/>
     </row>
     <row r="33" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="84" t="n">
+      <c r="B33" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="87" t="n">
         <v>7</v>
       </c>
-      <c r="I33" s="85" t="s">
+      <c r="I33" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="123" t="n">
+      <c r="J33" s="126" t="n">
         <f aca="false">J32+TIME(0,H33,0)</f>
         <v>0.668055555555555</v>
       </c>
-      <c r="K33" s="103" t="s">
-        <v>115</v>
+      <c r="K33" s="106" t="s">
+        <v>114</v>
       </c>
       <c r="L33" s="70" t="s">
         <v>59</v>
@@ -7604,25 +7627,25 @@
       <c r="O33" s="70"/>
     </row>
     <row r="34" s="11" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="84" t="n">
+      <c r="B34" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="I34" s="85" t="s">
+      <c r="I34" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="J34" s="123" t="n">
+      <c r="J34" s="126" t="n">
         <f aca="false">J33+TIME(0,H34,0)</f>
         <v>0.66875</v>
       </c>
-      <c r="K34" s="103" t="str">
+      <c r="K34" s="106" t="str">
         <f aca="false">K13</f>
         <v>张合堂</v>
       </c>
@@ -7634,26 +7657,26 @@
       <c r="O34" s="71"/>
     </row>
     <row r="35" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="117" t="n">
+      <c r="B35" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="120" t="n">
         <v>7</v>
       </c>
-      <c r="I35" s="124" t="s">
+      <c r="I35" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="125" t="n">
+      <c r="J35" s="128" t="n">
         <f aca="false">J34+TIME(0,H35,0)</f>
         <v>0.673611111111111</v>
       </c>
-      <c r="K35" s="126" t="s">
-        <v>117</v>
+      <c r="K35" s="129" t="s">
+        <v>116</v>
       </c>
       <c r="L35" s="71"/>
       <c r="M35" s="71"/>
@@ -7661,25 +7684,25 @@
       <c r="O35" s="71"/>
     </row>
     <row r="36" s="11" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="118" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="87" t="n">
+      <c r="B36" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="90" t="n">
         <v>1</v>
       </c>
-      <c r="I36" s="88" t="s">
+      <c r="I36" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="127" t="n">
+      <c r="J36" s="130" t="n">
         <f aca="false">J35+TIME(0,H36,0)</f>
         <v>0.674305555555555</v>
       </c>
-      <c r="K36" s="89" t="str">
+      <c r="K36" s="92" t="str">
         <f aca="false">K30</f>
         <v>张合堂</v>
       </c>
@@ -7689,42 +7712,42 @@
       <c r="O36" s="71"/>
     </row>
     <row r="37" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="90" t="n">
+      <c r="B37" s="93" t="n">
         <f aca="false">B29+TIME(0,H29,0)</f>
         <v>0.674305555555556</v>
       </c>
-      <c r="C37" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="92" t="n">
+      <c r="C37" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="95" t="n">
         <v>5</v>
       </c>
-      <c r="I37" s="93" t="s">
+      <c r="I37" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="94"/>
-      <c r="K37" s="95"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="98"/>
       <c r="L37" s="71"/>
       <c r="M37" s="71"/>
       <c r="N37" s="71"/>
       <c r="O37" s="71"/>
     </row>
     <row r="38" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="104" t="n">
+      <c r="B38" s="107" t="n">
         <f aca="false">B37+TIME(0,H37,0)</f>
         <v>0.677777777777778</v>
       </c>
-      <c r="C38" s="105" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
+      <c r="C38" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
       <c r="H38" s="38" t="n">
         <f aca="false">SUM(H39:H42)</f>
         <v>10</v>
@@ -7740,25 +7763,25 @@
       <c r="O38" s="71"/>
     </row>
     <row r="39" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="115" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
+      <c r="B39" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
       <c r="H39" s="43" t="n">
         <v>1</v>
       </c>
       <c r="I39" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="122" t="n">
+      <c r="J39" s="125" t="n">
         <f aca="false">B38+TIME(0,H39,0)</f>
         <v>0.678472222222222</v>
       </c>
-      <c r="K39" s="116" t="str">
+      <c r="K39" s="119" t="str">
         <f aca="false">K13</f>
         <v>张合堂</v>
       </c>
@@ -7768,26 +7791,26 @@
       <c r="O39" s="71"/>
     </row>
     <row r="40" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="101" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="84" t="n">
+      <c r="B40" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="87" t="n">
         <v>3</v>
       </c>
-      <c r="I40" s="85" t="s">
+      <c r="I40" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="123" t="n">
+      <c r="J40" s="126" t="n">
         <f aca="false">J39+TIME(0,H40,0)</f>
         <v>0.680555555555556</v>
       </c>
-      <c r="K40" s="103" t="s">
-        <v>101</v>
+      <c r="K40" s="106" t="s">
+        <v>100</v>
       </c>
       <c r="L40" s="71"/>
       <c r="M40" s="71"/>
@@ -7795,26 +7818,26 @@
       <c r="O40" s="71"/>
     </row>
     <row r="41" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="84" t="n">
+      <c r="B41" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="87" t="n">
         <v>3</v>
       </c>
-      <c r="I41" s="85" t="s">
+      <c r="I41" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="J41" s="123" t="n">
+      <c r="J41" s="126" t="n">
         <f aca="false">J40+TIME(0,H41,0)</f>
         <v>0.682638888888889</v>
       </c>
-      <c r="K41" s="103" t="s">
-        <v>122</v>
+      <c r="K41" s="106" t="s">
+        <v>121</v>
       </c>
       <c r="L41" s="71"/>
       <c r="M41" s="71"/>
@@ -7822,26 +7845,26 @@
       <c r="O41" s="71"/>
     </row>
     <row r="42" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="84" t="n">
+      <c r="B42" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="87" t="n">
         <v>3</v>
       </c>
-      <c r="I42" s="85" t="s">
+      <c r="I42" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="123" t="n">
+      <c r="J42" s="126" t="n">
         <f aca="false">J41+TIME(0,H42,0)</f>
         <v>0.684722222222222</v>
       </c>
-      <c r="K42" s="103" t="s">
-        <v>124</v>
+      <c r="K42" s="106" t="s">
+        <v>123</v>
       </c>
       <c r="L42" s="72" t="s">
         <v>61</v>
@@ -7854,26 +7877,26 @@
       </c>
     </row>
     <row r="43" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="90" t="n">
+      <c r="B43" s="93" t="n">
         <f aca="false">B38+TIME(0,H38,0)</f>
         <v>0.684722222222222</v>
       </c>
-      <c r="C43" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="92" t="n">
+      <c r="C43" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="95" t="n">
         <f aca="false">SUM(H44:H48)</f>
         <v>15</v>
       </c>
-      <c r="I43" s="93" t="s">
+      <c r="I43" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
       <c r="L43" s="73" t="s">
         <v>62</v>
       </c>
@@ -7885,25 +7908,25 @@
       <c r="P43" s="25"/>
     </row>
     <row r="44" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="128" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="129"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="129"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="84" t="n">
+      <c r="B44" s="131" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="I44" s="85" t="s">
+      <c r="I44" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J44" s="32" t="n">
         <f aca="false">B43+TIME(0,H44,0)</f>
         <v>0.685416666666667</v>
       </c>
-      <c r="K44" s="99" t="str">
+      <c r="K44" s="102" t="str">
         <f aca="false">K17</f>
         <v>张合堂</v>
       </c>
@@ -7919,24 +7942,24 @@
     </row>
     <row r="45" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="64"/>
       <c r="D45" s="64"/>
       <c r="E45" s="64"/>
       <c r="F45" s="64"/>
       <c r="G45" s="64"/>
-      <c r="H45" s="84" t="n">
+      <c r="H45" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="I45" s="85" t="s">
+      <c r="I45" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J45" s="32" t="n">
         <f aca="false">J44+TIME(0,H45,0)</f>
         <v>0.686805555555556</v>
       </c>
-      <c r="K45" s="99" t="str">
+      <c r="K45" s="102" t="str">
         <f aca="false">K18</f>
         <v>丘愉庄</v>
       </c>
@@ -7951,24 +7974,24 @@
     </row>
     <row r="46" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="64"/>
       <c r="D46" s="64"/>
       <c r="E46" s="64"/>
       <c r="F46" s="64"/>
       <c r="G46" s="64"/>
-      <c r="H46" s="84" t="n">
+      <c r="H46" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="I46" s="85" t="s">
+      <c r="I46" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J46" s="32" t="n">
         <f aca="false">J45+TIME(0,H46,0)</f>
         <v>0.688194444444444</v>
       </c>
-      <c r="K46" s="100" t="str">
+      <c r="K46" s="103" t="str">
         <f aca="false">K19</f>
         <v>xxx</v>
       </c>
@@ -7983,24 +8006,24 @@
     </row>
     <row r="47" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" s="64"/>
       <c r="D47" s="64"/>
       <c r="E47" s="64"/>
       <c r="F47" s="64"/>
       <c r="G47" s="64"/>
-      <c r="H47" s="84" t="n">
+      <c r="H47" s="87" t="n">
         <v>3</v>
       </c>
-      <c r="I47" s="85" t="s">
+      <c r="I47" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J47" s="32" t="n">
         <f aca="false">J46+TIME(0,H47,0)</f>
         <v>0.690277777777778</v>
       </c>
-      <c r="K47" s="100" t="str">
+      <c r="K47" s="103" t="str">
         <f aca="false">K20</f>
         <v>xxx</v>
       </c>
@@ -8015,25 +8038,25 @@
     </row>
     <row r="48" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" s="64"/>
       <c r="D48" s="64"/>
       <c r="E48" s="64"/>
       <c r="F48" s="64"/>
       <c r="G48" s="64"/>
-      <c r="H48" s="84" t="n">
+      <c r="H48" s="87" t="n">
         <v>7</v>
       </c>
-      <c r="I48" s="85" t="s">
+      <c r="I48" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J48" s="32" t="n">
         <f aca="false">J47+TIME(0,H48,0)</f>
         <v>0.695138888888889</v>
       </c>
-      <c r="K48" s="103" t="s">
-        <v>101</v>
+      <c r="K48" s="106" t="s">
+        <v>100</v>
       </c>
       <c r="L48" s="76" t="s">
         <v>72</v>
@@ -8044,7 +8067,7 @@
     </row>
     <row r="49" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
@@ -8065,26 +8088,26 @@
       <c r="O49" s="81"/>
     </row>
     <row r="50" s="11" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="131" t="n">
+      <c r="B50" s="134" t="n">
         <f aca="false">B43+TIME(0,H43,0)</f>
         <v>0.695138888888889</v>
       </c>
-      <c r="C50" s="132" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="132"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="133" t="n">
+      <c r="C50" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="136" t="n">
         <f aca="false">SUM(H51:H53)</f>
         <v>8</v>
       </c>
-      <c r="I50" s="134" t="s">
+      <c r="I50" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="135"/>
-      <c r="K50" s="121"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="124"/>
       <c r="L50" s="73" t="s">
         <v>75</v>
       </c>
@@ -8095,26 +8118,26 @@
       <c r="O50" s="75"/>
     </row>
     <row r="51" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="136" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="139" t="n">
+      <c r="B51" s="139" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="141"/>
+      <c r="H51" s="142" t="n">
         <v>4</v>
       </c>
-      <c r="I51" s="140" t="s">
+      <c r="I51" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="141" t="n">
+      <c r="J51" s="144" t="n">
         <f aca="false">B50+TIME(0,H51,0)</f>
         <v>0.697916666666667</v>
       </c>
-      <c r="K51" s="103" t="s">
-        <v>89</v>
+      <c r="K51" s="106" t="s">
+        <v>88</v>
       </c>
       <c r="L51" s="76" t="s">
         <v>77</v>
@@ -8126,21 +8149,21 @@
       <c r="O51" s="78"/>
     </row>
     <row r="52" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="142" t="s">
-        <v>134</v>
-      </c>
-      <c r="H52" s="84" t="n">
+      <c r="B52" s="145" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" s="87" t="n">
         <v>3</v>
       </c>
-      <c r="I52" s="85" t="s">
+      <c r="I52" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J52" s="32" t="n">
         <f aca="false">J51+TIME(0,H52,0)</f>
         <v>0.7</v>
       </c>
-      <c r="K52" s="103" t="s">
-        <v>89</v>
+      <c r="K52" s="106" t="s">
+        <v>88</v>
       </c>
       <c r="L52" s="76" t="s">
         <v>79</v>
@@ -8152,26 +8175,26 @@
       <c r="O52" s="78"/>
     </row>
     <row r="53" s="11" customFormat="true" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="128" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="129"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="84" t="n">
+      <c r="B53" s="131" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="132"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="132"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="I53" s="85" t="s">
+      <c r="I53" s="88" t="s">
         <v>22</v>
       </c>
       <c r="J53" s="32" t="n">
         <f aca="false">J52+TIME(0,H53,0)</f>
         <v>0.700694444444444</v>
       </c>
-      <c r="K53" s="103" t="s">
-        <v>136</v>
+      <c r="K53" s="106" t="s">
+        <v>135</v>
       </c>
       <c r="L53" s="76" t="s">
         <v>81</v>
@@ -8181,24 +8204,24 @@
         <v>82</v>
       </c>
       <c r="O53" s="78"/>
-      <c r="P53" s="143"/>
+      <c r="P53" s="146"/>
     </row>
     <row r="54" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="131" t="n">
+      <c r="B54" s="134" t="n">
         <f aca="false">B50+TIME(0,H50,0)</f>
         <v>0.700694444444444</v>
       </c>
-      <c r="C54" s="132" t="s">
-        <v>137</v>
-      </c>
-      <c r="D54" s="132"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="132"/>
-      <c r="G54" s="132"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="134"/>
-      <c r="J54" s="144"/>
-      <c r="K54" s="145"/>
+      <c r="C54" s="135" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="135"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="135"/>
+      <c r="G54" s="135"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="147"/>
+      <c r="J54" s="148"/>
+      <c r="K54" s="149"/>
       <c r="L54" s="82" t="s">
         <v>83</v>
       </c>
@@ -8207,19 +8230,19 @@
         <v>84</v>
       </c>
       <c r="O54" s="83"/>
-      <c r="P54" s="143"/>
+      <c r="P54" s="146"/>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="79">
@@ -8298,7 +8321,7 @@
     <mergeCell ref="N52:O52"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:P56"/>
+    <mergeCell ref="P53:P55"/>
     <mergeCell ref="C54:G54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>

--- a/tm_303_calendar.xlsx
+++ b/tm_303_calendar.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="134">
   <si>
     <r>
       <rPr>
@@ -1796,9 +1796,6 @@
     <t xml:space="preserve">主题：《立夏》</t>
   </si>
   <si>
-    <t xml:space="preserve">会议开场</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -1806,7 +1803,7 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">主持人开场白</t>
+      <t xml:space="preserve">介绍会议规则以及宾客介绍（限时每位</t>
     </r>
     <r>
       <rPr>
@@ -1815,7 +1812,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t xml:space="preserve">30</t>
     </r>
     <r>
       <rPr>
@@ -1824,49 +1821,11 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">介绍会议主要内容、及可能的议程改动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
+      <t xml:space="preserve">秒）</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">张合堂</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">介绍会议规则以及宾客介绍（限时每位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">秒）</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">介绍国际演讲会及捷普聚思国际演讲俱乐部</t>
@@ -2178,9 +2137,6 @@
   </si>
   <si>
     <t xml:space="preserve">总体点评师报告</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主持人提示观众投票选出“最佳即兴演讲”“最佳备稿演讲”“最佳点评者”及“最佳会议支持者”，微信小程序投票</t>
   </si>
   <si>
     <t xml:space="preserve">会议尾声</t>
@@ -2210,7 +2166,7 @@
     <numFmt numFmtId="165" formatCode="H:MM"/>
     <numFmt numFmtId="166" formatCode="H:MM;@"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2417,13 +2373,9 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2810,7 +2762,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="148">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3147,16 +3099,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3303,7 +3247,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3311,11 +3255,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3323,7 +3267,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="34" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="33" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3331,7 +3275,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3494,9 +3438,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>269640</xdr:rowOff>
+      <xdr:rowOff>268920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3506,7 +3450,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15038640"/>
-          <a:ext cx="186120" cy="269640"/>
+          <a:ext cx="185400" cy="268920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3534,9 +3478,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>269640</xdr:rowOff>
+      <xdr:rowOff>268920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3546,7 +3490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15038640"/>
-          <a:ext cx="186120" cy="269640"/>
+          <a:ext cx="185400" cy="268920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3574,9 +3518,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3590,7 +3534,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="216000" y="273960"/>
-          <a:ext cx="1650240" cy="1342080"/>
+          <a:ext cx="1649520" cy="1341360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3611,9 +3555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>244080</xdr:rowOff>
+      <xdr:rowOff>243360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3623,7 +3567,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15344640"/>
-          <a:ext cx="186120" cy="242640"/>
+          <a:ext cx="185400" cy="241920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3651,9 +3595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>244080</xdr:rowOff>
+      <xdr:rowOff>243360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3663,7 +3607,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15344640"/>
-          <a:ext cx="186120" cy="242640"/>
+          <a:ext cx="185400" cy="241920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3691,9 +3635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>244080</xdr:rowOff>
+      <xdr:rowOff>243360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3703,7 +3647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15344640"/>
-          <a:ext cx="186120" cy="242640"/>
+          <a:ext cx="185400" cy="241920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3731,9 +3675,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>244080</xdr:rowOff>
+      <xdr:rowOff>243360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3743,7 +3687,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15344640"/>
-          <a:ext cx="186120" cy="242640"/>
+          <a:ext cx="185400" cy="241920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3771,9 +3715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1314000</xdr:colOff>
+      <xdr:colOff>1313280</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3787,7 +3731,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12273120" y="347760"/>
-          <a:ext cx="1059480" cy="1195560"/>
+          <a:ext cx="1058760" cy="1194840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3808,9 +3752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>195480</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3824,7 +3768,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10986840" y="330840"/>
-          <a:ext cx="1227240" cy="1246320"/>
+          <a:ext cx="1226520" cy="1245600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3844,15 +3788,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3861,8 +3805,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6894360" y="3170520"/>
-          <a:ext cx="186120" cy="284040"/>
+          <a:off x="7316280" y="3170520"/>
+          <a:ext cx="185400" cy="283320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3884,15 +3828,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3901,8 +3845,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6894360" y="3170520"/>
-          <a:ext cx="186120" cy="284040"/>
+          <a:off x="7316280" y="3170520"/>
+          <a:ext cx="185400" cy="283320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3924,15 +3868,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>98280</xdr:colOff>
+      <xdr:colOff>98640</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>46440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>267480</xdr:colOff>
+      <xdr:colOff>267120</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3945,8 +3889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7699680" y="6546240"/>
-          <a:ext cx="169200" cy="125640"/>
+          <a:off x="8121600" y="6546240"/>
+          <a:ext cx="168480" cy="124920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3961,15 +3905,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3978,8 +3922,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6894360" y="3872160"/>
-          <a:ext cx="186120" cy="244800"/>
+          <a:off x="7316280" y="3872520"/>
+          <a:ext cx="185400" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4001,15 +3945,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4018,8 +3962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6894360" y="3872160"/>
-          <a:ext cx="186120" cy="244800"/>
+          <a:off x="7316280" y="3872520"/>
+          <a:ext cx="185400" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4041,15 +3985,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4058,8 +4002,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6894360" y="3521160"/>
-          <a:ext cx="186120" cy="283320"/>
+          <a:off x="7316280" y="3521160"/>
+          <a:ext cx="185400" cy="282960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4081,15 +4025,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4098,8 +4042,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6894360" y="3521160"/>
-          <a:ext cx="186120" cy="283320"/>
+          <a:off x="7316280" y="3521160"/>
+          <a:ext cx="185400" cy="282960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4121,15 +4065,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4138,8 +4082,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6894360" y="3346200"/>
-          <a:ext cx="186120" cy="282960"/>
+          <a:off x="7316280" y="3346200"/>
+          <a:ext cx="185400" cy="282240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4161,15 +4105,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4178,8 +4122,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6894360" y="3346200"/>
-          <a:ext cx="186120" cy="282960"/>
+          <a:off x="7316280" y="3346200"/>
+          <a:ext cx="185400" cy="282240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4201,15 +4145,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4218,8 +4162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6894360" y="3696480"/>
-          <a:ext cx="186120" cy="245880"/>
+          <a:off x="7316280" y="3696840"/>
+          <a:ext cx="185400" cy="245160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4241,15 +4185,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4258,8 +4202,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6894360" y="3696480"/>
-          <a:ext cx="186120" cy="245880"/>
+          <a:off x="7316280" y="3696840"/>
+          <a:ext cx="185400" cy="245160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4281,15 +4225,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4298,8 +4242,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6894360" y="3521160"/>
-          <a:ext cx="186120" cy="283320"/>
+          <a:off x="7316280" y="3521160"/>
+          <a:ext cx="185400" cy="282960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4321,15 +4265,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4338,8 +4282,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6894360" y="3521160"/>
-          <a:ext cx="186120" cy="283320"/>
+          <a:off x="7316280" y="3521160"/>
+          <a:ext cx="185400" cy="282960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4372,9 +4316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>269640</xdr:rowOff>
+      <xdr:rowOff>268920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4384,7 +4328,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="16084440"/>
-          <a:ext cx="186120" cy="269640"/>
+          <a:ext cx="185400" cy="268920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4412,9 +4356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>269640</xdr:rowOff>
+      <xdr:rowOff>268920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4424,7 +4368,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="16084440"/>
-          <a:ext cx="186120" cy="269640"/>
+          <a:ext cx="185400" cy="268920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4452,9 +4396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>273240</xdr:colOff>
+      <xdr:colOff>272520</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4468,7 +4412,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="195840" y="194760"/>
-          <a:ext cx="1650600" cy="1325160"/>
+          <a:ext cx="1649880" cy="1324440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4489,9 +4433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4501,7 +4445,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5307840"/>
-          <a:ext cx="186120" cy="414360"/>
+          <a:ext cx="185400" cy="413640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4529,9 +4473,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4541,7 +4485,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5307840"/>
-          <a:ext cx="186120" cy="414360"/>
+          <a:ext cx="185400" cy="413640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4569,9 +4513,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>265680</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>222480</xdr:rowOff>
+      <xdr:rowOff>221760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4585,7 +4529,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5297040" y="11192400"/>
-          <a:ext cx="169200" cy="176760"/>
+          <a:ext cx="168480" cy="176040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4606,9 +4550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4618,7 +4562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="6566400"/>
-          <a:ext cx="186120" cy="411480"/>
+          <a:ext cx="185400" cy="410760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4646,9 +4590,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4658,7 +4602,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="6566400"/>
-          <a:ext cx="186120" cy="411480"/>
+          <a:ext cx="185400" cy="410760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4686,9 +4630,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>270360</xdr:rowOff>
+      <xdr:rowOff>269640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4698,7 +4642,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="16085160"/>
-          <a:ext cx="186120" cy="269640"/>
+          <a:ext cx="185400" cy="268920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4726,9 +4670,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>270360</xdr:rowOff>
+      <xdr:rowOff>269640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4738,7 +4682,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="16085160"/>
-          <a:ext cx="186120" cy="269640"/>
+          <a:ext cx="185400" cy="268920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4766,9 +4710,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>270360</xdr:rowOff>
+      <xdr:rowOff>269640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4778,7 +4722,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="16085160"/>
-          <a:ext cx="186120" cy="269640"/>
+          <a:ext cx="185400" cy="268920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4806,9 +4750,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>270360</xdr:rowOff>
+      <xdr:rowOff>269640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4818,7 +4762,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="16085160"/>
-          <a:ext cx="186120" cy="269640"/>
+          <a:ext cx="185400" cy="268920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4846,9 +4790,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4858,7 +4802,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5918400"/>
-          <a:ext cx="186120" cy="411840"/>
+          <a:ext cx="185400" cy="411120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4886,9 +4830,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4898,7 +4842,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5918400"/>
-          <a:ext cx="186120" cy="411840"/>
+          <a:ext cx="185400" cy="411120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4926,9 +4870,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4938,7 +4882,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5613840"/>
-          <a:ext cx="186120" cy="412560"/>
+          <a:ext cx="185400" cy="411840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4966,9 +4910,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4978,7 +4922,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5613840"/>
-          <a:ext cx="186120" cy="412560"/>
+          <a:ext cx="185400" cy="411840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5006,9 +4950,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1314000</xdr:colOff>
+      <xdr:colOff>1313280</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5022,7 +4966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12273120" y="347760"/>
-          <a:ext cx="1059480" cy="1195560"/>
+          <a:ext cx="1058760" cy="1194840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5043,9 +4987,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5055,7 +4999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="6222240"/>
-          <a:ext cx="186120" cy="414360"/>
+          <a:ext cx="185400" cy="413640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5083,9 +5027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5095,7 +5039,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="6222240"/>
-          <a:ext cx="186120" cy="414360"/>
+          <a:ext cx="185400" cy="413640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5123,9 +5067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5135,7 +5079,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5918400"/>
-          <a:ext cx="186120" cy="411840"/>
+          <a:ext cx="185400" cy="411120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5163,9 +5107,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5175,7 +5119,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5918400"/>
-          <a:ext cx="186120" cy="411840"/>
+          <a:ext cx="185400" cy="411120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5203,9 +5147,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>195480</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5219,7 +5163,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10986840" y="330840"/>
-          <a:ext cx="1227240" cy="1246320"/>
+          <a:ext cx="1226520" cy="1245600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5242,7 +5186,7 @@
   <dimension ref="B1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="C49 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5987,7 +5931,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="1" sqref="C49 J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6078,7 +6022,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="C49 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6086,7 +6030,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.5"/>
   </cols>
   <sheetData>
@@ -6134,7 +6078,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="C49 J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6186,7 +6130,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="C49 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6229,7 +6173,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="1" sqref="C49 K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6335,7 +6279,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C49 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6730,8 +6674,8 @@
   </sheetPr>
   <dimension ref="B2:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6916,10 +6860,10 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="84" t="s">
+      <c r="J10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="85" t="s">
+      <c r="K10" s="84" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="50" t="s">
@@ -6940,10 +6884,10 @@
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="86" t="s">
+      <c r="J11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="85" t="s">
+      <c r="K11" s="84" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="50"/>
@@ -6952,19 +6896,18 @@
       <c r="O11" s="50"/>
     </row>
     <row r="12" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="36" t="n">
-        <v>0.625</v>
+      <c r="B12" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="38" t="n">
-        <f aca="false">SUM(H13:H15)</f>
-        <v>8</v>
+      <c r="H12" s="38" t="s">
+        <v>21</v>
       </c>
       <c r="I12" s="39" t="s">
         <v>22</v>
@@ -6980,25 +6923,24 @@
     </row>
     <row r="13" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="42" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="43" t="n">
-        <v>1</v>
+      <c r="H13" s="43" t="s">
+        <v>21</v>
       </c>
       <c r="I13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="45" t="n">
-        <f aca="false">B12+TIME(0,H13,0)</f>
-        <v>0.625694444444444</v>
+      <c r="J13" s="45" t="s">
+        <v>23</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="L13" s="52" t="s">
         <v>29</v>
@@ -7015,25 +6957,25 @@
     </row>
     <row r="14" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
       <c r="G14" s="64"/>
-      <c r="H14" s="87" t="n">
+      <c r="H14" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="88" t="s">
+      <c r="I14" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="32" t="n">
+      <c r="J14" s="32" t="e">
         <f aca="false">J13+TIME(0,H14,0)</f>
-        <v>0.627083333333333</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L14" s="56" t="s">
         <v>33</v>
@@ -7049,26 +6991,26 @@
       </c>
     </row>
     <row r="15" s="24" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90" t="n">
+      <c r="B15" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88" t="n">
         <v>5</v>
       </c>
-      <c r="I15" s="91" t="s">
+      <c r="I15" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="35" t="n">
+      <c r="J15" s="35" t="e">
         <f aca="false">J14+TIME(0,H15,0)</f>
-        <v>0.630555555555556</v>
-      </c>
-      <c r="K15" s="92" t="s">
-        <v>91</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" s="90" t="s">
+        <v>89</v>
       </c>
       <c r="L15" s="59" t="s">
         <v>37</v>
@@ -7084,26 +7026,26 @@
       </c>
     </row>
     <row r="16" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="93" t="n">
+      <c r="B16" s="91" t="e">
         <f aca="false">B12+TIME(0,H12,0)</f>
-        <v>0.630555555555556</v>
-      </c>
-      <c r="C16" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="95" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93" t="n">
         <f aca="false">SUM(H17:H21)</f>
         <v>9</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
       <c r="L16" s="62" t="s">
         <v>40</v>
       </c>
@@ -7112,27 +7054,27 @@
       <c r="O16" s="62"/>
     </row>
     <row r="17" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="99" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100" t="n">
+      <c r="B17" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98" t="n">
         <v>3</v>
       </c>
-      <c r="I17" s="88" t="s">
+      <c r="I17" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="32" t="n">
+      <c r="J17" s="32" t="e">
         <f aca="false">B16+TIME(0,H17,0)</f>
-        <v>0.632638888888889</v>
-      </c>
-      <c r="K17" s="101" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" s="99" t="str">
         <f aca="false">K13</f>
-        <v>张合堂</v>
+        <v>{host_name}</v>
       </c>
       <c r="L17" s="42" t="s">
         <v>41</v>
@@ -7147,25 +7089,25 @@
     </row>
     <row r="18" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
       <c r="G18" s="64"/>
-      <c r="H18" s="87" t="n">
+      <c r="H18" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="88" t="s">
+      <c r="I18" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="32" t="n">
+      <c r="J18" s="32" t="e">
         <f aca="false">J17+TIME(0,H18,0)</f>
-        <v>0.633333333333333</v>
-      </c>
-      <c r="K18" s="102" t="s">
-        <v>95</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" s="100" t="s">
+        <v>93</v>
       </c>
       <c r="L18" s="64" t="s">
         <v>43</v>
@@ -7180,25 +7122,25 @@
     </row>
     <row r="19" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
       <c r="G19" s="64"/>
-      <c r="H19" s="87" t="n">
+      <c r="H19" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="88" t="s">
+      <c r="I19" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="32" t="n">
+      <c r="J19" s="32" t="e">
         <f aca="false">J18+TIME(0,H19,0)</f>
-        <v>0.634027777777778</v>
-      </c>
-      <c r="K19" s="103" t="s">
-        <v>97</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K19" s="101" t="s">
+        <v>95</v>
       </c>
       <c r="L19" s="64" t="s">
         <v>45</v>
@@ -7212,26 +7154,26 @@
       <c r="O19" s="63"/>
     </row>
     <row r="20" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="87" t="n">
+      <c r="B20" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="I20" s="88" t="s">
+      <c r="I20" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="32" t="n">
+      <c r="J20" s="32" t="e">
         <f aca="false">J19+TIME(0,H20,0)</f>
-        <v>0.635416666666667</v>
-      </c>
-      <c r="K20" s="103" t="s">
-        <v>97</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" s="101" t="s">
+        <v>95</v>
       </c>
       <c r="L20" s="64" t="s">
         <v>47</v>
@@ -7245,26 +7187,26 @@
       <c r="O20" s="63"/>
     </row>
     <row r="21" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="105" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="87" t="n">
+      <c r="B21" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="I21" s="88" t="s">
+      <c r="I21" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="32" t="n">
+      <c r="J21" s="32" t="e">
         <f aca="false">J20+TIME(0,H21,0)</f>
-        <v>0.636805555555555</v>
-      </c>
-      <c r="K21" s="106" t="s">
-        <v>100</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" s="104" t="s">
+        <v>98</v>
       </c>
       <c r="L21" s="64" t="s">
         <v>49</v>
@@ -7278,26 +7220,26 @@
       <c r="O21" s="63"/>
     </row>
     <row r="22" s="11" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="105" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="87" t="n">
+      <c r="B22" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="85" t="n">
         <v>6</v>
       </c>
-      <c r="I22" s="88" t="s">
+      <c r="I22" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="32" t="n">
+      <c r="J22" s="32" t="e">
         <f aca="false">J21+TIME(0,H22,0)</f>
-        <v>0.640972222222222</v>
-      </c>
-      <c r="K22" s="102" t="s">
-        <v>102</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" s="100" t="s">
+        <v>100</v>
       </c>
       <c r="L22" s="64" t="s">
         <v>51</v>
@@ -7311,26 +7253,26 @@
       <c r="O22" s="63"/>
     </row>
     <row r="23" s="11" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="107" t="n">
+      <c r="B23" s="105" t="e">
         <f aca="false">B16+TIME(0,H16,0)</f>
-        <v>0.636805555555555</v>
-      </c>
-      <c r="C23" s="108" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C23" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="107" t="n">
         <f aca="false">SUM(H24:H28)</f>
         <v>29</v>
       </c>
-      <c r="I23" s="110" t="s">
+      <c r="I23" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
       <c r="L23" s="64" t="s">
         <v>53</v>
       </c>
@@ -7343,26 +7285,26 @@
       <c r="O23" s="63"/>
     </row>
     <row r="24" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="112" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="87" t="n">
+      <c r="B24" s="110" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="88" t="s">
+      <c r="I24" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="32" t="n">
+      <c r="J24" s="32" t="e">
         <f aca="false">B23+TIME(0,H24,0)</f>
-        <v>0.6375</v>
-      </c>
-      <c r="K24" s="113" t="s">
-        <v>88</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K24" s="111" t="s">
+        <v>87</v>
       </c>
       <c r="L24" s="65" t="s">
         <v>55</v>
@@ -7376,26 +7318,26 @@
       <c r="O24" s="67"/>
     </row>
     <row r="25" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="114" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="115" t="n">
+      <c r="B25" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="I25" s="116" t="s">
+      <c r="I25" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="117" t="n">
+      <c r="J25" s="115" t="e">
         <f aca="false">J24+TIME(0,H25,0)</f>
-        <v>0.638888888888889</v>
-      </c>
-      <c r="K25" s="92" t="s">
-        <v>91</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K25" s="90" t="s">
+        <v>89</v>
       </c>
       <c r="L25" s="68" t="s">
         <v>57</v>
@@ -7405,26 +7347,26 @@
       <c r="O25" s="68"/>
     </row>
     <row r="26" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="118" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
+      <c r="B26" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
       <c r="H26" s="43" t="n">
         <v>18</v>
       </c>
       <c r="I26" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="45" t="n">
+      <c r="J26" s="45" t="e">
         <f aca="false">J25+TIME(0,H26,0)</f>
-        <v>0.651388888888889</v>
-      </c>
-      <c r="K26" s="119" t="s">
-        <v>107</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" s="117" t="s">
+        <v>105</v>
       </c>
       <c r="L26" s="69" t="s">
         <v>58</v>
@@ -7434,26 +7376,26 @@
       <c r="O26" s="69"/>
     </row>
     <row r="27" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="112" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="120" t="n">
+      <c r="B27" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="118" t="n">
         <v>7</v>
       </c>
-      <c r="I27" s="88" t="s">
+      <c r="I27" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="32" t="n">
+      <c r="J27" s="32" t="e">
         <f aca="false">J26+TIME(0,H27,0)</f>
-        <v>0.65625</v>
-      </c>
-      <c r="K27" s="106" t="s">
-        <v>109</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" s="104" t="s">
+        <v>107</v>
       </c>
       <c r="L27" s="69"/>
       <c r="M27" s="69"/>
@@ -7461,27 +7403,27 @@
       <c r="O27" s="69"/>
     </row>
     <row r="28" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="121" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="122" t="n">
+      <c r="B28" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="120" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="91" t="s">
+      <c r="I28" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="35" t="n">
+      <c r="J28" s="35" t="e">
         <f aca="false">J27+TIME(0,H28,0)</f>
-        <v>0.656944444444444</v>
-      </c>
-      <c r="K28" s="123" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K28" s="121" t="str">
         <f aca="false">K13</f>
-        <v>张合堂</v>
+        <v>{host_name}</v>
       </c>
       <c r="L28" s="69"/>
       <c r="M28" s="69"/>
@@ -7489,53 +7431,53 @@
       <c r="O28" s="69"/>
     </row>
     <row r="29" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="93" t="n">
+      <c r="B29" s="91" t="e">
         <f aca="false">B23+TIME(0,H23,0)</f>
-        <v>0.656944444444444</v>
-      </c>
-      <c r="C29" s="94" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="95" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="93" t="n">
         <f aca="false">SUM(H30:H36)</f>
         <v>25</v>
       </c>
-      <c r="I29" s="96" t="s">
+      <c r="I29" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
       <c r="L29" s="69"/>
       <c r="M29" s="69"/>
       <c r="N29" s="69"/>
       <c r="O29" s="69"/>
     </row>
     <row r="30" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="118" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
+      <c r="B30" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
       <c r="H30" s="43" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="125" t="n">
+      <c r="J30" s="123" t="e">
         <f aca="false">B29+TIME(0,H30,0)</f>
-        <v>0.657638888888889</v>
-      </c>
-      <c r="K30" s="119" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" s="117" t="str">
         <f aca="false">K13</f>
-        <v>张合堂</v>
+        <v>{host_name}</v>
       </c>
       <c r="L30" s="69"/>
       <c r="M30" s="69"/>
@@ -7543,26 +7485,26 @@
       <c r="O30" s="69"/>
     </row>
     <row r="31" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="87" t="n">
+      <c r="B31" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="85" t="n">
         <v>7</v>
       </c>
-      <c r="I31" s="88" t="s">
+      <c r="I31" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="126" t="n">
+      <c r="J31" s="124" t="e">
         <f aca="false">J30+TIME(0,H31,0)</f>
-        <v>0.6625</v>
-      </c>
-      <c r="K31" s="106" t="s">
-        <v>112</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="104" t="s">
+        <v>110</v>
       </c>
       <c r="L31" s="69"/>
       <c r="M31" s="69"/>
@@ -7570,27 +7512,27 @@
       <c r="O31" s="69"/>
     </row>
     <row r="32" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="87" t="n">
+      <c r="B32" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="I32" s="88" t="s">
+      <c r="I32" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="126" t="n">
+      <c r="J32" s="124" t="e">
         <f aca="false">J31+TIME(0,H32,0)</f>
-        <v>0.663194444444444</v>
-      </c>
-      <c r="K32" s="106" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" s="104" t="str">
         <f aca="false">K30</f>
-        <v>张合堂</v>
+        <v>{host_name}</v>
       </c>
       <c r="L32" s="69"/>
       <c r="M32" s="69"/>
@@ -7598,26 +7540,26 @@
       <c r="O32" s="69"/>
     </row>
     <row r="33" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="112" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="87" t="n">
+      <c r="B33" s="110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="85" t="n">
         <v>7</v>
       </c>
-      <c r="I33" s="88" t="s">
+      <c r="I33" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="126" t="n">
+      <c r="J33" s="124" t="e">
         <f aca="false">J32+TIME(0,H33,0)</f>
-        <v>0.668055555555555</v>
-      </c>
-      <c r="K33" s="106" t="s">
-        <v>114</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" s="104" t="s">
+        <v>112</v>
       </c>
       <c r="L33" s="70" t="s">
         <v>59</v>
@@ -7627,27 +7569,27 @@
       <c r="O33" s="70"/>
     </row>
     <row r="34" s="11" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="87" t="n">
+      <c r="B34" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="I34" s="88" t="s">
+      <c r="I34" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J34" s="126" t="n">
+      <c r="J34" s="124" t="e">
         <f aca="false">J33+TIME(0,H34,0)</f>
-        <v>0.66875</v>
-      </c>
-      <c r="K34" s="106" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K34" s="104" t="str">
         <f aca="false">K13</f>
-        <v>张合堂</v>
+        <v>{host_name}</v>
       </c>
       <c r="L34" s="71" t="s">
         <v>60</v>
@@ -7657,26 +7599,26 @@
       <c r="O34" s="71"/>
     </row>
     <row r="35" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="104" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="120" t="n">
+      <c r="B35" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="118" t="n">
         <v>7</v>
       </c>
-      <c r="I35" s="127" t="s">
+      <c r="I35" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="128" t="n">
+      <c r="J35" s="126" t="e">
         <f aca="false">J34+TIME(0,H35,0)</f>
-        <v>0.673611111111111</v>
-      </c>
-      <c r="K35" s="129" t="s">
-        <v>116</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35" s="127" t="s">
+        <v>114</v>
       </c>
       <c r="L35" s="71"/>
       <c r="M35" s="71"/>
@@ -7684,27 +7626,27 @@
       <c r="O35" s="71"/>
     </row>
     <row r="36" s="11" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="121" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="90" t="n">
+      <c r="B36" s="119" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="88" t="n">
         <v>1</v>
       </c>
-      <c r="I36" s="91" t="s">
+      <c r="I36" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="130" t="n">
+      <c r="J36" s="128" t="e">
         <f aca="false">J35+TIME(0,H36,0)</f>
-        <v>0.674305555555555</v>
-      </c>
-      <c r="K36" s="92" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K36" s="90" t="str">
         <f aca="false">K30</f>
-        <v>张合堂</v>
+        <v>{host_name}</v>
       </c>
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
@@ -7712,42 +7654,42 @@
       <c r="O36" s="71"/>
     </row>
     <row r="37" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="93" t="n">
+      <c r="B37" s="91" t="e">
         <f aca="false">B29+TIME(0,H29,0)</f>
-        <v>0.674305555555556</v>
-      </c>
-      <c r="C37" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="95" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C37" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="93" t="n">
         <v>5</v>
       </c>
-      <c r="I37" s="96" t="s">
+      <c r="I37" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="97"/>
-      <c r="K37" s="98"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="96"/>
       <c r="L37" s="71"/>
       <c r="M37" s="71"/>
       <c r="N37" s="71"/>
       <c r="O37" s="71"/>
     </row>
     <row r="38" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="107" t="n">
+      <c r="B38" s="105" t="e">
         <f aca="false">B37+TIME(0,H37,0)</f>
-        <v>0.677777777777778</v>
-      </c>
-      <c r="C38" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C38" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
       <c r="H38" s="38" t="n">
         <f aca="false">SUM(H39:H42)</f>
         <v>10</v>
@@ -7763,27 +7705,27 @@
       <c r="O38" s="71"/>
     </row>
     <row r="39" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="118" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="118"/>
+      <c r="B39" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
       <c r="H39" s="43" t="n">
         <v>1</v>
       </c>
       <c r="I39" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="125" t="n">
+      <c r="J39" s="123" t="e">
         <f aca="false">B38+TIME(0,H39,0)</f>
-        <v>0.678472222222222</v>
-      </c>
-      <c r="K39" s="119" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K39" s="117" t="str">
         <f aca="false">K13</f>
-        <v>张合堂</v>
+        <v>{host_name}</v>
       </c>
       <c r="L39" s="71"/>
       <c r="M39" s="71"/>
@@ -7791,26 +7733,26 @@
       <c r="O39" s="71"/>
     </row>
     <row r="40" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="87" t="n">
+      <c r="B40" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="85" t="n">
         <v>3</v>
       </c>
-      <c r="I40" s="88" t="s">
+      <c r="I40" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="126" t="n">
+      <c r="J40" s="124" t="e">
         <f aca="false">J39+TIME(0,H40,0)</f>
-        <v>0.680555555555556</v>
-      </c>
-      <c r="K40" s="106" t="s">
-        <v>100</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K40" s="104" t="s">
+        <v>98</v>
       </c>
       <c r="L40" s="71"/>
       <c r="M40" s="71"/>
@@ -7818,26 +7760,26 @@
       <c r="O40" s="71"/>
     </row>
     <row r="41" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="87" t="n">
+      <c r="B41" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="85" t="n">
         <v>3</v>
       </c>
-      <c r="I41" s="88" t="s">
+      <c r="I41" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J41" s="126" t="n">
+      <c r="J41" s="124" t="e">
         <f aca="false">J40+TIME(0,H41,0)</f>
-        <v>0.682638888888889</v>
-      </c>
-      <c r="K41" s="106" t="s">
-        <v>121</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K41" s="104" t="s">
+        <v>119</v>
       </c>
       <c r="L41" s="71"/>
       <c r="M41" s="71"/>
@@ -7845,26 +7787,26 @@
       <c r="O41" s="71"/>
     </row>
     <row r="42" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="87" t="n">
+      <c r="B42" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="85" t="n">
         <v>3</v>
       </c>
-      <c r="I42" s="88" t="s">
+      <c r="I42" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="126" t="n">
+      <c r="J42" s="124" t="e">
         <f aca="false">J41+TIME(0,H42,0)</f>
-        <v>0.684722222222222</v>
-      </c>
-      <c r="K42" s="106" t="s">
-        <v>123</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K42" s="104" t="s">
+        <v>121</v>
       </c>
       <c r="L42" s="72" t="s">
         <v>61</v>
@@ -7877,26 +7819,26 @@
       </c>
     </row>
     <row r="43" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="93" t="n">
+      <c r="B43" s="91" t="e">
         <f aca="false">B38+TIME(0,H38,0)</f>
-        <v>0.684722222222222</v>
-      </c>
-      <c r="C43" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="95" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="93" t="n">
         <f aca="false">SUM(H44:H48)</f>
         <v>15</v>
       </c>
-      <c r="I43" s="96" t="s">
+      <c r="I43" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
       <c r="L43" s="73" t="s">
         <v>62</v>
       </c>
@@ -7908,27 +7850,27 @@
       <c r="P43" s="25"/>
     </row>
     <row r="44" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="131" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="87" t="n">
+      <c r="B44" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="I44" s="88" t="s">
+      <c r="I44" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J44" s="32" t="n">
+      <c r="J44" s="32" t="e">
         <f aca="false">B43+TIME(0,H44,0)</f>
-        <v>0.685416666666667</v>
-      </c>
-      <c r="K44" s="102" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K44" s="100" t="str">
         <f aca="false">K17</f>
-        <v>张合堂</v>
+        <v>{host_name}</v>
       </c>
       <c r="L44" s="76" t="s">
         <v>64</v>
@@ -7942,24 +7884,24 @@
     </row>
     <row r="45" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C45" s="64"/>
       <c r="D45" s="64"/>
       <c r="E45" s="64"/>
       <c r="F45" s="64"/>
       <c r="G45" s="64"/>
-      <c r="H45" s="87" t="n">
+      <c r="H45" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="I45" s="88" t="s">
+      <c r="I45" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J45" s="32" t="n">
+      <c r="J45" s="32" t="e">
         <f aca="false">J44+TIME(0,H45,0)</f>
-        <v>0.686805555555556</v>
-      </c>
-      <c r="K45" s="102" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K45" s="100" t="str">
         <f aca="false">K18</f>
         <v>丘愉庄</v>
       </c>
@@ -7974,24 +7916,24 @@
     </row>
     <row r="46" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C46" s="64"/>
       <c r="D46" s="64"/>
       <c r="E46" s="64"/>
       <c r="F46" s="64"/>
       <c r="G46" s="64"/>
-      <c r="H46" s="87" t="n">
+      <c r="H46" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="I46" s="88" t="s">
+      <c r="I46" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J46" s="32" t="n">
+      <c r="J46" s="32" t="e">
         <f aca="false">J45+TIME(0,H46,0)</f>
-        <v>0.688194444444444</v>
-      </c>
-      <c r="K46" s="103" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K46" s="101" t="str">
         <f aca="false">K19</f>
         <v>xxx</v>
       </c>
@@ -8006,24 +7948,24 @@
     </row>
     <row r="47" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C47" s="64"/>
       <c r="D47" s="64"/>
       <c r="E47" s="64"/>
       <c r="F47" s="64"/>
       <c r="G47" s="64"/>
-      <c r="H47" s="87" t="n">
+      <c r="H47" s="85" t="n">
         <v>3</v>
       </c>
-      <c r="I47" s="88" t="s">
+      <c r="I47" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J47" s="32" t="n">
+      <c r="J47" s="32" t="e">
         <f aca="false">J46+TIME(0,H47,0)</f>
-        <v>0.690277777777778</v>
-      </c>
-      <c r="K47" s="103" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K47" s="101" t="str">
         <f aca="false">K20</f>
         <v>xxx</v>
       </c>
@@ -8038,25 +7980,25 @@
     </row>
     <row r="48" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C48" s="64"/>
       <c r="D48" s="64"/>
       <c r="E48" s="64"/>
       <c r="F48" s="64"/>
       <c r="G48" s="64"/>
-      <c r="H48" s="87" t="n">
+      <c r="H48" s="85" t="n">
         <v>7</v>
       </c>
-      <c r="I48" s="88" t="s">
+      <c r="I48" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J48" s="32" t="n">
+      <c r="J48" s="32" t="e">
         <f aca="false">J47+TIME(0,H48,0)</f>
-        <v>0.695138888888889</v>
-      </c>
-      <c r="K48" s="106" t="s">
-        <v>100</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" s="104" t="s">
+        <v>98</v>
       </c>
       <c r="L48" s="76" t="s">
         <v>72</v>
@@ -8067,9 +8009,11 @@
     </row>
     <row r="49" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="47"/>
+        <v>14</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="D49" s="47"/>
       <c r="E49" s="47"/>
       <c r="F49" s="47"/>
@@ -8088,26 +8032,26 @@
       <c r="O49" s="81"/>
     </row>
     <row r="50" s="11" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="134" t="n">
+      <c r="B50" s="132" t="e">
         <f aca="false">B43+TIME(0,H43,0)</f>
-        <v>0.695138888888889</v>
-      </c>
-      <c r="C50" s="135" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="135"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="136" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C50" s="133" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="134" t="n">
         <f aca="false">SUM(H51:H53)</f>
         <v>8</v>
       </c>
-      <c r="I50" s="137" t="s">
+      <c r="I50" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="138"/>
-      <c r="K50" s="124"/>
+      <c r="J50" s="136"/>
+      <c r="K50" s="122"/>
       <c r="L50" s="73" t="s">
         <v>75</v>
       </c>
@@ -8118,26 +8062,26 @@
       <c r="O50" s="75"/>
     </row>
     <row r="51" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="139" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="140"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="140"/>
-      <c r="F51" s="140"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="142" t="n">
+      <c r="B51" s="137" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="138"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="140" t="n">
         <v>4</v>
       </c>
-      <c r="I51" s="143" t="s">
+      <c r="I51" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="144" t="n">
+      <c r="J51" s="142" t="e">
         <f aca="false">B50+TIME(0,H51,0)</f>
-        <v>0.697916666666667</v>
-      </c>
-      <c r="K51" s="106" t="s">
-        <v>88</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K51" s="104" t="s">
+        <v>87</v>
       </c>
       <c r="L51" s="76" t="s">
         <v>77</v>
@@ -8149,21 +8093,21 @@
       <c r="O51" s="78"/>
     </row>
     <row r="52" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="145" t="s">
-        <v>133</v>
-      </c>
-      <c r="H52" s="87" t="n">
+      <c r="B52" s="143" t="s">
+        <v>130</v>
+      </c>
+      <c r="H52" s="85" t="n">
         <v>3</v>
       </c>
-      <c r="I52" s="88" t="s">
+      <c r="I52" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J52" s="32" t="n">
+      <c r="J52" s="32" t="e">
         <f aca="false">J51+TIME(0,H52,0)</f>
-        <v>0.7</v>
-      </c>
-      <c r="K52" s="106" t="s">
-        <v>88</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K52" s="104" t="s">
+        <v>87</v>
       </c>
       <c r="L52" s="76" t="s">
         <v>79</v>
@@ -8175,26 +8119,26 @@
       <c r="O52" s="78"/>
     </row>
     <row r="53" s="11" customFormat="true" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="131" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="132"/>
-      <c r="D53" s="132"/>
-      <c r="E53" s="132"/>
-      <c r="F53" s="132"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="87" t="n">
+      <c r="B53" s="129" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="I53" s="88" t="s">
+      <c r="I53" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J53" s="32" t="n">
+      <c r="J53" s="32" t="e">
         <f aca="false">J52+TIME(0,H53,0)</f>
-        <v>0.700694444444444</v>
-      </c>
-      <c r="K53" s="106" t="s">
-        <v>135</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K53" s="104" t="s">
+        <v>132</v>
       </c>
       <c r="L53" s="76" t="s">
         <v>81</v>
@@ -8204,24 +8148,24 @@
         <v>82</v>
       </c>
       <c r="O53" s="78"/>
-      <c r="P53" s="146"/>
+      <c r="P53" s="144"/>
     </row>
     <row r="54" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="134" t="n">
+      <c r="B54" s="132" t="e">
         <f aca="false">B50+TIME(0,H50,0)</f>
-        <v>0.700694444444444</v>
-      </c>
-      <c r="C54" s="135" t="s">
-        <v>136</v>
-      </c>
-      <c r="D54" s="135"/>
-      <c r="E54" s="135"/>
-      <c r="F54" s="135"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="148"/>
-      <c r="K54" s="149"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C54" s="133" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="133"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="145"/>
+      <c r="J54" s="146"/>
+      <c r="K54" s="147"/>
       <c r="L54" s="82" t="s">
         <v>83</v>
       </c>
@@ -8230,7 +8174,7 @@
         <v>84</v>
       </c>
       <c r="O54" s="83"/>
-      <c r="P54" s="146"/>
+      <c r="P54" s="144"/>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/tm_303_calendar.xlsx
+++ b/tm_303_calendar.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="139">
   <si>
     <r>
       <rPr>
@@ -1793,7 +1793,106 @@
     <t xml:space="preserve">5. 专业展示 Demonstrating Expertise</t>
   </si>
   <si>
-    <t xml:space="preserve">主题：《立夏》</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="24"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="24"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">会议标题</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="24"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">线上：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">线上会议号</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">摄影师：{摄影师}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主题：{主题}</t>
   </si>
   <si>
     <r>
@@ -2166,7 +2265,7 @@
     <numFmt numFmtId="165" formatCode="H:MM"/>
     <numFmt numFmtId="166" formatCode="H:MM;@"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2368,6 +2467,13 @@
       <b val="true"/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
     </font>
@@ -2762,7 +2868,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3099,7 +3205,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3247,7 +3357,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3255,11 +3365,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3267,7 +3377,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="34" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3275,7 +3385,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3438,9 +3548,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>268920</xdr:rowOff>
+      <xdr:rowOff>268560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3450,7 +3560,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15038640"/>
-          <a:ext cx="185400" cy="268920"/>
+          <a:ext cx="185040" cy="268560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3478,9 +3588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>268920</xdr:rowOff>
+      <xdr:rowOff>268560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3490,7 +3600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15038640"/>
-          <a:ext cx="185400" cy="268920"/>
+          <a:ext cx="185040" cy="268560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3518,9 +3628,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3534,7 +3644,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="216000" y="273960"/>
-          <a:ext cx="1649520" cy="1341360"/>
+          <a:ext cx="1649160" cy="1341000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3555,9 +3665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>243360</xdr:rowOff>
+      <xdr:rowOff>243000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3567,7 +3677,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15344640"/>
-          <a:ext cx="185400" cy="241920"/>
+          <a:ext cx="185040" cy="241560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3595,9 +3705,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>243360</xdr:rowOff>
+      <xdr:rowOff>243000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3607,7 +3717,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15344640"/>
-          <a:ext cx="185400" cy="241920"/>
+          <a:ext cx="185040" cy="241560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3635,9 +3745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>243360</xdr:rowOff>
+      <xdr:rowOff>243000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3647,7 +3757,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15344640"/>
-          <a:ext cx="185400" cy="241920"/>
+          <a:ext cx="185040" cy="241560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3675,9 +3785,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>243360</xdr:rowOff>
+      <xdr:rowOff>243000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3687,7 +3797,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15344640"/>
-          <a:ext cx="185400" cy="241920"/>
+          <a:ext cx="185040" cy="241560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3715,9 +3825,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1313280</xdr:colOff>
+      <xdr:colOff>1312920</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>102600</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3731,7 +3841,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12273120" y="347760"/>
-          <a:ext cx="1058760" cy="1194840"/>
+          <a:ext cx="1058400" cy="1194480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3752,9 +3862,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>194760</xdr:colOff>
+      <xdr:colOff>194400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3768,7 +3878,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10986840" y="330840"/>
-          <a:ext cx="1226520" cy="1245600"/>
+          <a:ext cx="1226160" cy="1245240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3794,9 +3904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3806,7 +3916,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7316280" y="3170520"/>
-          <a:ext cx="185400" cy="283320"/>
+          <a:ext cx="185040" cy="282960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3834,9 +3944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3846,7 +3956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7316280" y="3170520"/>
-          <a:ext cx="185400" cy="283320"/>
+          <a:ext cx="185040" cy="282960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3874,9 +3984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>267120</xdr:colOff>
+      <xdr:colOff>266760</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3890,7 +4000,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8121600" y="6546240"/>
-          <a:ext cx="168480" cy="124920"/>
+          <a:ext cx="168120" cy="124560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3911,9 +4021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3923,7 +4033,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7316280" y="3872520"/>
-          <a:ext cx="185400" cy="244080"/>
+          <a:ext cx="185040" cy="243720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3951,9 +4061,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3963,7 +4073,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7316280" y="3872520"/>
-          <a:ext cx="185400" cy="244080"/>
+          <a:ext cx="185040" cy="243720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3991,9 +4101,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4003,7 +4113,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7316280" y="3521160"/>
-          <a:ext cx="185400" cy="282960"/>
+          <a:ext cx="185040" cy="282600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4031,9 +4141,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4043,7 +4153,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7316280" y="3521160"/>
-          <a:ext cx="185400" cy="282960"/>
+          <a:ext cx="185040" cy="282600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4071,9 +4181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4083,7 +4193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7316280" y="3346200"/>
-          <a:ext cx="185400" cy="282240"/>
+          <a:ext cx="185040" cy="281880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4111,9 +4221,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4123,7 +4233,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7316280" y="3346200"/>
-          <a:ext cx="185400" cy="282240"/>
+          <a:ext cx="185040" cy="281880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4151,9 +4261,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4163,7 +4273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7316280" y="3696840"/>
-          <a:ext cx="185400" cy="245160"/>
+          <a:ext cx="185040" cy="244800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4191,9 +4301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4203,7 +4313,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7316280" y="3696840"/>
-          <a:ext cx="185400" cy="245160"/>
+          <a:ext cx="185040" cy="244800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4231,9 +4341,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4243,7 +4353,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7316280" y="3521160"/>
-          <a:ext cx="185400" cy="282960"/>
+          <a:ext cx="185040" cy="282600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4271,9 +4381,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4283,7 +4393,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7316280" y="3521160"/>
-          <a:ext cx="185400" cy="282960"/>
+          <a:ext cx="185040" cy="282600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4316,9 +4426,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>268920</xdr:rowOff>
+      <xdr:rowOff>268560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4327,8 +4437,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="16084440"/>
-          <a:ext cx="185400" cy="268920"/>
+          <a:off x="4789440" y="16011360"/>
+          <a:ext cx="185040" cy="268560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4356,9 +4466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>268920</xdr:rowOff>
+      <xdr:rowOff>268560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4367,8 +4477,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="16084440"/>
-          <a:ext cx="185400" cy="268920"/>
+          <a:off x="4789440" y="16011360"/>
+          <a:ext cx="185040" cy="268560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4390,9 +4500,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>58320</xdr:colOff>
+      <xdr:colOff>58680</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -4411,8 +4521,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="195840" y="194760"/>
-          <a:ext cx="1649880" cy="1324440"/>
+          <a:off x="196200" y="195120"/>
+          <a:ext cx="1649520" cy="1251000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4429,13 +4539,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4444,8 +4554,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5307840"/>
-          <a:ext cx="185400" cy="413640"/>
+          <a:off x="4789440" y="5235120"/>
+          <a:ext cx="185040" cy="412920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4469,13 +4579,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4484,8 +4594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5307840"/>
-          <a:ext cx="185400" cy="413640"/>
+          <a:off x="4789440" y="5235120"/>
+          <a:ext cx="185040" cy="412920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4513,9 +4623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
+      <xdr:colOff>265320</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>221760</xdr:rowOff>
+      <xdr:rowOff>221400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4528,8 +4638,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5297040" y="11192400"/>
-          <a:ext cx="168480" cy="176040"/>
+          <a:off x="5297040" y="11119320"/>
+          <a:ext cx="168120" cy="175680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4550,7 +4660,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
@@ -4561,8 +4671,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6566400"/>
-          <a:ext cx="185400" cy="410760"/>
+          <a:off x="4789440" y="6493680"/>
+          <a:ext cx="185040" cy="410400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4590,7 +4700,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
@@ -4601,8 +4711,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6566400"/>
-          <a:ext cx="185400" cy="410760"/>
+          <a:off x="4789440" y="6493680"/>
+          <a:ext cx="185040" cy="410400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4630,9 +4740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>269640</xdr:rowOff>
+      <xdr:rowOff>269280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4641,8 +4751,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="16085160"/>
-          <a:ext cx="185400" cy="268920"/>
+          <a:off x="4789440" y="16012080"/>
+          <a:ext cx="185040" cy="268560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4670,9 +4780,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>269640</xdr:rowOff>
+      <xdr:rowOff>269280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4681,8 +4791,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="16085160"/>
-          <a:ext cx="185400" cy="268920"/>
+          <a:off x="4789440" y="16012080"/>
+          <a:ext cx="185040" cy="268560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4710,9 +4820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>269640</xdr:rowOff>
+      <xdr:rowOff>269280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4721,8 +4831,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="16085160"/>
-          <a:ext cx="185400" cy="268920"/>
+          <a:off x="4789440" y="16012080"/>
+          <a:ext cx="185040" cy="268560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4750,9 +4860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>269640</xdr:rowOff>
+      <xdr:rowOff>269280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4761,8 +4871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="16085160"/>
-          <a:ext cx="185400" cy="268920"/>
+          <a:off x="4789440" y="16012080"/>
+          <a:ext cx="185040" cy="268560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4786,11 +4896,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
@@ -4801,8 +4911,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5918400"/>
-          <a:ext cx="185400" cy="411120"/>
+          <a:off x="4789440" y="5845680"/>
+          <a:ext cx="185040" cy="410760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4826,11 +4936,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
@@ -4841,8 +4951,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5918400"/>
-          <a:ext cx="185400" cy="411120"/>
+          <a:off x="4789440" y="5845680"/>
+          <a:ext cx="185040" cy="410760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4870,7 +4980,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
@@ -4881,8 +4991,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5613840"/>
-          <a:ext cx="185400" cy="411840"/>
+          <a:off x="4789440" y="5540760"/>
+          <a:ext cx="185040" cy="411840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4910,7 +5020,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
@@ -4921,8 +5031,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5613840"/>
-          <a:ext cx="185400" cy="411840"/>
+          <a:off x="4789440" y="5540760"/>
+          <a:ext cx="185040" cy="411840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4946,11 +5056,11 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>254520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1313280</xdr:colOff>
+      <xdr:colOff>1312920</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
@@ -4965,8 +5075,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12273120" y="347760"/>
-          <a:ext cx="1058760" cy="1194840"/>
+          <a:off x="12273120" y="348120"/>
+          <a:ext cx="1058400" cy="1121400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4983,13 +5093,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4998,8 +5108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6222240"/>
-          <a:ext cx="185400" cy="413640"/>
+          <a:off x="4789440" y="6149520"/>
+          <a:ext cx="185040" cy="413280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5023,13 +5133,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5038,8 +5148,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6222240"/>
-          <a:ext cx="185400" cy="413640"/>
+          <a:off x="4789440" y="6149520"/>
+          <a:ext cx="185040" cy="413280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5063,11 +5173,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
@@ -5078,8 +5188,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5918400"/>
-          <a:ext cx="185400" cy="411120"/>
+          <a:off x="4789440" y="5845680"/>
+          <a:ext cx="185040" cy="410760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5103,11 +5213,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
@@ -5118,8 +5228,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5918400"/>
-          <a:ext cx="185400" cy="411120"/>
+          <a:off x="4789440" y="5845680"/>
+          <a:ext cx="185040" cy="410760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5141,13 +5251,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>194760</xdr:colOff>
+      <xdr:colOff>194400</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
@@ -5162,8 +5272,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10986840" y="330840"/>
-          <a:ext cx="1226520" cy="1245600"/>
+          <a:off x="10987200" y="331200"/>
+          <a:ext cx="1225800" cy="1172160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5186,7 +5296,7 @@
   <dimension ref="B1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="C49 B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5931,7 +6041,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="1" sqref="C49 J3"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6022,7 +6132,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="C49 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6078,7 +6188,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="C49 J1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6130,7 +6240,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="C49 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6173,7 +6283,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="1" sqref="C49 K3"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6279,7 +6389,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C49 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6674,8 +6784,8 @@
   </sheetPr>
   <dimension ref="B2:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6716,22 +6826,22 @@
       <c r="N2" s="6"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="E3" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
       <c r="O3" s="10"/>
     </row>
     <row r="4" s="11" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6760,7 +6870,7 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
@@ -6775,13 +6885,13 @@
     </row>
     <row r="6" s="11" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="18" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
@@ -6801,7 +6911,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="M7" s="21" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="O7" s="10"/>
     </row>
@@ -6826,7 +6936,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -6863,7 +6973,7 @@
       <c r="J10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="84" t="s">
+      <c r="K10" s="85" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="50" t="s">
@@ -6887,7 +6997,7 @@
       <c r="J11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="84" t="s">
+      <c r="K11" s="85" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="50"/>
@@ -6957,17 +7067,17 @@
     </row>
     <row r="14" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="64" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
       <c r="G14" s="64"/>
-      <c r="H14" s="85" t="n">
+      <c r="H14" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="86" t="s">
+      <c r="I14" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="32" t="e">
@@ -6975,7 +7085,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L14" s="56" t="s">
         <v>33</v>
@@ -6991,26 +7101,26 @@
       </c>
     </row>
     <row r="15" s="24" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88" t="n">
+      <c r="B15" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89" t="n">
         <v>5</v>
       </c>
-      <c r="I15" s="89" t="s">
+      <c r="I15" s="90" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="35" t="e">
         <f aca="false">J14+TIME(0,H15,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="90" t="s">
-        <v>89</v>
+      <c r="K15" s="91" t="s">
+        <v>94</v>
       </c>
       <c r="L15" s="59" t="s">
         <v>37</v>
@@ -7026,26 +7136,26 @@
       </c>
     </row>
     <row r="16" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="91" t="e">
+      <c r="B16" s="92" t="e">
         <f aca="false">B12+TIME(0,H12,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C16" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93" t="n">
+      <c r="C16" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94" t="n">
         <f aca="false">SUM(H17:H21)</f>
         <v>9</v>
       </c>
-      <c r="I16" s="94" t="s">
+      <c r="I16" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="97"/>
       <c r="L16" s="62" t="s">
         <v>40</v>
       </c>
@@ -7054,25 +7164,25 @@
       <c r="O16" s="62"/>
     </row>
     <row r="17" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98" t="n">
+      <c r="B17" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="I17" s="86" t="s">
+      <c r="I17" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="32" t="e">
         <f aca="false">B16+TIME(0,H17,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="99" t="str">
+      <c r="K17" s="100" t="str">
         <f aca="false">K13</f>
         <v>{host_name}</v>
       </c>
@@ -7089,25 +7199,25 @@
     </row>
     <row r="18" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="64" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
       <c r="G18" s="64"/>
-      <c r="H18" s="85" t="n">
+      <c r="H18" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="86" t="s">
+      <c r="I18" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="32" t="e">
         <f aca="false">J17+TIME(0,H18,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K18" s="100" t="s">
-        <v>93</v>
+      <c r="K18" s="101" t="s">
+        <v>98</v>
       </c>
       <c r="L18" s="64" t="s">
         <v>43</v>
@@ -7122,25 +7232,25 @@
     </row>
     <row r="19" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="64" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
       <c r="G19" s="64"/>
-      <c r="H19" s="85" t="n">
+      <c r="H19" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="86" t="s">
+      <c r="I19" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="32" t="e">
         <f aca="false">J18+TIME(0,H19,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K19" s="101" t="s">
-        <v>95</v>
+      <c r="K19" s="102" t="s">
+        <v>100</v>
       </c>
       <c r="L19" s="64" t="s">
         <v>45</v>
@@ -7154,26 +7264,26 @@
       <c r="O19" s="63"/>
     </row>
     <row r="20" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="85" t="n">
+      <c r="B20" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="I20" s="86" t="s">
+      <c r="I20" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="32" t="e">
         <f aca="false">J19+TIME(0,H20,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K20" s="101" t="s">
-        <v>95</v>
+      <c r="K20" s="102" t="s">
+        <v>100</v>
       </c>
       <c r="L20" s="64" t="s">
         <v>47</v>
@@ -7187,26 +7297,26 @@
       <c r="O20" s="63"/>
     </row>
     <row r="21" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="85" t="n">
+      <c r="B21" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="I21" s="86" t="s">
+      <c r="I21" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J21" s="32" t="e">
         <f aca="false">J20+TIME(0,H21,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K21" s="104" t="s">
-        <v>98</v>
+      <c r="K21" s="105" t="s">
+        <v>103</v>
       </c>
       <c r="L21" s="64" t="s">
         <v>49</v>
@@ -7220,26 +7330,26 @@
       <c r="O21" s="63"/>
     </row>
     <row r="22" s="11" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="85" t="n">
+      <c r="B22" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="86" t="n">
         <v>6</v>
       </c>
-      <c r="I22" s="86" t="s">
+      <c r="I22" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="32" t="e">
         <f aca="false">J21+TIME(0,H22,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K22" s="100" t="s">
-        <v>100</v>
+      <c r="K22" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="L22" s="64" t="s">
         <v>51</v>
@@ -7253,26 +7363,26 @@
       <c r="O22" s="63"/>
     </row>
     <row r="23" s="11" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="105" t="e">
+      <c r="B23" s="106" t="e">
         <f aca="false">B16+TIME(0,H16,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C23" s="106" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="107" t="n">
+      <c r="C23" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="108" t="n">
         <f aca="false">SUM(H24:H28)</f>
         <v>29</v>
       </c>
-      <c r="I23" s="108" t="s">
+      <c r="I23" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
       <c r="L23" s="64" t="s">
         <v>53</v>
       </c>
@@ -7285,26 +7395,26 @@
       <c r="O23" s="63"/>
     </row>
     <row r="24" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="85" t="n">
+      <c r="B24" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="86" t="s">
+      <c r="I24" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="32" t="e">
         <f aca="false">B23+TIME(0,H24,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K24" s="111" t="s">
-        <v>87</v>
+      <c r="K24" s="112" t="s">
+        <v>92</v>
       </c>
       <c r="L24" s="65" t="s">
         <v>55</v>
@@ -7318,26 +7428,26 @@
       <c r="O24" s="67"/>
     </row>
     <row r="25" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="113" t="n">
+      <c r="B25" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="114" t="n">
         <v>2</v>
       </c>
-      <c r="I25" s="114" t="s">
+      <c r="I25" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="115" t="e">
+      <c r="J25" s="116" t="e">
         <f aca="false">J24+TIME(0,H25,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K25" s="90" t="s">
-        <v>89</v>
+      <c r="K25" s="91" t="s">
+        <v>94</v>
       </c>
       <c r="L25" s="68" t="s">
         <v>57</v>
@@ -7347,14 +7457,14 @@
       <c r="O25" s="68"/>
     </row>
     <row r="26" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="116" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
+      <c r="B26" s="117" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
       <c r="H26" s="43" t="n">
         <v>18</v>
       </c>
@@ -7365,8 +7475,8 @@
         <f aca="false">J25+TIME(0,H26,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K26" s="117" t="s">
-        <v>105</v>
+      <c r="K26" s="118" t="s">
+        <v>110</v>
       </c>
       <c r="L26" s="69" t="s">
         <v>58</v>
@@ -7376,26 +7486,26 @@
       <c r="O26" s="69"/>
     </row>
     <row r="27" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="110" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="118" t="n">
+      <c r="B27" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="119" t="n">
         <v>7</v>
       </c>
-      <c r="I27" s="86" t="s">
+      <c r="I27" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J27" s="32" t="e">
         <f aca="false">J26+TIME(0,H27,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K27" s="104" t="s">
-        <v>107</v>
+      <c r="K27" s="105" t="s">
+        <v>112</v>
       </c>
       <c r="L27" s="69"/>
       <c r="M27" s="69"/>
@@ -7403,25 +7513,25 @@
       <c r="O27" s="69"/>
     </row>
     <row r="28" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="119" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="120" t="n">
+      <c r="B28" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="89" t="s">
+      <c r="I28" s="90" t="s">
         <v>22</v>
       </c>
       <c r="J28" s="35" t="e">
         <f aca="false">J27+TIME(0,H28,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K28" s="121" t="str">
+      <c r="K28" s="122" t="str">
         <f aca="false">K13</f>
         <v>{host_name}</v>
       </c>
@@ -7431,51 +7541,51 @@
       <c r="O28" s="69"/>
     </row>
     <row r="29" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="91" t="e">
+      <c r="B29" s="92" t="e">
         <f aca="false">B23+TIME(0,H23,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C29" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="93" t="n">
+      <c r="C29" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="94" t="n">
         <f aca="false">SUM(H30:H36)</f>
         <v>25</v>
       </c>
-      <c r="I29" s="94" t="s">
+      <c r="I29" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
       <c r="L29" s="69"/>
       <c r="M29" s="69"/>
       <c r="N29" s="69"/>
       <c r="O29" s="69"/>
     </row>
     <row r="30" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
+      <c r="B30" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
       <c r="H30" s="43" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="123" t="e">
+      <c r="J30" s="124" t="e">
         <f aca="false">B29+TIME(0,H30,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K30" s="117" t="str">
+      <c r="K30" s="118" t="str">
         <f aca="false">K13</f>
         <v>{host_name}</v>
       </c>
@@ -7485,26 +7595,26 @@
       <c r="O30" s="69"/>
     </row>
     <row r="31" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="85" t="n">
+      <c r="B31" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="86" t="n">
         <v>7</v>
       </c>
-      <c r="I31" s="86" t="s">
+      <c r="I31" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="124" t="e">
+      <c r="J31" s="125" t="e">
         <f aca="false">J30+TIME(0,H31,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="104" t="s">
-        <v>110</v>
+      <c r="K31" s="105" t="s">
+        <v>115</v>
       </c>
       <c r="L31" s="69"/>
       <c r="M31" s="69"/>
@@ -7512,25 +7622,25 @@
       <c r="O31" s="69"/>
     </row>
     <row r="32" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="85" t="n">
+      <c r="B32" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="I32" s="86" t="s">
+      <c r="I32" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="124" t="e">
+      <c r="J32" s="125" t="e">
         <f aca="false">J31+TIME(0,H32,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K32" s="104" t="str">
+      <c r="K32" s="105" t="str">
         <f aca="false">K30</f>
         <v>{host_name}</v>
       </c>
@@ -7540,26 +7650,26 @@
       <c r="O32" s="69"/>
     </row>
     <row r="33" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="85" t="n">
+      <c r="B33" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="86" t="n">
         <v>7</v>
       </c>
-      <c r="I33" s="86" t="s">
+      <c r="I33" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="124" t="e">
+      <c r="J33" s="125" t="e">
         <f aca="false">J32+TIME(0,H33,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K33" s="104" t="s">
-        <v>112</v>
+      <c r="K33" s="105" t="s">
+        <v>117</v>
       </c>
       <c r="L33" s="70" t="s">
         <v>59</v>
@@ -7569,25 +7679,25 @@
       <c r="O33" s="70"/>
     </row>
     <row r="34" s="11" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="85" t="n">
+      <c r="B34" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="I34" s="86" t="s">
+      <c r="I34" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="J34" s="124" t="e">
+      <c r="J34" s="125" t="e">
         <f aca="false">J33+TIME(0,H34,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K34" s="104" t="str">
+      <c r="K34" s="105" t="str">
         <f aca="false">K13</f>
         <v>{host_name}</v>
       </c>
@@ -7599,26 +7709,26 @@
       <c r="O34" s="71"/>
     </row>
     <row r="35" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="118" t="n">
+      <c r="B35" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="119" t="n">
         <v>7</v>
       </c>
-      <c r="I35" s="125" t="s">
+      <c r="I35" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="126" t="e">
+      <c r="J35" s="127" t="e">
         <f aca="false">J34+TIME(0,H35,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K35" s="127" t="s">
-        <v>114</v>
+      <c r="K35" s="128" t="s">
+        <v>119</v>
       </c>
       <c r="L35" s="71"/>
       <c r="M35" s="71"/>
@@ -7626,25 +7736,25 @@
       <c r="O35" s="71"/>
     </row>
     <row r="36" s="11" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="119" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="88" t="n">
+      <c r="B36" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="89" t="n">
         <v>1</v>
       </c>
-      <c r="I36" s="89" t="s">
+      <c r="I36" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="128" t="e">
+      <c r="J36" s="129" t="e">
         <f aca="false">J35+TIME(0,H36,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K36" s="90" t="str">
+      <c r="K36" s="91" t="str">
         <f aca="false">K30</f>
         <v>{host_name}</v>
       </c>
@@ -7654,42 +7764,42 @@
       <c r="O36" s="71"/>
     </row>
     <row r="37" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="91" t="e">
+      <c r="B37" s="92" t="e">
         <f aca="false">B29+TIME(0,H29,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C37" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="93" t="n">
+      <c r="C37" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="94" t="n">
         <v>5</v>
       </c>
-      <c r="I37" s="94" t="s">
+      <c r="I37" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="95"/>
-      <c r="K37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="97"/>
       <c r="L37" s="71"/>
       <c r="M37" s="71"/>
       <c r="N37" s="71"/>
       <c r="O37" s="71"/>
     </row>
     <row r="38" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="105" t="e">
+      <c r="B38" s="106" t="e">
         <f aca="false">B37+TIME(0,H37,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C38" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
+      <c r="C38" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
       <c r="H38" s="38" t="n">
         <f aca="false">SUM(H39:H42)</f>
         <v>10</v>
@@ -7705,25 +7815,25 @@
       <c r="O38" s="71"/>
     </row>
     <row r="39" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
+      <c r="B39" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
       <c r="H39" s="43" t="n">
         <v>1</v>
       </c>
       <c r="I39" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="123" t="e">
+      <c r="J39" s="124" t="e">
         <f aca="false">B38+TIME(0,H39,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K39" s="117" t="str">
+      <c r="K39" s="118" t="str">
         <f aca="false">K13</f>
         <v>{host_name}</v>
       </c>
@@ -7733,26 +7843,26 @@
       <c r="O39" s="71"/>
     </row>
     <row r="40" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="85" t="n">
+      <c r="B40" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="86" t="n">
         <v>3</v>
       </c>
-      <c r="I40" s="86" t="s">
+      <c r="I40" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="124" t="e">
+      <c r="J40" s="125" t="e">
         <f aca="false">J39+TIME(0,H40,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K40" s="104" t="s">
-        <v>98</v>
+      <c r="K40" s="105" t="s">
+        <v>103</v>
       </c>
       <c r="L40" s="71"/>
       <c r="M40" s="71"/>
@@ -7760,26 +7870,26 @@
       <c r="O40" s="71"/>
     </row>
     <row r="41" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="110" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="85" t="n">
+      <c r="B41" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="86" t="n">
         <v>3</v>
       </c>
-      <c r="I41" s="86" t="s">
+      <c r="I41" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="J41" s="124" t="e">
+      <c r="J41" s="125" t="e">
         <f aca="false">J40+TIME(0,H41,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K41" s="104" t="s">
-        <v>119</v>
+      <c r="K41" s="105" t="s">
+        <v>124</v>
       </c>
       <c r="L41" s="71"/>
       <c r="M41" s="71"/>
@@ -7787,26 +7897,26 @@
       <c r="O41" s="71"/>
     </row>
     <row r="42" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="102"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="85" t="n">
+      <c r="B42" s="103" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="86" t="n">
         <v>3</v>
       </c>
-      <c r="I42" s="86" t="s">
+      <c r="I42" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="124" t="e">
+      <c r="J42" s="125" t="e">
         <f aca="false">J41+TIME(0,H42,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K42" s="104" t="s">
-        <v>121</v>
+      <c r="K42" s="105" t="s">
+        <v>126</v>
       </c>
       <c r="L42" s="72" t="s">
         <v>61</v>
@@ -7819,26 +7929,26 @@
       </c>
     </row>
     <row r="43" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="91" t="e">
+      <c r="B43" s="92" t="e">
         <f aca="false">B38+TIME(0,H38,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C43" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="93" t="n">
+      <c r="C43" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="94" t="n">
         <f aca="false">SUM(H44:H48)</f>
         <v>15</v>
       </c>
-      <c r="I43" s="94" t="s">
+      <c r="I43" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
       <c r="L43" s="73" t="s">
         <v>62</v>
       </c>
@@ -7850,25 +7960,25 @@
       <c r="P43" s="25"/>
     </row>
     <row r="44" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="131"/>
-      <c r="H44" s="85" t="n">
+      <c r="B44" s="130" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="131"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="132"/>
+      <c r="H44" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="I44" s="86" t="s">
+      <c r="I44" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J44" s="32" t="e">
         <f aca="false">B43+TIME(0,H44,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K44" s="100" t="str">
+      <c r="K44" s="101" t="str">
         <f aca="false">K17</f>
         <v>{host_name}</v>
       </c>
@@ -7884,24 +7994,24 @@
     </row>
     <row r="45" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="64" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C45" s="64"/>
       <c r="D45" s="64"/>
       <c r="E45" s="64"/>
       <c r="F45" s="64"/>
       <c r="G45" s="64"/>
-      <c r="H45" s="85" t="n">
+      <c r="H45" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="I45" s="86" t="s">
+      <c r="I45" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J45" s="32" t="e">
         <f aca="false">J44+TIME(0,H45,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K45" s="100" t="str">
+      <c r="K45" s="101" t="str">
         <f aca="false">K18</f>
         <v>丘愉庄</v>
       </c>
@@ -7916,24 +8026,24 @@
     </row>
     <row r="46" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="64" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C46" s="64"/>
       <c r="D46" s="64"/>
       <c r="E46" s="64"/>
       <c r="F46" s="64"/>
       <c r="G46" s="64"/>
-      <c r="H46" s="85" t="n">
+      <c r="H46" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="I46" s="86" t="s">
+      <c r="I46" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J46" s="32" t="e">
         <f aca="false">J45+TIME(0,H46,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K46" s="101" t="str">
+      <c r="K46" s="102" t="str">
         <f aca="false">K19</f>
         <v>xxx</v>
       </c>
@@ -7948,24 +8058,24 @@
     </row>
     <row r="47" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="64" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C47" s="64"/>
       <c r="D47" s="64"/>
       <c r="E47" s="64"/>
       <c r="F47" s="64"/>
       <c r="G47" s="64"/>
-      <c r="H47" s="85" t="n">
+      <c r="H47" s="86" t="n">
         <v>3</v>
       </c>
-      <c r="I47" s="86" t="s">
+      <c r="I47" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J47" s="32" t="e">
         <f aca="false">J46+TIME(0,H47,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K47" s="101" t="str">
+      <c r="K47" s="102" t="str">
         <f aca="false">K20</f>
         <v>xxx</v>
       </c>
@@ -7980,25 +8090,25 @@
     </row>
     <row r="48" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="64" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C48" s="64"/>
       <c r="D48" s="64"/>
       <c r="E48" s="64"/>
       <c r="F48" s="64"/>
       <c r="G48" s="64"/>
-      <c r="H48" s="85" t="n">
+      <c r="H48" s="86" t="n">
         <v>7</v>
       </c>
-      <c r="I48" s="86" t="s">
+      <c r="I48" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J48" s="32" t="e">
         <f aca="false">J47+TIME(0,H48,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K48" s="104" t="s">
-        <v>98</v>
+      <c r="K48" s="105" t="s">
+        <v>103</v>
       </c>
       <c r="L48" s="76" t="s">
         <v>72</v>
@@ -8032,26 +8142,26 @@
       <c r="O49" s="81"/>
     </row>
     <row r="50" s="11" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="132" t="e">
+      <c r="B50" s="133" t="e">
         <f aca="false">B43+TIME(0,H43,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C50" s="133" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="134" t="n">
+      <c r="C50" s="134" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="135" t="n">
         <f aca="false">SUM(H51:H53)</f>
         <v>8</v>
       </c>
-      <c r="I50" s="135" t="s">
+      <c r="I50" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="136"/>
-      <c r="K50" s="122"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="123"/>
       <c r="L50" s="73" t="s">
         <v>75</v>
       </c>
@@ -8062,26 +8172,26 @@
       <c r="O50" s="75"/>
     </row>
     <row r="51" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="137" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="138"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="140" t="n">
+      <c r="B51" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139"/>
+      <c r="E51" s="139"/>
+      <c r="F51" s="139"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="141" t="n">
         <v>4</v>
       </c>
-      <c r="I51" s="141" t="s">
+      <c r="I51" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="142" t="e">
+      <c r="J51" s="143" t="e">
         <f aca="false">B50+TIME(0,H51,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K51" s="104" t="s">
-        <v>87</v>
+      <c r="K51" s="105" t="s">
+        <v>92</v>
       </c>
       <c r="L51" s="76" t="s">
         <v>77</v>
@@ -8093,21 +8203,21 @@
       <c r="O51" s="78"/>
     </row>
     <row r="52" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="143" t="s">
-        <v>130</v>
-      </c>
-      <c r="H52" s="85" t="n">
+      <c r="B52" s="144" t="s">
+        <v>135</v>
+      </c>
+      <c r="H52" s="86" t="n">
         <v>3</v>
       </c>
-      <c r="I52" s="86" t="s">
+      <c r="I52" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J52" s="32" t="e">
         <f aca="false">J51+TIME(0,H52,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K52" s="104" t="s">
-        <v>87</v>
+      <c r="K52" s="105" t="s">
+        <v>92</v>
       </c>
       <c r="L52" s="76" t="s">
         <v>79</v>
@@ -8119,26 +8229,26 @@
       <c r="O52" s="78"/>
     </row>
     <row r="53" s="11" customFormat="true" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="129" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" s="130"/>
-      <c r="D53" s="130"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="85" t="n">
+      <c r="B53" s="130" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="132"/>
+      <c r="H53" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="I53" s="86" t="s">
+      <c r="I53" s="87" t="s">
         <v>22</v>
       </c>
       <c r="J53" s="32" t="e">
         <f aca="false">J52+TIME(0,H53,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K53" s="104" t="s">
-        <v>132</v>
+      <c r="K53" s="105" t="s">
+        <v>137</v>
       </c>
       <c r="L53" s="76" t="s">
         <v>81</v>
@@ -8148,24 +8258,24 @@
         <v>82</v>
       </c>
       <c r="O53" s="78"/>
-      <c r="P53" s="144"/>
+      <c r="P53" s="145"/>
     </row>
     <row r="54" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="132" t="e">
+      <c r="B54" s="133" t="e">
         <f aca="false">B50+TIME(0,H50,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C54" s="133" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="133"/>
-      <c r="E54" s="133"/>
-      <c r="F54" s="133"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="145"/>
-      <c r="J54" s="146"/>
-      <c r="K54" s="147"/>
+      <c r="C54" s="134" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="146"/>
+      <c r="J54" s="147"/>
+      <c r="K54" s="148"/>
       <c r="L54" s="82" t="s">
         <v>83</v>
       </c>
@@ -8174,7 +8284,7 @@
         <v>84</v>
       </c>
       <c r="O54" s="83"/>
-      <c r="P54" s="144"/>
+      <c r="P54" s="145"/>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/tm_303_calendar.xlsx
+++ b/tm_303_calendar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" state="visible" r:id="rId2"/>
@@ -2514,7 +2514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2523,252 +2523,28 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+      <left style="hair"/>
       <right/>
-      <top style="medium"/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="hair"/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
       <right style="hair"/>
       <top/>
       <bottom/>
@@ -2776,44 +2552,37 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
-      <right style="medium"/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+      <left style="hair"/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
+      <right style="hair"/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -2842,7 +2611,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2931,87 +2700,83 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3019,420 +2784,112 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3522,7 +2979,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -3537,8 +2994,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15894000"/>
-          <a:ext cx="183960" cy="267480"/>
+          <a:off x="4789440" y="15945840"/>
+          <a:ext cx="183960" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3562,7 +3019,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -3577,8 +3034,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15894000"/>
-          <a:ext cx="183960" cy="267480"/>
+          <a:off x="4789440" y="15945840"/>
+          <a:ext cx="183960" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3600,13 +3057,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>59040</xdr:colOff>
+      <xdr:colOff>59400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>271800</xdr:colOff>
+      <xdr:colOff>272160</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
@@ -3621,8 +3078,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="196560" y="195480"/>
-          <a:ext cx="1648440" cy="1323000"/>
+          <a:off x="196920" y="195840"/>
+          <a:ext cx="1648440" cy="1327320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3639,7 +3096,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -3654,8 +3111,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5117760"/>
-          <a:ext cx="183960" cy="411840"/>
+          <a:off x="4789440" y="5169600"/>
+          <a:ext cx="183960" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3679,7 +3136,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -3694,8 +3151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5117760"/>
-          <a:ext cx="183960" cy="411840"/>
+          <a:off x="4789440" y="5169600"/>
+          <a:ext cx="183960" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3716,43 +3173,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>233280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>264240</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1032" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5297040" y="11001960"/>
-          <a:ext cx="167040" cy="174600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9360">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>21</xdr:row>
@@ -3762,16 +3182,16 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>289080</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>293400</xdr:rowOff>
+      <xdr:rowOff>293760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6376320"/>
+          <a:off x="4789440" y="6427800"/>
           <a:ext cx="183960" cy="409320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3802,16 +3222,16 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>289080</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>293400</xdr:rowOff>
+      <xdr:rowOff>293760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6376320"/>
+          <a:off x="4789440" y="6427800"/>
           <a:ext cx="183960" cy="409320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3836,7 +3256,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -3846,13 +3266,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15894720"/>
-          <a:ext cx="183960" cy="267480"/>
+          <a:off x="4789440" y="15946560"/>
+          <a:ext cx="183960" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3876,7 +3296,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -3886,13 +3306,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15894720"/>
-          <a:ext cx="183960" cy="267480"/>
+          <a:off x="4789440" y="15946560"/>
+          <a:ext cx="183960" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3916,7 +3336,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -3926,13 +3346,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15894720"/>
-          <a:ext cx="183960" cy="267480"/>
+          <a:off x="4789440" y="15946560"/>
+          <a:ext cx="183960" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3956,7 +3376,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -3966,13 +3386,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15894720"/>
-          <a:ext cx="183960" cy="267480"/>
+          <a:off x="4789440" y="15946560"/>
+          <a:ext cx="183960" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4002,17 +3422,17 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>289080</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>293760</xdr:rowOff>
+      <xdr:rowOff>294120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5728680"/>
-          <a:ext cx="183960" cy="409320"/>
+          <a:off x="4789440" y="5780160"/>
+          <a:ext cx="183960" cy="409680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4042,7 +3462,47 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>289080</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>293760</xdr:rowOff>
+      <xdr:rowOff>294120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4789440" y="5780160"/>
+          <a:ext cx="183960" cy="409680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>105120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>188640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289080</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>294840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4051,8 +3511,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5728680"/>
-          <a:ext cx="183960" cy="409320"/>
+          <a:off x="4789440" y="5474880"/>
+          <a:ext cx="183960" cy="411120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4091,47 +3551,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5423400"/>
-          <a:ext cx="183960" cy="411120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9360">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>294840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4789440" y="5423400"/>
+          <a:off x="4789440" y="5474880"/>
           <a:ext cx="183960" cy="411120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4156,7 +3576,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>254520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -4166,17 +3586,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 4" descr=""/>
+        <xdr:cNvPr id="15" name="Picture 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12273120" y="348480"/>
-          <a:ext cx="1057320" cy="1193400"/>
+          <a:off x="12273120" y="348840"/>
+          <a:ext cx="1057320" cy="1197720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4193,7 +3613,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -4203,13 +3623,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6032160"/>
-          <a:ext cx="183960" cy="412200"/>
+          <a:off x="4789440" y="6084000"/>
+          <a:ext cx="183960" cy="411840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4233,7 +3653,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -4243,13 +3663,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6032160"/>
-          <a:ext cx="183960" cy="412200"/>
+          <a:off x="4789440" y="6084000"/>
+          <a:ext cx="183960" cy="411840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4279,17 +3699,17 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>289080</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>293760</xdr:rowOff>
+      <xdr:rowOff>294120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5728680"/>
-          <a:ext cx="183960" cy="409320"/>
+          <a:off x="4789440" y="5780160"/>
+          <a:ext cx="183960" cy="409680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4319,17 +3739,17 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>289080</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>293760</xdr:rowOff>
+      <xdr:rowOff>294120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1"/>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5728680"/>
-          <a:ext cx="183960" cy="409320"/>
+          <a:off x="4789440" y="5780160"/>
+          <a:ext cx="183960" cy="409680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4351,29 +3771,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>78480</xdr:colOff>
+      <xdr:colOff>78840</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>193320</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 23" descr=""/>
+        <xdr:cNvPr id="20" name="图片 23" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10987560" y="331560"/>
-          <a:ext cx="1224360" cy="1244160"/>
+          <a:off x="10987920" y="331920"/>
+          <a:ext cx="1224000" cy="1249920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4395,8 +3815,8 @@
   </sheetPr>
   <dimension ref="B2:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J41" activeCellId="0" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4419,7 +3839,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="12.55"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -4455,7 +3875,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" s="11" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
@@ -4473,7 +3893,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" s="11" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="15" t="s">
@@ -4494,7 +3914,7 @@
       <c r="M5" s="13"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" s="11" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="11" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
@@ -4527,1375 +3947,1380 @@
       <c r="O7" s="10"/>
     </row>
     <row r="8" s="11" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="20"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" s="23" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="24" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="27"/>
+    </row>
+    <row r="9" s="28" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
     </row>
     <row r="10" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="L10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
     </row>
     <row r="11" s="11" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="29"/>
-      <c r="C11" s="34" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
     </row>
     <row r="12" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="40"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="41"/>
-      <c r="L12" s="42" t="s">
+      <c r="L12" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-    </row>
-    <row r="13" s="43" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="44" t="s">
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" s="42" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="49" t="s">
+      <c r="L13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="50" t="s">
+      <c r="M13" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="51" t="s">
+      <c r="N13" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="52" t="s">
+      <c r="O13" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" s="43" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="53" t="s">
+    <row r="14" s="42" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54" t="n">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="31" t="e">
+      <c r="J14" s="34" t="e">
         <f aca="false">J13+TIME(0,H14,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="56" t="s">
+      <c r="L14" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="57" t="s">
+      <c r="M14" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="57" t="s">
+      <c r="N14" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="58" t="s">
+      <c r="O14" s="50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" s="43" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="59" t="s">
+    <row r="15" s="42" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60" t="n">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="I15" s="61" t="s">
+      <c r="I15" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="35" t="e">
+      <c r="J15" s="34" t="e">
         <f aca="false">J14+TIME(0,H15,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="62" t="s">
+      <c r="K15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="63" t="s">
+      <c r="L15" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="64" t="s">
+      <c r="M15" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="64" t="s">
+      <c r="N15" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="65" t="s">
+      <c r="O15" s="50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" s="43" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="66" t="e">
+    <row r="16" s="42" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="38" t="e">
         <f aca="false">B12+TIME(0,H12,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68" t="n">
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="39" t="n">
         <f aca="false">SUM(H17:H21)</f>
         <v>9</v>
       </c>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="70"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="72" t="s">
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74" t="n">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="31" t="e">
+      <c r="J17" s="34" t="e">
         <f aca="false">B16+TIME(0,H17,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="75" t="str">
+      <c r="K17" s="43" t="str">
         <f aca="false">K13</f>
         <v>{host_name}</v>
       </c>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="76" t="n">
+      <c r="N17" s="43" t="n">
         <v>13826106387</v>
       </c>
-      <c r="O17" s="76"/>
+      <c r="O17" s="43"/>
     </row>
     <row r="18" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54" t="n">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="31" t="e">
+      <c r="J18" s="34" t="e">
         <f aca="false">J17+TIME(0,H18,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K18" s="77" t="s">
+      <c r="K18" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="53" t="s">
+      <c r="L18" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="M18" s="30" t="s">
+      <c r="M18" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="76" t="n">
+      <c r="N18" s="43" t="n">
         <v>13794874425</v>
       </c>
-      <c r="O18" s="76"/>
+      <c r="O18" s="43"/>
     </row>
     <row r="19" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54" t="n">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="31" t="e">
+      <c r="J19" s="34" t="e">
         <f aca="false">J18+TIME(0,H19,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K19" s="78" t="s">
+      <c r="K19" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="53" t="s">
+      <c r="L19" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="M19" s="30" t="s">
+      <c r="M19" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="76" t="n">
+      <c r="N19" s="43" t="n">
         <v>13533880814</v>
       </c>
-      <c r="O19" s="76"/>
+      <c r="O19" s="43"/>
     </row>
     <row r="20" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="54" t="n">
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="I20" s="55" t="s">
+      <c r="I20" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="31" t="e">
+      <c r="J20" s="34" t="e">
         <f aca="false">J19+TIME(0,H20,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K20" s="78" t="s">
+      <c r="K20" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="L20" s="53" t="s">
+      <c r="L20" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="30" t="s">
+      <c r="M20" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="76" t="n">
+      <c r="N20" s="43" t="n">
         <v>15920428594</v>
       </c>
-      <c r="O20" s="76"/>
+      <c r="O20" s="43"/>
     </row>
     <row r="21" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="54" t="n">
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="31" t="e">
+      <c r="J21" s="34" t="e">
         <f aca="false">J20+TIME(0,H21,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="53" t="s">
+      <c r="L21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="M21" s="30" t="s">
+      <c r="M21" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="76" t="n">
+      <c r="N21" s="43" t="n">
         <v>18028652848</v>
       </c>
-      <c r="O21" s="76"/>
+      <c r="O21" s="43"/>
     </row>
     <row r="22" s="11" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="54" t="n">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="43" t="n">
         <v>6</v>
       </c>
-      <c r="I22" s="55" t="s">
+      <c r="I22" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="31" t="e">
+      <c r="J22" s="34" t="e">
         <f aca="false">J21+TIME(0,H22,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K22" s="77" t="s">
+      <c r="K22" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="53" t="s">
+      <c r="L22" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="30" t="s">
+      <c r="M22" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="76" t="n">
+      <c r="N22" s="43" t="n">
         <v>13022004144</v>
       </c>
-      <c r="O22" s="76"/>
+      <c r="O22" s="43"/>
     </row>
     <row r="23" s="11" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="82" t="e">
+      <c r="B23" s="38" t="e">
         <f aca="false">B16+TIME(0,H16,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84" t="n">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="39" t="n">
         <f aca="false">SUM(H24:H28)</f>
         <v>29</v>
       </c>
-      <c r="I23" s="85" t="s">
+      <c r="I23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="53" t="s">
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="30" t="s">
+      <c r="M23" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="76" t="n">
+      <c r="N23" s="43" t="n">
         <v>18127871902</v>
       </c>
-      <c r="O23" s="76"/>
+      <c r="O23" s="43"/>
     </row>
     <row r="24" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="54" t="n">
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="55" t="s">
+      <c r="I24" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="31" t="e">
+      <c r="J24" s="34" t="e">
         <f aca="false">B23+TIME(0,H24,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K24" s="88" t="s">
+      <c r="K24" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="L24" s="89" t="s">
+      <c r="L24" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="M24" s="90" t="s">
+      <c r="M24" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="N24" s="91" t="n">
+      <c r="N24" s="43" t="n">
         <v>18688883546</v>
       </c>
-      <c r="O24" s="91"/>
+      <c r="O24" s="43"/>
     </row>
     <row r="25" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="93" t="n">
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="I25" s="94" t="s">
+      <c r="I25" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="95" t="e">
+      <c r="J25" s="34" t="e">
         <f aca="false">J24+TIME(0,H25,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K25" s="62" t="s">
+      <c r="K25" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="96" t="s">
+      <c r="L25" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
     </row>
     <row r="26" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="45" t="n">
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="43" t="n">
         <v>18</v>
       </c>
-      <c r="I26" s="46" t="s">
+      <c r="I26" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="47" t="e">
+      <c r="J26" s="34" t="e">
         <f aca="false">J25+TIME(0,H26,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K26" s="98" t="s">
+      <c r="K26" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="L26" s="99" t="s">
+      <c r="L26" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
     </row>
     <row r="27" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="100" t="n">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="57" t="n">
         <v>7</v>
       </c>
-      <c r="I27" s="55" t="s">
+      <c r="I27" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="31" t="e">
+      <c r="J27" s="34" t="e">
         <f aca="false">J26+TIME(0,H27,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K27" s="81" t="s">
+      <c r="K27" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
     </row>
     <row r="28" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="102" t="n">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="61" t="s">
+      <c r="I28" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="35" t="e">
+      <c r="J28" s="34" t="e">
         <f aca="false">J27+TIME(0,H28,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K28" s="103" t="str">
+      <c r="K28" s="58" t="str">
         <f aca="false">K13</f>
         <v>{host_name}</v>
       </c>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
     </row>
     <row r="29" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="66" t="e">
+      <c r="B29" s="38" t="e">
         <f aca="false">B23+TIME(0,H23,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="68" t="n">
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="39" t="n">
         <f aca="false">SUM(H30:H36)</f>
         <v>25</v>
       </c>
-      <c r="I29" s="69" t="s">
+      <c r="I29" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
     </row>
     <row r="30" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="45" t="n">
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="105" t="e">
+      <c r="J30" s="59" t="e">
         <f aca="false">B29+TIME(0,H30,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K30" s="98" t="str">
+      <c r="K30" s="51" t="str">
         <f aca="false">K13</f>
         <v>{host_name}</v>
       </c>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
     </row>
     <row r="31" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="54" t="n">
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="43" t="n">
         <v>7</v>
       </c>
-      <c r="I31" s="55" t="s">
+      <c r="I31" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="106" t="e">
+      <c r="J31" s="59" t="e">
         <f aca="false">J30+TIME(0,H31,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="81" t="s">
+      <c r="K31" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
     </row>
     <row r="32" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="54" t="n">
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="I32" s="55" t="s">
+      <c r="I32" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="106" t="e">
+      <c r="J32" s="59" t="e">
         <f aca="false">J31+TIME(0,H32,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K32" s="81" t="str">
+      <c r="K32" s="51" t="str">
         <f aca="false">K30</f>
         <v>{host_name}</v>
       </c>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
     </row>
     <row r="33" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="54" t="n">
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="43" t="n">
         <v>7</v>
       </c>
-      <c r="I33" s="55" t="s">
+      <c r="I33" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="106" t="e">
+      <c r="J33" s="59" t="e">
         <f aca="false">J32+TIME(0,H33,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K33" s="81" t="s">
+      <c r="K33" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="L33" s="107" t="s">
+      <c r="L33" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
     </row>
     <row r="34" s="11" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="54" t="n">
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="I34" s="55" t="s">
+      <c r="I34" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="106" t="e">
+      <c r="J34" s="59" t="e">
         <f aca="false">J33+TIME(0,H34,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K34" s="81" t="str">
+      <c r="K34" s="51" t="str">
         <f aca="false">K13</f>
         <v>{host_name}</v>
       </c>
-      <c r="L34" s="108" t="s">
+      <c r="L34" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="M34" s="108"/>
-      <c r="N34" s="108"/>
-      <c r="O34" s="108"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
     </row>
     <row r="35" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="100" t="n">
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="57" t="n">
         <v>7</v>
       </c>
-      <c r="I35" s="109" t="s">
+      <c r="I35" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="110" t="e">
+      <c r="J35" s="62" t="e">
         <f aca="false">J34+TIME(0,H35,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K35" s="111" t="s">
+      <c r="K35" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="108"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
     </row>
     <row r="36" s="11" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="101" t="s">
+      <c r="B36" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="60" t="n">
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="I36" s="61" t="s">
+      <c r="I36" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="112" t="e">
+      <c r="J36" s="59" t="e">
         <f aca="false">J35+TIME(0,H36,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K36" s="62" t="str">
+      <c r="K36" s="51" t="str">
         <f aca="false">K30</f>
         <v>{host_name}</v>
       </c>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="108"/>
-      <c r="O36" s="108"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
     </row>
     <row r="37" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="66" t="e">
+      <c r="B37" s="38" t="e">
         <f aca="false">B29+TIME(0,H29,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="68" t="n">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="I37" s="69" t="s">
+      <c r="I37" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="70"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
-      <c r="N37" s="108"/>
-      <c r="O37" s="108"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
     </row>
     <row r="38" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="82" t="e">
+      <c r="B38" s="38" t="e">
         <f aca="false">B37+TIME(0,H37,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="38" t="n">
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="39" t="n">
         <f aca="false">SUM(H39:H42)</f>
         <v>10</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="I38" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
     </row>
     <row r="39" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="97" t="s">
+      <c r="B39" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="45" t="n">
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="I39" s="46" t="s">
+      <c r="I39" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="105" t="e">
+      <c r="J39" s="59" t="e">
         <f aca="false">B38+TIME(0,H39,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K39" s="98" t="str">
+      <c r="K39" s="51" t="str">
         <f aca="false">K13</f>
         <v>{host_name}</v>
       </c>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
-      <c r="N39" s="108"/>
-      <c r="O39" s="108"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
     </row>
     <row r="40" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="54" t="n">
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="I40" s="55" t="s">
+      <c r="I40" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="106" t="e">
+      <c r="J40" s="59" t="e">
         <f aca="false">J39+TIME(0,H40,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K40" s="81" t="s">
+      <c r="K40" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="108"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
     </row>
     <row r="41" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="54" t="n">
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="I41" s="55" t="s">
+      <c r="I41" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="106" t="e">
+      <c r="J41" s="59" t="e">
         <f aca="false">J40+TIME(0,H41,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K41" s="81" t="s">
+      <c r="K41" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="108"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
     </row>
     <row r="42" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="54" t="n">
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="I42" s="55" t="s">
+      <c r="I42" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="106" t="e">
+      <c r="J42" s="59" t="e">
         <f aca="false">J41+TIME(0,H42,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K42" s="81" t="s">
+      <c r="K42" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="113" t="s">
+      <c r="L42" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="114" t="s">
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="63" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="43" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="66" t="e">
+      <c r="B43" s="38" t="e">
         <f aca="false">B38+TIME(0,H38,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="68" t="n">
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="39" t="n">
         <f aca="false">SUM(H44:H48)</f>
         <v>15</v>
       </c>
-      <c r="I43" s="69" t="s">
+      <c r="I43" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="115" t="s">
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="M43" s="116"/>
-      <c r="N43" s="116" t="s">
+      <c r="M43" s="64"/>
+      <c r="N43" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="O43" s="117"/>
-      <c r="P43" s="114"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="63"/>
     </row>
     <row r="44" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="118" t="s">
+      <c r="B44" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="54" t="n">
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="I44" s="55" t="s">
+      <c r="I44" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J44" s="31" t="e">
+      <c r="J44" s="34" t="e">
         <f aca="false">B43+TIME(0,H44,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K44" s="77" t="str">
+      <c r="K44" s="51" t="str">
         <f aca="false">K17</f>
         <v>{host_name}</v>
       </c>
-      <c r="L44" s="121" t="s">
+      <c r="L44" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="M44" s="122"/>
-      <c r="N44" s="122" t="s">
+      <c r="M44" s="64"/>
+      <c r="N44" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="O44" s="123"/>
-      <c r="P44" s="114"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="63"/>
     </row>
     <row r="45" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="54" t="n">
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="I45" s="55" t="s">
+      <c r="I45" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="31" t="e">
+      <c r="J45" s="34" t="e">
         <f aca="false">J44+TIME(0,H45,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K45" s="77" t="str">
+      <c r="K45" s="51" t="str">
         <f aca="false">K18</f>
         <v>丘愉庄</v>
       </c>
-      <c r="L45" s="121" t="s">
+      <c r="L45" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="M45" s="122"/>
-      <c r="N45" s="122" t="s">
+      <c r="M45" s="64"/>
+      <c r="N45" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="O45" s="123"/>
+      <c r="O45" s="64"/>
     </row>
     <row r="46" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="54" t="n">
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="I46" s="55" t="s">
+      <c r="I46" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J46" s="31" t="e">
+      <c r="J46" s="34" t="e">
         <f aca="false">J45+TIME(0,H46,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K46" s="78" t="str">
+      <c r="K46" s="52" t="str">
         <f aca="false">K19</f>
         <v>xxx</v>
       </c>
-      <c r="L46" s="121" t="s">
+      <c r="L46" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="M46" s="122"/>
-      <c r="N46" s="122" t="s">
+      <c r="M46" s="64"/>
+      <c r="N46" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="O46" s="123"/>
+      <c r="O46" s="64"/>
     </row>
     <row r="47" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="54" t="n">
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="I47" s="55" t="s">
+      <c r="I47" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="31" t="e">
+      <c r="J47" s="34" t="e">
         <f aca="false">J46+TIME(0,H47,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K47" s="78" t="str">
+      <c r="K47" s="52" t="str">
         <f aca="false">K20</f>
         <v>xxx</v>
       </c>
-      <c r="L47" s="121" t="s">
+      <c r="L47" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="M47" s="122"/>
-      <c r="N47" s="122" t="s">
+      <c r="M47" s="64"/>
+      <c r="N47" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="O47" s="123"/>
+      <c r="O47" s="64"/>
     </row>
     <row r="48" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="54" t="n">
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="43" t="n">
         <v>7</v>
       </c>
-      <c r="I48" s="55" t="s">
+      <c r="I48" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="31" t="e">
+      <c r="J48" s="34" t="e">
         <f aca="false">J47+TIME(0,H48,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K48" s="81" t="s">
+      <c r="K48" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="121" t="s">
+      <c r="L48" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="M48" s="122"/>
-      <c r="N48" s="124"/>
-      <c r="O48" s="124"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
     </row>
     <row r="49" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="125" t="s">
+      <c r="B49" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="125" t="s">
+      <c r="C49" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="127"/>
-      <c r="L49" s="128" t="s">
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="M49" s="128"/>
-      <c r="N49" s="129" t="s">
+      <c r="M49" s="31"/>
+      <c r="N49" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="O49" s="129"/>
+      <c r="O49" s="31"/>
     </row>
     <row r="50" s="11" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="130" t="e">
+      <c r="B50" s="38" t="e">
         <f aca="false">B43+TIME(0,H43,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C50" s="131" t="s">
+      <c r="C50" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="131"/>
-      <c r="E50" s="131"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="132" t="n">
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="39" t="n">
         <f aca="false">SUM(H51:H53)</f>
         <v>8</v>
       </c>
-      <c r="I50" s="133" t="s">
+      <c r="I50" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J50" s="134"/>
-      <c r="K50" s="104"/>
-      <c r="L50" s="115" t="s">
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="M50" s="115"/>
-      <c r="N50" s="117" t="s">
+      <c r="M50" s="64"/>
+      <c r="N50" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="O50" s="117"/>
+      <c r="O50" s="64"/>
     </row>
     <row r="51" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="135" t="s">
+      <c r="B51" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="138" t="n">
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="I51" s="139" t="s">
+      <c r="I51" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="J51" s="140" t="e">
+      <c r="J51" s="67" t="e">
         <f aca="false">B50+TIME(0,H51,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K51" s="81" t="s">
+      <c r="K51" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="L51" s="121" t="s">
+      <c r="L51" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="M51" s="121"/>
-      <c r="N51" s="123" t="s">
+      <c r="M51" s="64"/>
+      <c r="N51" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="O51" s="123"/>
+      <c r="O51" s="64"/>
     </row>
     <row r="52" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="141" t="s">
+      <c r="B52" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="H52" s="54" t="n">
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="I52" s="55" t="s">
+      <c r="I52" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J52" s="31" t="e">
+      <c r="J52" s="34" t="e">
         <f aca="false">J51+TIME(0,H52,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K52" s="81" t="s">
+      <c r="K52" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="L52" s="121" t="s">
+      <c r="L52" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="M52" s="121"/>
-      <c r="N52" s="123" t="s">
+      <c r="M52" s="64"/>
+      <c r="N52" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="O52" s="123"/>
+      <c r="O52" s="64"/>
     </row>
     <row r="53" s="11" customFormat="true" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="118" t="s">
+      <c r="B53" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="54" t="n">
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="I53" s="55" t="s">
+      <c r="I53" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="31" t="e">
+      <c r="J53" s="34" t="e">
         <f aca="false">J52+TIME(0,H53,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K53" s="81" t="s">
+      <c r="K53" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="L53" s="121" t="s">
+      <c r="L53" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="M53" s="121"/>
-      <c r="N53" s="123" t="s">
+      <c r="M53" s="64"/>
+      <c r="N53" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="O53" s="123"/>
-      <c r="P53" s="142"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="69"/>
     </row>
     <row r="54" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="130" t="e">
+      <c r="B54" s="38" t="e">
         <f aca="false">B50+TIME(0,H50,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C54" s="131" t="s">
+      <c r="C54" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
-      <c r="F54" s="131"/>
-      <c r="G54" s="131"/>
-      <c r="H54" s="131"/>
-      <c r="I54" s="143"/>
-      <c r="J54" s="144"/>
-      <c r="K54" s="145"/>
-      <c r="L54" s="146" t="s">
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="M54" s="146"/>
-      <c r="N54" s="147" t="s">
+      <c r="M54" s="64"/>
+      <c r="N54" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="O54" s="147"/>
-      <c r="P54" s="142"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="69"/>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5910,7 +5335,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="81">
     <mergeCell ref="B2:C5"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
@@ -5970,11 +5395,13 @@
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="L42:O42"/>
     <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B44:G44"/>
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="B46:G46"/>
     <mergeCell ref="B47:G47"/>
     <mergeCell ref="B48:G48"/>
     <mergeCell ref="N48:O48"/>
+    <mergeCell ref="C49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="C50:G50"/>
@@ -5987,7 +5414,7 @@
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
     <mergeCell ref="P53:P55"/>
-    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
   </mergeCells>
@@ -6009,7 +5436,7 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6019,112 +5446,112 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="71" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="71" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="71" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="71" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="71" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="71" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="149" t="s">
+      <c r="C8" s="71" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="149" t="s">
+      <c r="C9" s="71" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="149" t="s">
+      <c r="C10" s="71" t="s">
         <v>164</v>
       </c>
     </row>

--- a/tm_303_calendar.xlsx
+++ b/tm_303_calendar.xlsx
@@ -955,44 +955,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">L3P3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：本项目的目的在于练习留意自己的想法和感受以及自己的反应对他人的影响。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">L1P1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：本项目的目的在于让会员向俱乐部会员做自我介绍，并了解公众演说的基本结构
-</t>
-    </r>
+    <t xml:space="preserve">{project_info}</t>
   </si>
   <si>
     <t xml:space="preserve">即兴点评报告</t>
@@ -2418,15 +2381,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2611,7 +2574,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2836,7 +2799,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2844,16 +2807,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2983,9 +2942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2995,7 +2954,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15945840"/>
-          <a:ext cx="183960" cy="267120"/>
+          <a:ext cx="183240" cy="266400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3023,9 +2982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3035,84 +2994,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15945840"/>
-          <a:ext cx="183960" cy="267120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9360">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>59400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>272160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 754" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="196920" y="195840"/>
-          <a:ext cx="1648440" cy="1327320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9360">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>294840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4789440" y="5169600"/>
-          <a:ext cx="183960" cy="411480"/>
+          <a:ext cx="183240" cy="266400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3140,19 +3022,59 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>294840</xdr:rowOff>
+      <xdr:rowOff>294120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5169600"/>
-          <a:ext cx="183960" cy="411480"/>
+          <a:ext cx="183240" cy="410760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>105120</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>288360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>294120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4789440" y="5169600"/>
+          <a:ext cx="183240" cy="410760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3180,19 +3102,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>293760</xdr:rowOff>
+      <xdr:rowOff>293040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="6427800"/>
-          <a:ext cx="183960" cy="409320"/>
+          <a:ext cx="183240" cy="408600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3220,19 +3142,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>293760</xdr:rowOff>
+      <xdr:rowOff>293040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="6427800"/>
-          <a:ext cx="183960" cy="409320"/>
+          <a:ext cx="183240" cy="408600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3260,19 +3182,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15946560"/>
-          <a:ext cx="183960" cy="267120"/>
+          <a:ext cx="183240" cy="266400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3300,19 +3222,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15946560"/>
-          <a:ext cx="183960" cy="267120"/>
+          <a:ext cx="183240" cy="266400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3340,19 +3262,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15946560"/>
-          <a:ext cx="183960" cy="267120"/>
+          <a:ext cx="183240" cy="266400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3380,19 +3302,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="15946560"/>
-          <a:ext cx="183960" cy="267120"/>
+          <a:ext cx="183240" cy="266400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3420,19 +3342,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>294120</xdr:rowOff>
+      <xdr:rowOff>293400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5780160"/>
-          <a:ext cx="183960" cy="409680"/>
+          <a:ext cx="183240" cy="408960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3460,19 +3382,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>294120</xdr:rowOff>
+      <xdr:rowOff>293400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5780160"/>
-          <a:ext cx="183960" cy="409680"/>
+          <a:ext cx="183240" cy="408960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3500,19 +3422,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>294840</xdr:rowOff>
+      <xdr:rowOff>294120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5474880"/>
-          <a:ext cx="183960" cy="411120"/>
+          <a:ext cx="183240" cy="410400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3540,19 +3462,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>294840</xdr:rowOff>
+      <xdr:rowOff>294120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5474880"/>
-          <a:ext cx="183960" cy="411120"/>
+          <a:ext cx="183240" cy="410400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3580,23 +3502,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1311840</xdr:colOff>
+      <xdr:colOff>1311120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 4" descr=""/>
+        <xdr:cNvPr id="14" name="Picture 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12273120" y="348840"/>
-          <a:ext cx="1057320" cy="1197720"/>
+          <a:ext cx="1056600" cy="1197000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3617,19 +3539,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>295200</xdr:rowOff>
+      <xdr:rowOff>294480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="6084000"/>
-          <a:ext cx="183960" cy="411840"/>
+          <a:ext cx="183240" cy="411120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3657,19 +3579,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>295200</xdr:rowOff>
+      <xdr:rowOff>294480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="6084000"/>
-          <a:ext cx="183960" cy="411840"/>
+          <a:ext cx="183240" cy="411120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3697,19 +3619,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>294120</xdr:rowOff>
+      <xdr:rowOff>293400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5780160"/>
-          <a:ext cx="183960" cy="409680"/>
+          <a:ext cx="183240" cy="408960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3737,19 +3659,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288360</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>294120</xdr:rowOff>
+      <xdr:rowOff>293400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4789440" y="5780160"/>
-          <a:ext cx="183960" cy="409680"/>
+          <a:ext cx="183240" cy="408960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3777,13 +3699,50 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>193320</xdr:colOff>
+      <xdr:colOff>192600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 23" descr=""/>
+        <xdr:cNvPr id="19" name="图片 23" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10987920" y="331920"/>
+          <a:ext cx="1223280" cy="1249200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>245160</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图像 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3792,8 +3751,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10987920" y="331920"/>
-          <a:ext cx="1224000" cy="1249920"/>
+          <a:off x="137520" y="161640"/>
+          <a:ext cx="1362960" cy="1229760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3815,8 +3774,8 @@
   </sheetPr>
   <dimension ref="B2:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J41" activeCellId="0" sqref="J41"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4732,12 +4691,12 @@
         <f aca="false">K13</f>
         <v>{host_name}</v>
       </c>
-      <c r="L34" s="60" t="s">
+      <c r="L34" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
     </row>
     <row r="35" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="53" t="s">
@@ -4751,20 +4710,20 @@
       <c r="H35" s="57" t="n">
         <v>7</v>
       </c>
-      <c r="I35" s="61" t="s">
+      <c r="I35" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="62" t="e">
+      <c r="J35" s="61" t="e">
         <f aca="false">J34+TIME(0,H35,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="K35" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
     </row>
     <row r="36" s="11" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="54" t="s">
@@ -4789,10 +4748,10 @@
         <f aca="false">K30</f>
         <v>{host_name}</v>
       </c>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
     </row>
     <row r="37" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="38" t="e">
@@ -4814,10 +4773,10 @@
       </c>
       <c r="J37" s="41"/>
       <c r="K37" s="41"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
     </row>
     <row r="38" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="38" t="e">
@@ -4840,10 +4799,10 @@
       </c>
       <c r="J38" s="41"/>
       <c r="K38" s="41"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
     </row>
     <row r="39" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="54" t="s">
@@ -4868,10 +4827,10 @@
         <f aca="false">K13</f>
         <v>{host_name}</v>
       </c>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
     </row>
     <row r="40" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="53" t="s">
@@ -4895,10 +4854,10 @@
       <c r="K40" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
     </row>
     <row r="41" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="54" t="s">
@@ -4922,10 +4881,10 @@
       <c r="K41" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
     </row>
     <row r="42" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="53" t="s">
@@ -4955,7 +4914,7 @@
       <c r="M42" s="55"/>
       <c r="N42" s="55"/>
       <c r="O42" s="55"/>
-      <c r="P42" s="63" t="s">
+      <c r="P42" s="62" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4980,15 +4939,15 @@
       </c>
       <c r="J43" s="39"/>
       <c r="K43" s="39"/>
-      <c r="L43" s="64" t="s">
+      <c r="L43" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64" t="s">
+      <c r="M43" s="63"/>
+      <c r="N43" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="O43" s="64"/>
-      <c r="P43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="62"/>
     </row>
     <row r="44" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="33" t="s">
@@ -5013,15 +4972,15 @@
         <f aca="false">K17</f>
         <v>{host_name}</v>
       </c>
-      <c r="L44" s="64" t="s">
+      <c r="L44" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64" t="s">
+      <c r="M44" s="63"/>
+      <c r="N44" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="O44" s="64"/>
-      <c r="P44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="62"/>
     </row>
     <row r="45" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="33" t="s">
@@ -5046,14 +5005,14 @@
         <f aca="false">K18</f>
         <v>丘愉庄</v>
       </c>
-      <c r="L45" s="64" t="s">
+      <c r="L45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64" t="s">
+      <c r="M45" s="63"/>
+      <c r="N45" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="O45" s="64"/>
+      <c r="O45" s="63"/>
     </row>
     <row r="46" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="33" t="s">
@@ -5078,14 +5037,14 @@
         <f aca="false">K19</f>
         <v>xxx</v>
       </c>
-      <c r="L46" s="64" t="s">
+      <c r="L46" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64" t="s">
+      <c r="M46" s="63"/>
+      <c r="N46" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="O46" s="64"/>
+      <c r="O46" s="63"/>
     </row>
     <row r="47" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="33" t="s">
@@ -5110,14 +5069,14 @@
         <f aca="false">K20</f>
         <v>xxx</v>
       </c>
-      <c r="L47" s="64" t="s">
+      <c r="L47" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64" t="s">
+      <c r="M47" s="63"/>
+      <c r="N47" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="O47" s="64"/>
+      <c r="O47" s="63"/>
     </row>
     <row r="48" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="33" t="s">
@@ -5141,28 +5100,28 @@
       <c r="K48" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="64" t="s">
+      <c r="L48" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="M48" s="64"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
     </row>
     <row r="49" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
       <c r="L49" s="31" t="s">
         <v>117</v>
       </c>
@@ -5193,14 +5152,14 @@
       </c>
       <c r="J50" s="41"/>
       <c r="K50" s="41"/>
-      <c r="L50" s="64" t="s">
+      <c r="L50" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="M50" s="64"/>
-      <c r="N50" s="64" t="s">
+      <c r="M50" s="63"/>
+      <c r="N50" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="O50" s="64"/>
+      <c r="O50" s="63"/>
     </row>
     <row r="51" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="54" t="s">
@@ -5214,34 +5173,34 @@
       <c r="H51" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="I51" s="61" t="s">
+      <c r="I51" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J51" s="67" t="e">
+      <c r="J51" s="66" t="e">
         <f aca="false">B50+TIME(0,H51,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="K51" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="L51" s="64" t="s">
+      <c r="L51" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64" t="s">
+      <c r="M51" s="63"/>
+      <c r="N51" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="O51" s="64"/>
+      <c r="O51" s="63"/>
     </row>
     <row r="52" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
       <c r="H52" s="43" t="n">
         <v>3</v>
       </c>
@@ -5255,14 +5214,14 @@
       <c r="K52" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="L52" s="64" t="s">
+      <c r="L52" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="M52" s="64"/>
-      <c r="N52" s="64" t="s">
+      <c r="M52" s="63"/>
+      <c r="N52" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="O52" s="64"/>
+      <c r="O52" s="63"/>
     </row>
     <row r="53" s="11" customFormat="true" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="33" t="s">
@@ -5286,15 +5245,15 @@
       <c r="K53" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="L53" s="64" t="s">
+      <c r="L53" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="M53" s="64"/>
-      <c r="N53" s="64" t="s">
+      <c r="M53" s="63"/>
+      <c r="N53" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="O53" s="64"/>
-      <c r="P53" s="69"/>
+      <c r="O53" s="63"/>
+      <c r="P53" s="68"/>
     </row>
     <row r="54" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="38" t="e">
@@ -5312,15 +5271,15 @@
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
-      <c r="L54" s="64" t="s">
+      <c r="L54" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64" t="s">
+      <c r="M54" s="63"/>
+      <c r="N54" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="O54" s="64"/>
-      <c r="P54" s="69"/>
+      <c r="O54" s="63"/>
+      <c r="P54" s="68"/>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5446,112 +5405,112 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="70" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="70" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="70" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="70" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="70" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="70" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="70" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="70" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="70" t="s">
         <v>164</v>
       </c>
     </row>

--- a/tm_303_calendar.xlsx
+++ b/tm_303_calendar.xlsx
@@ -12,13 +12,14 @@
     <sheet name="template_position" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">template!$B$2:$O$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">template!$A$1:$N$53</definedName>
     <definedName function="false" hidden="false" name="copy" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="dfdsf" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="qwertyu" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="对he_chun_qing《李广难封》的备稿演讲点评" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="copy" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="dfdsf" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">template!$A$1:$N$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="对he_chun_qing《李广难封》的备稿演讲点评" vbProcedure="false">表1:[1]会议议程!#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -2133,82 +2134,82 @@
     <t xml:space="preserve">title_block</t>
   </si>
   <si>
-    <t xml:space="preserve">B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O8</t>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N7</t>
   </si>
   <si>
     <t xml:space="preserve">theme_block</t>
   </si>
   <si>
-    <t xml:space="preserve">B9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K11</t>
+    <t xml:space="preserve">A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J10</t>
   </si>
   <si>
     <t xml:space="preserve">parent_block</t>
   </si>
   <si>
-    <t xml:space="preserve">B12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K12</t>
+    <t xml:space="preserve">A11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J11</t>
   </si>
   <si>
     <t xml:space="preserve">child_block</t>
   </si>
   <si>
-    <t xml:space="preserve">B13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K13</t>
+    <t xml:space="preserve">A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J12</t>
   </si>
   <si>
     <t xml:space="preserve">notice_block</t>
   </si>
   <si>
-    <t xml:space="preserve">B49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K49</t>
+    <t xml:space="preserve">A48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J48</t>
   </si>
   <si>
     <t xml:space="preserve">rule_block</t>
   </si>
   <si>
-    <t xml:space="preserve">L9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O15</t>
+    <t xml:space="preserve">K8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N14</t>
   </si>
   <si>
     <t xml:space="preserve">information_block</t>
   </si>
   <si>
-    <t xml:space="preserve">L33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O54</t>
+    <t xml:space="preserve">K32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N53</t>
   </si>
   <si>
     <t xml:space="preserve">contact_block</t>
   </si>
   <si>
-    <t xml:space="preserve">L16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O24</t>
+    <t xml:space="preserve">K15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N23</t>
   </si>
   <si>
     <t xml:space="preserve">project_block</t>
   </si>
   <si>
-    <t xml:space="preserve">L25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O32</t>
+    <t xml:space="preserve">K24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N31</t>
   </si>
 </sst>
 </file>
@@ -2283,12 +2284,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -2302,6 +2297,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
@@ -2579,18 +2580,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2623,31 +2624,31 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2659,7 +2660,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2671,7 +2672,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2687,27 +2688,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2723,7 +2724,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2739,7 +2740,35 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2747,39 +2776,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2787,11 +2788,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2823,7 +2824,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2843,7 +2844,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2935,16 +2936,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>187920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2953,8 +2954,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15945840"/>
-          <a:ext cx="183240" cy="266400"/>
+          <a:off x="4294080" y="15774480"/>
+          <a:ext cx="182160" cy="265320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2975,16 +2976,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>187920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2993,8 +2994,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15945840"/>
-          <a:ext cx="183240" cy="266400"/>
+          <a:off x="4294080" y="15774480"/>
+          <a:ext cx="182160" cy="265320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3015,16 +3016,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>188280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>294120</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>293040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3033,8 +3034,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5169600"/>
-          <a:ext cx="183240" cy="410760"/>
+          <a:off x="4294080" y="4998240"/>
+          <a:ext cx="182160" cy="409680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3055,16 +3056,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>188280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>294120</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>293040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3073,8 +3074,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5169600"/>
-          <a:ext cx="183240" cy="410760"/>
+          <a:off x="4294080" y="4998240"/>
+          <a:ext cx="182160" cy="409680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3095,16 +3096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>227160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>293040</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>292680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3113,8 +3114,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6427800"/>
-          <a:ext cx="183240" cy="408600"/>
+          <a:off x="4294080" y="6256440"/>
+          <a:ext cx="182160" cy="408240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3135,16 +3136,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>227160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>293040</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>292680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3153,8 +3154,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6427800"/>
-          <a:ext cx="183240" cy="408600"/>
+          <a:off x="4294080" y="6256440"/>
+          <a:ext cx="182160" cy="408240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3175,16 +3176,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>188640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3193,8 +3194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15946560"/>
-          <a:ext cx="183240" cy="266400"/>
+          <a:off x="4294080" y="15775200"/>
+          <a:ext cx="182160" cy="265320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3215,16 +3216,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>188640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3233,8 +3234,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15946560"/>
-          <a:ext cx="183240" cy="266400"/>
+          <a:off x="4294080" y="15775200"/>
+          <a:ext cx="182160" cy="265320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3255,16 +3256,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>188640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3273,8 +3274,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15946560"/>
-          <a:ext cx="183240" cy="266400"/>
+          <a:off x="4294080" y="15775200"/>
+          <a:ext cx="182160" cy="265320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3295,16 +3296,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>188640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3313,8 +3314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="15946560"/>
-          <a:ext cx="183240" cy="266400"/>
+          <a:off x="4294080" y="15775200"/>
+          <a:ext cx="182160" cy="265320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3335,16 +3336,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>293400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>292320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3353,8 +3354,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5780160"/>
-          <a:ext cx="183240" cy="408960"/>
+          <a:off x="4294080" y="5609160"/>
+          <a:ext cx="182160" cy="407520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3375,16 +3376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>293400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>292320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3393,8 +3394,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5780160"/>
-          <a:ext cx="183240" cy="408960"/>
+          <a:off x="4294080" y="5609160"/>
+          <a:ext cx="182160" cy="407520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3415,16 +3416,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>188640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>294120</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>293760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3433,8 +3434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5474880"/>
-          <a:ext cx="183240" cy="410400"/>
+          <a:off x="4294080" y="5303520"/>
+          <a:ext cx="182160" cy="409680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3455,16 +3456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>188640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>294120</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>293760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3473,8 +3474,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5474880"/>
-          <a:ext cx="183240" cy="410400"/>
+          <a:off x="4294080" y="5303520"/>
+          <a:ext cx="182160" cy="409680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3495,16 +3496,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>254520</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>781560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1311120</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1126440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3517,8 +3518,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12273120" y="348840"/>
-          <a:ext cx="1056600" cy="1197000"/>
+          <a:off x="10161000" y="139320"/>
+          <a:ext cx="1227600" cy="1189440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3532,16 +3533,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>188280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>294480</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>293400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3550,8 +3551,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6084000"/>
-          <a:ext cx="183240" cy="411120"/>
+          <a:off x="4294080" y="5912640"/>
+          <a:ext cx="182160" cy="410040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3572,16 +3573,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>188280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>294480</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>293400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3590,8 +3591,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="6084000"/>
-          <a:ext cx="183240" cy="411120"/>
+          <a:off x="4294080" y="5912640"/>
+          <a:ext cx="182160" cy="410040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3612,16 +3613,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>293400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>292320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3630,8 +3631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5780160"/>
-          <a:ext cx="183240" cy="408960"/>
+          <a:off x="4294080" y="5609160"/>
+          <a:ext cx="182160" cy="407520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3652,16 +3653,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>293400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>292320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3670,8 +3671,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789440" y="5780160"/>
-          <a:ext cx="183240" cy="408960"/>
+          <a:off x="4294080" y="5609160"/>
+          <a:ext cx="182160" cy="407520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3692,16 +3693,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>78840</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>325800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>192600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3714,8 +3715,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10987920" y="331920"/>
-          <a:ext cx="1223280" cy="1249200"/>
+          <a:off x="8146800" y="122400"/>
+          <a:ext cx="1872720" cy="1240560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3729,16 +3730,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>245160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:colOff>63720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3752,7 +3753,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="137520" y="161640"/>
-          <a:ext cx="1362960" cy="1229760"/>
+          <a:ext cx="1361880" cy="1228680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3772,1610 +3773,1676 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:P1048576"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="4.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="7.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="2.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="24.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="2.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="11.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="15" style="3" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" s="14" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="3"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="13"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" s="14" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="14"/>
-    </row>
-    <row r="5" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="13" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" s="11" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="18" t="s">
+      <c r="L4" s="12"/>
+      <c r="N4" s="10"/>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" s="14" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="N5" s="10"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="14" customFormat="true" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="O6" s="10"/>
-    </row>
-    <row r="7" s="11" customFormat="true" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="20"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="M7" s="21" t="s">
+      <c r="J6" s="2"/>
+      <c r="L6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" s="11" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="27"/>
-    </row>
-    <row r="9" s="28" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="29" t="s">
+      <c r="N6" s="10"/>
+      <c r="AMJ6" s="0"/>
+    </row>
+    <row r="7" s="14" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="27"/>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" s="31" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="J8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="K8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-    </row>
-    <row r="10" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="32" t="s">
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="AMJ8" s="0"/>
+    </row>
+    <row r="9" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="B9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="J9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="K9" s="36" t="s">
         <v>18</v>
       </c>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="AMJ9" s="0"/>
+    </row>
+    <row r="10" s="14" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="32"/>
+      <c r="B10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-    </row>
-    <row r="11" s="11" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="32"/>
-      <c r="C11" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-    </row>
-    <row r="12" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="38" t="s">
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row r="11" s="14" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="39" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="H11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="31" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-    </row>
-    <row r="13" s="42" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="33" t="s">
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="AMJ11" s="0"/>
+    </row>
+    <row r="12" s="49" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="33" t="s">
         <v>22</v>
       </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row r="13" s="49" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="G13" s="42" t="n">
+        <v>2</v>
+      </c>
       <c r="H13" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" s="42" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="44" t="s">
+      <c r="I13" s="34" t="e">
+        <f aca="false">I12+TIME(0,G13,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row r="14" s="49" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="34" t="e">
-        <f aca="false">J13+TIME(0,H14,0)</f>
+      <c r="I14" s="34" t="e">
+        <f aca="false">I13+TIME(0,G14,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K14" s="45" t="s">
-        <v>33</v>
+      <c r="J14" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>40</v>
       </c>
       <c r="L14" s="50" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M14" s="50" t="s">
         <v>35</v>
       </c>
       <c r="N14" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" s="50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" s="42" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="43" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="AMJ14" s="0"/>
+    </row>
+    <row r="15" s="49" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="38" t="e">
+        <f aca="false">A11+TIME(0,G11,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="39" t="n">
+        <f aca="false">SUM(G16:G20)</f>
+        <v>9</v>
+      </c>
+      <c r="H15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="34" t="e">
-        <f aca="false">J14+TIME(0,H15,0)</f>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="AMJ15" s="0"/>
+    </row>
+    <row r="16" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="34" t="e">
+        <f aca="false">A15+TIME(0,G16,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" s="50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" s="42" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="38" t="e">
-        <f aca="false">B12+TIME(0,H12,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="39" t="n">
-        <f aca="false">SUM(H17:H21)</f>
-        <v>9</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="33" t="s">
-        <v>45</v>
-      </c>
+      <c r="J16" s="42" t="str">
+        <f aca="false">J12</f>
+        <v>{host_name}</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="42" t="n">
+        <v>13826106387</v>
+      </c>
+      <c r="N16" s="42"/>
+      <c r="AMJ16" s="0"/>
+    </row>
+    <row r="17" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="43" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" s="44" t="s">
+      <c r="G17" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="34" t="e">
-        <f aca="false">B16+TIME(0,H17,0)</f>
+      <c r="I17" s="34" t="e">
+        <f aca="false">I16+TIME(0,G17,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="43" t="str">
-        <f aca="false">K13</f>
-        <v>{host_name}</v>
+      <c r="J17" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="43" t="n">
-        <v>13826106387</v>
-      </c>
-      <c r="O17" s="43"/>
-    </row>
-    <row r="18" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="33" t="s">
-        <v>48</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="M17" s="42" t="n">
+        <v>13794874425</v>
+      </c>
+      <c r="N17" s="42"/>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row r="18" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="43" t="n">
+      <c r="G18" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="H18" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="34" t="e">
-        <f aca="false">J17+TIME(0,H18,0)</f>
+      <c r="I18" s="34" t="e">
+        <f aca="false">I17+TIME(0,G18,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K18" s="51" t="s">
-        <v>49</v>
+      <c r="J18" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="43" t="n">
-        <v>13794874425</v>
-      </c>
-      <c r="O18" s="43"/>
-    </row>
-    <row r="19" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="42" t="n">
+        <v>13533880814</v>
+      </c>
+      <c r="N18" s="42"/>
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row r="19" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="34" t="e">
-        <f aca="false">J18+TIME(0,H19,0)</f>
+      <c r="I19" s="34" t="e">
+        <f aca="false">I18+TIME(0,G19,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K19" s="52" t="s">
+      <c r="J19" s="52" t="s">
         <v>53</v>
       </c>
+      <c r="K19" s="33" t="s">
+        <v>57</v>
+      </c>
       <c r="L19" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="N19" s="43" t="n">
-        <v>13533880814</v>
-      </c>
-      <c r="O19" s="43"/>
-    </row>
-    <row r="20" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="43" t="n">
+        <v>58</v>
+      </c>
+      <c r="M19" s="42" t="n">
+        <v>15920428594</v>
+      </c>
+      <c r="N19" s="42"/>
+      <c r="AMJ19" s="0"/>
+    </row>
+    <row r="20" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="H20" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="34" t="e">
-        <f aca="false">J19+TIME(0,H20,0)</f>
+      <c r="I20" s="34" t="e">
+        <f aca="false">I19+TIME(0,G20,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K20" s="52" t="s">
-        <v>53</v>
+      <c r="J20" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="43" t="n">
-        <v>15920428594</v>
-      </c>
-      <c r="O20" s="43"/>
-    </row>
-    <row r="21" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="33" t="s">
-        <v>59</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="M20" s="42" t="n">
+        <v>18028652848</v>
+      </c>
+      <c r="N20" s="42"/>
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row r="21" s="14" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="33"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" s="44" t="s">
+      <c r="G21" s="42" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="34" t="e">
-        <f aca="false">J20+TIME(0,H21,0)</f>
+      <c r="I21" s="34" t="e">
+        <f aca="false">I20+TIME(0,G21,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K21" s="51" t="s">
-        <v>60</v>
+      <c r="J21" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>65</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="N21" s="43" t="n">
-        <v>18028652848</v>
-      </c>
-      <c r="O21" s="43"/>
-    </row>
-    <row r="22" s="11" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="43" t="n">
-        <v>6</v>
-      </c>
-      <c r="I22" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="42" t="n">
+        <v>13022004144</v>
+      </c>
+      <c r="N21" s="42"/>
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row r="22" s="14" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="38" t="e">
+        <f aca="false">A15+TIME(0,G15,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="39" t="n">
+        <f aca="false">SUM(G23:G27)</f>
+        <v>29</v>
+      </c>
+      <c r="H22" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="34" t="e">
-        <f aca="false">J21+TIME(0,H22,0)</f>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="42" t="n">
+        <v>18127871902</v>
+      </c>
+      <c r="N22" s="42"/>
+      <c r="AMJ22" s="0"/>
+    </row>
+    <row r="23" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="34" t="e">
+        <f aca="false">A22+TIME(0,G23,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K22" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="N22" s="43" t="n">
-        <v>13022004144</v>
-      </c>
-      <c r="O22" s="43"/>
-    </row>
-    <row r="23" s="11" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="38" t="e">
-        <f aca="false">B16+TIME(0,H16,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="39" t="n">
-        <f aca="false">SUM(H24:H28)</f>
-        <v>29</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
+      <c r="J23" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="L23" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="N23" s="43" t="n">
-        <v>18127871902</v>
-      </c>
-      <c r="O23" s="43"/>
-    </row>
-    <row r="24" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="54" t="s">
-        <v>70</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M23" s="42" t="n">
+        <v>18688883546</v>
+      </c>
+      <c r="N23" s="42"/>
+      <c r="AMJ23" s="0"/>
+    </row>
+    <row r="24" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="54"/>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="44" t="s">
+      <c r="G24" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="34" t="e">
-        <f aca="false">B23+TIME(0,H24,0)</f>
+      <c r="I24" s="34" t="e">
+        <f aca="false">I23+TIME(0,G24,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K24" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="M24" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="N24" s="43" t="n">
-        <v>18688883546</v>
-      </c>
-      <c r="O24" s="43"/>
-    </row>
-    <row r="25" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="54" t="s">
-        <v>73</v>
-      </c>
+      <c r="J24" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="AMJ24" s="0"/>
+    </row>
+    <row r="25" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="54"/>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" s="44" t="s">
+      <c r="G25" s="42" t="n">
+        <v>18</v>
+      </c>
+      <c r="H25" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="34" t="e">
-        <f aca="false">J24+TIME(0,H25,0)</f>
+      <c r="I25" s="34" t="e">
+        <f aca="false">I24+TIME(0,G25,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K25" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-    </row>
-    <row r="26" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="54" t="s">
-        <v>75</v>
-      </c>
+      <c r="J25" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="AMJ25" s="0"/>
+    </row>
+    <row r="26" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="54"/>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
       <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="43" t="n">
-        <v>18</v>
-      </c>
-      <c r="I26" s="44" t="s">
+      <c r="G26" s="57" t="n">
+        <v>7</v>
+      </c>
+      <c r="H26" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="34" t="e">
-        <f aca="false">J25+TIME(0,H26,0)</f>
+      <c r="I26" s="34" t="e">
+        <f aca="false">I25+TIME(0,G26,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K26" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="L26" s="56" t="s">
-        <v>77</v>
-      </c>
+      <c r="J26" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
       <c r="M26" s="56"/>
       <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-    </row>
-    <row r="27" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="54" t="s">
-        <v>78</v>
-      </c>
+      <c r="AMJ26" s="0"/>
+    </row>
+    <row r="27" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="54"/>
       <c r="C27" s="54"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
       <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="57" t="n">
-        <v>7</v>
-      </c>
-      <c r="I27" s="44" t="s">
+      <c r="G27" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="34" t="e">
-        <f aca="false">J26+TIME(0,H27,0)</f>
+      <c r="I27" s="34" t="e">
+        <f aca="false">I26+TIME(0,G27,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K27" s="51" t="s">
-        <v>79</v>
-      </c>
+      <c r="J27" s="58" t="str">
+        <f aca="false">J12</f>
+        <v>{host_name}</v>
+      </c>
+      <c r="K27" s="56"/>
       <c r="L27" s="56"/>
       <c r="M27" s="56"/>
       <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-    </row>
-    <row r="28" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="44" t="s">
+      <c r="AMJ27" s="0"/>
+    </row>
+    <row r="28" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="38" t="e">
+        <f aca="false">A22+TIME(0,G22,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="39" t="n">
+        <f aca="false">SUM(G29:G35)</f>
+        <v>25</v>
+      </c>
+      <c r="H28" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="34" t="e">
-        <f aca="false">J27+TIME(0,H28,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K28" s="58" t="str">
-        <f aca="false">K13</f>
-        <v>{host_name}</v>
-      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="56"/>
       <c r="L28" s="56"/>
       <c r="M28" s="56"/>
       <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-    </row>
-    <row r="29" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="38" t="e">
-        <f aca="false">B23+TIME(0,H23,0)</f>
+      <c r="AMJ28" s="0"/>
+    </row>
+    <row r="29" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="59" t="e">
+        <f aca="false">A28+TIME(0,G29,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="39" t="n">
-        <f aca="false">SUM(H30:H36)</f>
-        <v>25</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
+      <c r="J29" s="51" t="str">
+        <f aca="false">J12</f>
+        <v>{host_name}</v>
+      </c>
+      <c r="K29" s="56"/>
       <c r="L29" s="56"/>
       <c r="M29" s="56"/>
       <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-    </row>
-    <row r="30" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="44" t="s">
+      <c r="AMJ29" s="0"/>
+    </row>
+    <row r="30" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="42" t="n">
+        <v>7</v>
+      </c>
+      <c r="H30" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="59" t="e">
-        <f aca="false">B29+TIME(0,H30,0)</f>
+      <c r="I30" s="59" t="e">
+        <f aca="false">I29+TIME(0,G30,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K30" s="51" t="str">
-        <f aca="false">K13</f>
-        <v>{host_name}</v>
-      </c>
+      <c r="J30" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="56"/>
       <c r="L30" s="56"/>
       <c r="M30" s="56"/>
       <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-    </row>
-    <row r="31" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="43" t="n">
-        <v>7</v>
-      </c>
-      <c r="I31" s="44" t="s">
+      <c r="AMJ30" s="0"/>
+    </row>
+    <row r="31" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="59" t="e">
-        <f aca="false">J30+TIME(0,H31,0)</f>
+      <c r="I31" s="59" t="e">
+        <f aca="false">I30+TIME(0,G31,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="51" t="s">
-        <v>82</v>
-      </c>
+      <c r="J31" s="51" t="str">
+        <f aca="false">J29</f>
+        <v>{host_name}</v>
+      </c>
+      <c r="K31" s="56"/>
       <c r="L31" s="56"/>
       <c r="M31" s="56"/>
       <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-    </row>
-    <row r="32" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="54" t="s">
-        <v>45</v>
-      </c>
+      <c r="AMJ31" s="0"/>
+    </row>
+    <row r="32" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="54"/>
       <c r="C32" s="54"/>
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="44" t="s">
+      <c r="G32" s="42" t="n">
+        <v>7</v>
+      </c>
+      <c r="H32" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="59" t="e">
-        <f aca="false">J31+TIME(0,H32,0)</f>
+      <c r="I32" s="59" t="e">
+        <f aca="false">I31+TIME(0,G32,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K32" s="51" t="str">
-        <f aca="false">K30</f>
-        <v>{host_name}</v>
-      </c>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-    </row>
-    <row r="33" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="54" t="s">
-        <v>83</v>
-      </c>
+      <c r="J32" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="AMJ32" s="0"/>
+    </row>
+    <row r="33" s="14" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="54"/>
       <c r="C33" s="54"/>
       <c r="D33" s="54"/>
       <c r="E33" s="54"/>
       <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="43" t="n">
+      <c r="G33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="59" t="e">
+        <f aca="false">I32+TIME(0,G33,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J33" s="51" t="str">
+        <f aca="false">J12</f>
+        <v>{host_name}</v>
+      </c>
+      <c r="K33" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="AMJ33" s="0"/>
+    </row>
+    <row r="34" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="57" t="n">
         <v>7</v>
       </c>
-      <c r="I33" s="44" t="s">
+      <c r="H34" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="59" t="e">
-        <f aca="false">J32+TIME(0,H33,0)</f>
+      <c r="I34" s="61" t="e">
+        <f aca="false">I33+TIME(0,G34,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K33" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="L33" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-    </row>
-    <row r="34" s="11" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="59" t="e">
-        <f aca="false">J33+TIME(0,H34,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K34" s="51" t="str">
-        <f aca="false">K13</f>
-        <v>{host_name}</v>
-      </c>
-      <c r="L34" s="56" t="s">
-        <v>86</v>
-      </c>
+      <c r="J34" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
       <c r="M34" s="56"/>
       <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-    </row>
-    <row r="35" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="57" t="n">
-        <v>7</v>
-      </c>
-      <c r="I35" s="60" t="s">
+      <c r="AMJ34" s="0"/>
+    </row>
+    <row r="35" s="14" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="61" t="e">
-        <f aca="false">J34+TIME(0,H35,0)</f>
+      <c r="I35" s="59" t="e">
+        <f aca="false">I34+TIME(0,G35,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K35" s="57" t="s">
-        <v>88</v>
-      </c>
+      <c r="J35" s="51" t="str">
+        <f aca="false">J29</f>
+        <v>{host_name}</v>
+      </c>
+      <c r="K35" s="56"/>
       <c r="L35" s="56"/>
       <c r="M35" s="56"/>
       <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-    </row>
-    <row r="36" s="11" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="44" t="s">
+      <c r="AMJ35" s="0"/>
+    </row>
+    <row r="36" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="38" t="e">
+        <f aca="false">A28+TIME(0,G28,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="59" t="e">
-        <f aca="false">J35+TIME(0,H36,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K36" s="51" t="str">
-        <f aca="false">K30</f>
-        <v>{host_name}</v>
-      </c>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="56"/>
       <c r="L36" s="56"/>
       <c r="M36" s="56"/>
       <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-    </row>
-    <row r="37" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="38" t="e">
-        <f aca="false">B29+TIME(0,H29,0)</f>
+      <c r="AMJ36" s="0"/>
+    </row>
+    <row r="37" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="38" t="e">
+        <f aca="false">A36+TIME(0,G36,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C37" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="I37" s="40" t="s">
+      <c r="B37" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="39" t="n">
+        <f aca="false">SUM(G38:G41)</f>
+        <v>10</v>
+      </c>
+      <c r="H37" s="40" t="s">
         <v>24</v>
       </c>
+      <c r="I37" s="41"/>
       <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
+      <c r="K37" s="56"/>
       <c r="L37" s="56"/>
       <c r="M37" s="56"/>
       <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-    </row>
-    <row r="38" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="38" t="e">
-        <f aca="false">B37+TIME(0,H37,0)</f>
+      <c r="AMJ37" s="0"/>
+    </row>
+    <row r="38" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="59" t="e">
+        <f aca="false">A37+TIME(0,G38,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="39" t="n">
-        <f aca="false">SUM(H39:H42)</f>
-        <v>10</v>
-      </c>
-      <c r="I38" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
+      <c r="J38" s="51" t="str">
+        <f aca="false">J12</f>
+        <v>{host_name}</v>
+      </c>
+      <c r="K38" s="56"/>
       <c r="L38" s="56"/>
       <c r="M38" s="56"/>
       <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-    </row>
-    <row r="39" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="44" t="s">
+      <c r="AMJ38" s="0"/>
+    </row>
+    <row r="39" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="59" t="e">
-        <f aca="false">B38+TIME(0,H39,0)</f>
+      <c r="I39" s="59" t="e">
+        <f aca="false">I38+TIME(0,G39,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K39" s="51" t="str">
-        <f aca="false">K13</f>
-        <v>{host_name}</v>
-      </c>
+      <c r="J39" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" s="56"/>
       <c r="L39" s="56"/>
       <c r="M39" s="56"/>
       <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-    </row>
-    <row r="40" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="43" t="n">
+      <c r="AMJ39" s="0"/>
+    </row>
+    <row r="40" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="I40" s="44" t="s">
+      <c r="H40" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="59" t="e">
-        <f aca="false">J39+TIME(0,H40,0)</f>
+      <c r="I40" s="59" t="e">
+        <f aca="false">I39+TIME(0,G40,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K40" s="51" t="s">
-        <v>60</v>
-      </c>
+      <c r="J40" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="K40" s="56"/>
       <c r="L40" s="56"/>
       <c r="M40" s="56"/>
       <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-    </row>
-    <row r="41" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="43" t="n">
+      <c r="AMJ40" s="0"/>
+    </row>
+    <row r="41" s="14" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="I41" s="44" t="s">
+      <c r="H41" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="59" t="e">
-        <f aca="false">J40+TIME(0,H41,0)</f>
+      <c r="I41" s="59" t="e">
+        <f aca="false">I40+TIME(0,G41,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K41" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-    </row>
-    <row r="42" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="43" t="n">
-        <v>3</v>
-      </c>
-      <c r="I42" s="44" t="s">
+      <c r="J41" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="K41" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="AMJ41" s="0"/>
+    </row>
+    <row r="42" s="14" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="38" t="e">
+        <f aca="false">A37+TIME(0,G37,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="39" t="n">
+        <f aca="false">SUM(G43:G47)</f>
+        <v>15</v>
+      </c>
+      <c r="H42" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="59" t="e">
-        <f aca="false">J41+TIME(0,H42,0)</f>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="N42" s="63"/>
+      <c r="O42" s="62"/>
+      <c r="AMJ42" s="0"/>
+    </row>
+    <row r="43" s="14" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="34" t="e">
+        <f aca="false">A42+TIME(0,G43,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K42" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="L42" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="38" t="e">
-        <f aca="false">B38+TIME(0,H38,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="39" t="n">
-        <f aca="false">SUM(H44:H48)</f>
-        <v>15</v>
-      </c>
-      <c r="I43" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="O43" s="63"/>
-      <c r="P43" s="62"/>
-    </row>
-    <row r="44" s="11" customFormat="true" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="33" t="s">
-        <v>101</v>
-      </c>
+      <c r="J43" s="51" t="str">
+        <f aca="false">J16</f>
+        <v>{host_name}</v>
+      </c>
+      <c r="K43" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="N43" s="63"/>
+      <c r="O43" s="62"/>
+      <c r="AMJ43" s="0"/>
+    </row>
+    <row r="44" s="14" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="44" t="s">
+      <c r="G44" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J44" s="34" t="e">
-        <f aca="false">B43+TIME(0,H44,0)</f>
+      <c r="I44" s="34" t="e">
+        <f aca="false">I43+TIME(0,G44,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K44" s="51" t="str">
-        <f aca="false">K17</f>
-        <v>{host_name}</v>
-      </c>
-      <c r="L44" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="O44" s="63"/>
-      <c r="P44" s="62"/>
-    </row>
-    <row r="45" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="33" t="s">
-        <v>104</v>
-      </c>
+      <c r="J44" s="51" t="str">
+        <f aca="false">J17</f>
+        <v>丘愉庄</v>
+      </c>
+      <c r="K44" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="N44" s="63"/>
+      <c r="AMJ44" s="0"/>
+    </row>
+    <row r="45" s="14" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="43" t="n">
+      <c r="G45" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="I45" s="44" t="s">
+      <c r="H45" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="34" t="e">
-        <f aca="false">J44+TIME(0,H45,0)</f>
+      <c r="I45" s="34" t="e">
+        <f aca="false">I44+TIME(0,G45,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K45" s="51" t="str">
-        <f aca="false">K18</f>
-        <v>丘愉庄</v>
-      </c>
-      <c r="L45" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="M45" s="63"/>
-      <c r="N45" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="O45" s="63"/>
-    </row>
-    <row r="46" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="33" t="s">
-        <v>107</v>
-      </c>
+      <c r="J45" s="52" t="str">
+        <f aca="false">J18</f>
+        <v>xxx</v>
+      </c>
+      <c r="K45" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="N45" s="63"/>
+      <c r="AMJ45" s="0"/>
+    </row>
+    <row r="46" s="14" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" s="44" t="s">
+      <c r="G46" s="42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J46" s="34" t="e">
-        <f aca="false">J45+TIME(0,H46,0)</f>
+      <c r="I46" s="34" t="e">
+        <f aca="false">I45+TIME(0,G46,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K46" s="52" t="str">
-        <f aca="false">K19</f>
+      <c r="J46" s="52" t="str">
+        <f aca="false">J19</f>
         <v>xxx</v>
       </c>
-      <c r="L46" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="O46" s="63"/>
-    </row>
-    <row r="47" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="33" t="s">
-        <v>110</v>
-      </c>
+      <c r="K46" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="N46" s="63"/>
+      <c r="AMJ46" s="0"/>
+    </row>
+    <row r="47" s="14" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="33"/>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="43" t="n">
+      <c r="G47" s="42" t="n">
+        <v>7</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="34" t="e">
+        <f aca="false">I46+TIME(0,G47,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J47" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="L47" s="63"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="AMJ47" s="0"/>
+    </row>
+    <row r="48" s="14" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="N48" s="30"/>
+      <c r="AMJ48" s="0"/>
+    </row>
+    <row r="49" s="14" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="38" t="e">
+        <f aca="false">A42+TIME(0,G42,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="39" t="n">
+        <f aca="false">SUM(G50:G52)</f>
+        <v>8</v>
+      </c>
+      <c r="H49" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="N49" s="63"/>
+      <c r="AMJ49" s="0"/>
+    </row>
+    <row r="50" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="66" t="e">
+        <f aca="false">A49+TIME(0,G50,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J50" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="N50" s="63"/>
+      <c r="AMJ50" s="0"/>
+    </row>
+    <row r="51" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="I47" s="44" t="s">
+      <c r="H51" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="34" t="e">
-        <f aca="false">J46+TIME(0,H47,0)</f>
+      <c r="I51" s="34" t="e">
+        <f aca="false">I50+TIME(0,G51,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K47" s="52" t="str">
-        <f aca="false">K20</f>
-        <v>xxx</v>
-      </c>
-      <c r="L47" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="M47" s="63"/>
-      <c r="N47" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="O47" s="63"/>
-    </row>
-    <row r="48" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="43" t="n">
-        <v>7</v>
-      </c>
-      <c r="I48" s="44" t="s">
+      <c r="J51" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="N51" s="63"/>
+      <c r="AMJ51" s="0"/>
+    </row>
+    <row r="52" s="14" customFormat="true" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="34" t="e">
-        <f aca="false">J47+TIME(0,H48,0)</f>
+      <c r="I52" s="34" t="e">
+        <f aca="false">I51+TIME(0,G52,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K48" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="L48" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="M48" s="63"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="64"/>
-    </row>
-    <row r="49" s="11" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="O49" s="31"/>
-    </row>
-    <row r="50" s="11" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="38" t="e">
-        <f aca="false">B43+TIME(0,H43,0)</f>
+      <c r="J52" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="K52" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="L52" s="63"/>
+      <c r="M52" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="N52" s="63"/>
+      <c r="O52" s="68"/>
+      <c r="AMJ52" s="0"/>
+    </row>
+    <row r="53" s="14" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="38" t="e">
+        <f aca="false">A49+TIME(0,G49,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C50" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="39" t="n">
-        <f aca="false">SUM(H51:H53)</f>
-        <v>8</v>
-      </c>
-      <c r="I50" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="O50" s="63"/>
-    </row>
-    <row r="51" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="57" t="n">
-        <v>4</v>
-      </c>
-      <c r="I51" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="66" t="e">
-        <f aca="false">B50+TIME(0,H51,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K51" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="L51" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="M51" s="63"/>
-      <c r="N51" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="O51" s="63"/>
-    </row>
-    <row r="52" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="43" t="n">
-        <v>3</v>
-      </c>
-      <c r="I52" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" s="34" t="e">
-        <f aca="false">J51+TIME(0,H52,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K52" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="L52" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="M52" s="63"/>
-      <c r="N52" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="O52" s="63"/>
-    </row>
-    <row r="53" s="11" customFormat="true" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="J53" s="34" t="e">
-        <f aca="false">J52+TIME(0,H53,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K53" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="L53" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="M53" s="63"/>
-      <c r="N53" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="O53" s="63"/>
-      <c r="P53" s="68"/>
-    </row>
-    <row r="54" s="11" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="38" t="e">
-        <f aca="false">B50+TIME(0,H50,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C54" s="29" t="s">
+      <c r="B53" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="63" t="s">
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="M54" s="63"/>
-      <c r="N54" s="63" t="s">
+      <c r="L53" s="63"/>
+      <c r="M53" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="O54" s="63"/>
-      <c r="P54" s="68"/>
-    </row>
+      <c r="N53" s="63"/>
+      <c r="O53" s="68"/>
+      <c r="AMJ53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="B2:C5"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="L10:O11"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="L26:O32"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="L34:O41"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:P55"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
+  <mergeCells count="95">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="K9:N10"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="K25:N31"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="K33:N40"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:O54"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0" right="0.0694444444444444" top="0.6" bottom="0.659722222222222" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5396,7 +5463,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/tm_303_calendar.xlsx
+++ b/tm_303_calendar.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="167">
   <si>
     <r>
       <rPr>
@@ -2210,6 +2210,12 @@
   </si>
   <si>
     <t xml:space="preserve">N31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1,M1</t>
   </si>
 </sst>
 </file>
@@ -2943,9 +2949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2955,7 +2961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="15774480"/>
-          <a:ext cx="182160" cy="265320"/>
+          <a:ext cx="181440" cy="264600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2983,9 +2989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2995,7 +3001,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="15774480"/>
-          <a:ext cx="182160" cy="265320"/>
+          <a:ext cx="181440" cy="264600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3023,9 +3029,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>293040</xdr:rowOff>
+      <xdr:rowOff>292320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3035,7 +3041,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="4998240"/>
-          <a:ext cx="182160" cy="409680"/>
+          <a:ext cx="181440" cy="408960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3063,9 +3069,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>293040</xdr:rowOff>
+      <xdr:rowOff>292320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3075,7 +3081,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="4998240"/>
-          <a:ext cx="182160" cy="409680"/>
+          <a:ext cx="181440" cy="408960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3103,9 +3109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>292680</xdr:rowOff>
+      <xdr:rowOff>291960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3115,7 +3121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="6256440"/>
-          <a:ext cx="182160" cy="408240"/>
+          <a:ext cx="181440" cy="407520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3143,9 +3149,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>292680</xdr:rowOff>
+      <xdr:rowOff>291960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3155,7 +3161,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="6256440"/>
-          <a:ext cx="182160" cy="408240"/>
+          <a:ext cx="181440" cy="407520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3183,9 +3189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3195,7 +3201,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="15775200"/>
-          <a:ext cx="182160" cy="265320"/>
+          <a:ext cx="181440" cy="264600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3223,9 +3229,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3235,7 +3241,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="15775200"/>
-          <a:ext cx="182160" cy="265320"/>
+          <a:ext cx="181440" cy="264600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3263,9 +3269,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3275,7 +3281,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="15775200"/>
-          <a:ext cx="182160" cy="265320"/>
+          <a:ext cx="181440" cy="264600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3303,9 +3309,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3315,7 +3321,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="15775200"/>
-          <a:ext cx="182160" cy="265320"/>
+          <a:ext cx="181440" cy="264600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3343,9 +3349,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>292320</xdr:rowOff>
+      <xdr:rowOff>291600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3355,7 +3361,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="5609160"/>
-          <a:ext cx="182160" cy="407520"/>
+          <a:ext cx="181440" cy="406800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3383,9 +3389,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>292320</xdr:rowOff>
+      <xdr:rowOff>291600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3395,7 +3401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="5609160"/>
-          <a:ext cx="182160" cy="407520"/>
+          <a:ext cx="181440" cy="406800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3423,9 +3429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>293760</xdr:rowOff>
+      <xdr:rowOff>293040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3435,7 +3441,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="5303520"/>
-          <a:ext cx="182160" cy="409680"/>
+          <a:ext cx="181440" cy="408960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3463,9 +3469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>293760</xdr:rowOff>
+      <xdr:rowOff>293040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3475,7 +3481,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="5303520"/>
-          <a:ext cx="182160" cy="409680"/>
+          <a:ext cx="181440" cy="408960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3503,9 +3509,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1126440</xdr:colOff>
+      <xdr:colOff>1125720</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3519,7 +3525,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10161000" y="139320"/>
-          <a:ext cx="1227600" cy="1189440"/>
+          <a:ext cx="1226880" cy="1188720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3540,9 +3546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>293400</xdr:rowOff>
+      <xdr:rowOff>292680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3552,7 +3558,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="5912640"/>
-          <a:ext cx="182160" cy="410040"/>
+          <a:ext cx="181440" cy="409320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3580,9 +3586,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>293400</xdr:rowOff>
+      <xdr:rowOff>292680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3592,7 +3598,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="5912640"/>
-          <a:ext cx="182160" cy="410040"/>
+          <a:ext cx="181440" cy="409320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3620,9 +3626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>292320</xdr:rowOff>
+      <xdr:rowOff>291600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3632,7 +3638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="5609160"/>
-          <a:ext cx="182160" cy="407520"/>
+          <a:ext cx="181440" cy="406800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3660,9 +3666,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>292320</xdr:rowOff>
+      <xdr:rowOff>291600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3672,7 +3678,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4294080" y="5609160"/>
-          <a:ext cx="182160" cy="407520"/>
+          <a:ext cx="181440" cy="406800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3694,15 +3700,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>325800</xdr:colOff>
+      <xdr:colOff>851760</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>122400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
+      <xdr:colOff>639360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3715,8 +3721,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8146800" y="122400"/>
-          <a:ext cx="1872720" cy="1240560"/>
+          <a:off x="8672760" y="122400"/>
+          <a:ext cx="1346040" cy="1239840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3737,9 +3743,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63720</xdr:colOff>
+      <xdr:colOff>63000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3753,7 +3759,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="137520" y="161640"/>
-          <a:ext cx="1361880" cy="1228680"/>
+          <a:ext cx="1361160" cy="1227960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5463,7 +5469,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5579,6 +5585,14 @@
       </c>
       <c r="C10" s="70" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
